--- a/scripts/data/Job Ship Dates.xlsx
+++ b/scripts/data/Job Ship Dates.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmiller1\code\monday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMiller1\git\prodctrlcore\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9C2EFA-DA48-4ECD-80ED-C0BE91E3922A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2400" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
@@ -39,8 +40,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\progers\Documents\My Data Sources\High Steel Scheduling.odc" keepAlive="1" name="High Steel Scheduling" type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\progers\Documents\My Data Sources\High Steel Scheduling.odc" keepAlive="1" name="High Steel Scheduling" type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=High Steel Scheduling;Data Source=hiiboserv2;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="High Steel Scheduling" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -734,7 +735,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -789,7 +790,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Miller, Pat" refreshedDate="43952.338272106485" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Miller, Pat" refreshedDate="43952.338272106485" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="42" level="1">
@@ -1358,7 +1359,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Miller, Pat" refreshedDate="43952.537580324075" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Miller, Pat" refreshedDate="43952.537580324075" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="42" level="1">
@@ -1943,7 +1944,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Miller, Pat" refreshedDate="43952.556669444442" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Miller, Pat" refreshedDate="43952.556669444442" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="42" level="1">
@@ -2529,7 +2530,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Miller, Pat" refreshedDate="43952.566535648148" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Miller, Pat" refreshedDate="43952.566535648148" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="42" level="1">
@@ -3101,7 +3102,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C204" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4276,7 +4277,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B207" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -5625,12 +5626,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Products" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Products" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C209" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -6964,12 +6968,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bays" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Bays" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C369" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -8808,6 +8815,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -9109,7 +9119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -11305,7 +11315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13059,7 +13069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15302,7 +15312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C369"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/scripts/data/Job Ship Dates.xlsx
+++ b/scripts/data/Job Ship Dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMiller1\git\prodctrlcore\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E56B7F5-F909-4868-9A99-E8988CFC9C72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781937DB-9BCF-4DB6-8432-B9E09AE571C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43980.60091828704" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.399914930553" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -1386,7 +1386,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43980.600922800928" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.399917592593" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -1982,7 +1982,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43980.600926851854" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.399921064818" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2580,7 +2580,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43980.600932407404" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.399926157406" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -9278,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -9287,10 +9287,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>44008</v>
+        <v>44000</v>
       </c>
       <c r="C3" s="3">
-        <v>44008</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9298,10 +9298,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
       <c r="C4" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9309,7 +9309,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C5" s="3">
         <v>44228</v>
@@ -9329,7 +9329,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C7" s="3">
         <v>44237</v>
@@ -9340,10 +9340,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>44139</v>
+        <v>44124</v>
       </c>
       <c r="C8" s="3">
-        <v>44139</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9369,10 +9369,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C11" s="3">
-        <v>44050</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9380,10 +9380,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="C12" s="3">
-        <v>44088</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -9433,7 +9433,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>43964</v>
+        <v>43980</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -9460,10 +9460,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C20" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9480,7 +9480,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -9489,7 +9489,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -9498,10 +9498,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C24" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9509,7 +9509,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>44091</v>
+        <v>43994</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -9518,10 +9518,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>43991</v>
+        <v>44018</v>
       </c>
       <c r="C26" s="3">
-        <v>43993</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9532,7 +9532,7 @@
         <v>44029</v>
       </c>
       <c r="C27" s="3">
-        <v>44083</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9540,7 +9540,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>44078</v>
+        <v>44099</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -9549,10 +9549,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>43964</v>
+        <v>43980</v>
       </c>
       <c r="C29" s="3">
-        <v>43992</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9560,10 +9560,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
       <c r="C30" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9582,10 +9582,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
       <c r="C32" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9593,10 +9593,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C33" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9604,10 +9604,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C34" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9615,10 +9615,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C35" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9626,10 +9626,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C36" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9637,10 +9637,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>44151</v>
+        <v>44165</v>
       </c>
       <c r="C37" s="3">
-        <v>44151</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9648,10 +9648,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C38" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9659,10 +9659,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C39" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9670,10 +9670,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>44154</v>
+        <v>44168</v>
       </c>
       <c r="C40" s="3">
-        <v>44154</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9681,10 +9681,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C41" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9692,10 +9692,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C42" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9703,10 +9703,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>43962</v>
+        <v>44049</v>
       </c>
       <c r="C43" s="3">
-        <v>43962</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9714,10 +9714,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C44" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9725,10 +9725,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>43991</v>
+        <v>44029</v>
       </c>
       <c r="C45" s="3">
-        <v>43991</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9747,10 +9747,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C47" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9758,10 +9758,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C48" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9769,10 +9769,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C49" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9780,10 +9780,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C50" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9791,10 +9791,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C51" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9811,10 +9811,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C53" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9822,10 +9822,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C54" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9836,7 +9836,7 @@
         <v>44028</v>
       </c>
       <c r="C55" s="3">
-        <v>44061</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9844,10 +9844,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C56" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9855,10 +9855,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
       <c r="C57" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9866,10 +9866,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>44069</v>
+        <v>44071</v>
       </c>
       <c r="C58" s="3">
-        <v>44069</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9877,10 +9877,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>44076</v>
+        <v>44078</v>
       </c>
       <c r="C59" s="3">
-        <v>44076</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9888,10 +9888,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C60" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9899,10 +9899,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C61" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9910,10 +9910,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>44013</v>
+        <v>44046</v>
       </c>
       <c r="C62" s="3">
-        <v>44013</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9921,10 +9921,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C63" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9932,10 +9932,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C64" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9943,10 +9943,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C65" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9954,10 +9954,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C66" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9965,7 +9965,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -9974,10 +9974,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
       <c r="C68" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9985,10 +9985,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
       <c r="C69" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -10007,10 +10007,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C71" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -10018,10 +10018,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C72" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -10040,7 +10040,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -10058,10 +10058,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C76" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -10069,7 +10069,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C77" s="3"/>
     </row>
@@ -10078,10 +10078,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C78" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -10089,10 +10089,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C79" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -10100,10 +10100,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>44004</v>
+        <v>44042</v>
       </c>
       <c r="C80" s="3">
-        <v>44004</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -10114,7 +10114,7 @@
         <v>43992</v>
       </c>
       <c r="C81" s="3">
-        <v>44028</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -10122,7 +10122,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="C82" s="3"/>
     </row>
@@ -10131,10 +10131,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C83" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -10151,7 +10151,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>43964</v>
+        <v>43980</v>
       </c>
       <c r="C85" s="3"/>
     </row>
@@ -10160,7 +10160,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>44019</v>
+        <v>44082</v>
       </c>
       <c r="C86" s="3"/>
     </row>
@@ -10180,10 +10180,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
       <c r="C88" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -10191,10 +10191,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C89" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -10202,10 +10202,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
       <c r="C90" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -10224,10 +10224,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
       <c r="C92" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -10235,10 +10235,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C93" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -10246,10 +10246,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C94" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -10257,7 +10257,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C95" s="3"/>
     </row>
@@ -10266,10 +10266,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C96" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -10288,10 +10288,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3">
-        <v>44109</v>
+        <v>44111</v>
       </c>
       <c r="C98" s="3">
-        <v>44109</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -10299,10 +10299,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C99" s="3">
-        <v>44131</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -10310,7 +10310,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>44032</v>
+        <v>43999</v>
       </c>
       <c r="C100" s="3"/>
     </row>
@@ -10328,7 +10328,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>43969</v>
+        <v>43997</v>
       </c>
       <c r="C102" s="3">
         <v>43997</v>
@@ -10339,10 +10339,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C103" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -10350,10 +10350,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C104" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -10383,7 +10383,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C107" s="3"/>
     </row>
@@ -10392,7 +10392,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C108" s="3"/>
     </row>
@@ -10412,10 +10412,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C110" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -10423,10 +10423,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
       <c r="C111" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -10456,10 +10456,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C114" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -10467,10 +10467,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C115" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -10478,10 +10478,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C116" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -10489,10 +10489,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C117" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -10500,10 +10500,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="C118" s="3">
-        <v>43978</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -10511,10 +10511,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3">
-        <v>44076</v>
+        <v>44060</v>
       </c>
       <c r="C119" s="3">
-        <v>44076</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -10522,10 +10522,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
       <c r="C120" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -10533,10 +10533,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
       <c r="C121" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -10544,10 +10544,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C122" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -10555,10 +10555,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
       <c r="C123" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -10566,10 +10566,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="3">
-        <v>44036</v>
+        <v>44040</v>
       </c>
       <c r="C124" s="3">
-        <v>44043</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -10588,10 +10588,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C126" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -10610,7 +10610,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C128" s="3"/>
     </row>
@@ -10650,10 +10650,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C132" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -10661,7 +10661,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
       <c r="C133" s="3"/>
     </row>
@@ -10679,10 +10679,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
       <c r="C135" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -10699,10 +10699,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C137" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -10710,10 +10710,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
       <c r="C138" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -10721,10 +10721,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="3">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="C139" s="3">
-        <v>43992</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -10732,10 +10732,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="3">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="C140" s="3">
-        <v>43998</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -10743,10 +10743,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C141" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -10754,10 +10754,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="3">
-        <v>44091</v>
+        <v>44074</v>
       </c>
       <c r="C142" s="3">
-        <v>44091</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -10765,10 +10765,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C143" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -10776,10 +10776,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C144" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -10787,10 +10787,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C145" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -10798,10 +10798,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
       <c r="C146" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -10809,10 +10809,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C147" s="3">
-        <v>43994</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -10820,10 +10820,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C148" s="3">
-        <v>43998</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -10831,10 +10831,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
       <c r="C149" s="3">
-        <v>43977</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -10842,10 +10842,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="3">
-        <v>43986</v>
+        <v>43990</v>
       </c>
       <c r="C150" s="3">
-        <v>43986</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -10883,7 +10883,7 @@
         <v>44004</v>
       </c>
       <c r="C154" s="3">
-        <v>44047</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -10894,7 +10894,7 @@
         <v>43993</v>
       </c>
       <c r="C155" s="3">
-        <v>44018</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -10902,10 +10902,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="3">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="C156" s="3">
-        <v>44022</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -10913,10 +10913,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="3">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="C157" s="3">
-        <v>44067</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -10927,7 +10927,7 @@
         <v>44043</v>
       </c>
       <c r="C158" s="3">
-        <v>44049</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C159" s="3">
-        <v>44007</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -10946,10 +10946,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C160" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -10957,10 +10957,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C161" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -10971,7 +10971,7 @@
         <v>44019</v>
       </c>
       <c r="C162" s="3">
-        <v>44034</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -10982,7 +10982,7 @@
         <v>43985</v>
       </c>
       <c r="C163" s="3">
-        <v>44005</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -10990,10 +10990,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="3">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="C164" s="3">
-        <v>44006</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -11001,10 +11001,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="3">
-        <v>44012</v>
+        <v>44014</v>
       </c>
       <c r="C165" s="3">
-        <v>44012</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -11012,10 +11012,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="3">
+        <v>43980</v>
+      </c>
+      <c r="C166" s="3">
         <v>43984</v>
-      </c>
-      <c r="C166" s="3">
-        <v>43990</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -11026,7 +11026,7 @@
         <v>44047</v>
       </c>
       <c r="C167" s="3">
-        <v>44054</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -11037,7 +11037,7 @@
         <v>44053</v>
       </c>
       <c r="C168" s="3">
-        <v>44056</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -11045,10 +11045,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
       <c r="C169" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -11056,7 +11056,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C170" s="3"/>
     </row>
@@ -11065,10 +11065,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="3">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="C171" s="3">
-        <v>44176</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -11076,10 +11076,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="3">
-        <v>44182</v>
+        <v>44194</v>
       </c>
       <c r="C172" s="3">
-        <v>44182</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -11087,10 +11087,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="3">
-        <v>44068</v>
+        <v>44070</v>
       </c>
       <c r="C173" s="3">
-        <v>44068</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -11098,10 +11098,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="3">
-        <v>44179</v>
+        <v>44187</v>
       </c>
       <c r="C174" s="3">
-        <v>44179</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -11109,10 +11109,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="3">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="C175" s="3">
-        <v>44210</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -11120,10 +11120,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="3">
-        <v>44103</v>
+        <v>44105</v>
       </c>
       <c r="C176" s="3">
-        <v>44103</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -11131,10 +11131,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="3">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="C177" s="3">
-        <v>44176</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -11142,10 +11142,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="3">
-        <v>44222</v>
+        <v>44230</v>
       </c>
       <c r="C178" s="3">
-        <v>44222</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -11153,10 +11153,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="3">
-        <v>44224</v>
+        <v>44232</v>
       </c>
       <c r="C179" s="3">
-        <v>44224</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -11164,10 +11164,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="3">
-        <v>44182</v>
+        <v>44186</v>
       </c>
       <c r="C180" s="3">
-        <v>44182</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11175,10 +11175,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3">
-        <v>44187</v>
+        <v>44193</v>
       </c>
       <c r="C181" s="3">
-        <v>44187</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -11186,7 +11186,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C182" s="3"/>
     </row>
@@ -11195,10 +11195,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C183" s="3">
-        <v>43986</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -11206,10 +11206,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
       <c r="C184" s="3">
-        <v>43971</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -11217,10 +11217,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="3">
-        <v>43977</v>
+        <v>43980</v>
       </c>
       <c r="C185" s="3">
-        <v>43978</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -11228,10 +11228,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="3">
-        <v>43971</v>
+        <v>43980</v>
       </c>
       <c r="C186" s="3">
-        <v>44000</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -11239,10 +11239,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C187" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -11250,10 +11250,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="3">
-        <v>43971</v>
+        <v>44026</v>
       </c>
       <c r="C188" s="3">
-        <v>44034</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -11261,10 +11261,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="3">
-        <v>44146</v>
+        <v>44154</v>
       </c>
       <c r="C189" s="3">
-        <v>44146</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -11272,10 +11272,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C190" s="3">
-        <v>43990</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -11283,10 +11283,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C191" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -11294,10 +11294,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
       <c r="C192" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -11305,10 +11305,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="3">
-        <v>43970</v>
+        <v>43980</v>
       </c>
       <c r="C193" s="3">
-        <v>43970</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -11349,10 +11349,10 @@
         <v>197</v>
       </c>
       <c r="B197" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C197" s="3">
-        <v>43977</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -11378,10 +11378,10 @@
         <v>200</v>
       </c>
       <c r="B200" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="C200" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
   </sheetData>
@@ -13140,7 +13140,7 @@
         <v>203</v>
       </c>
       <c r="C2" s="3">
-        <v>44008</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13151,7 +13151,7 @@
         <v>203</v>
       </c>
       <c r="C3" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13200,7 +13200,7 @@
         <v>207</v>
       </c>
       <c r="C8" s="3">
-        <v>44182</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -13208,7 +13208,7 @@
         <v>203</v>
       </c>
       <c r="C9" s="3">
-        <v>44139</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -13219,7 +13219,7 @@
         <v>203</v>
       </c>
       <c r="C10" s="3">
-        <v>44050</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -13230,7 +13230,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="3">
-        <v>44088</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13285,7 +13285,7 @@
         <v>203</v>
       </c>
       <c r="C16" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13296,7 +13296,7 @@
         <v>206</v>
       </c>
       <c r="C17" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13307,7 +13307,7 @@
         <v>204</v>
       </c>
       <c r="C18" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13315,7 +13315,7 @@
         <v>206</v>
       </c>
       <c r="C19" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13326,7 +13326,7 @@
         <v>203</v>
       </c>
       <c r="C20" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13337,7 +13337,7 @@
         <v>203</v>
       </c>
       <c r="C21" s="3">
-        <v>43993</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13356,7 +13356,7 @@
         <v>203</v>
       </c>
       <c r="C23" s="3">
-        <v>44083</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -13367,7 +13367,7 @@
         <v>205</v>
       </c>
       <c r="C24" s="3">
-        <v>44088</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -13378,7 +13378,7 @@
         <v>203</v>
       </c>
       <c r="C25" s="3">
-        <v>43992</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -13389,7 +13389,7 @@
         <v>203</v>
       </c>
       <c r="C26" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -13419,7 +13419,7 @@
         <v>203</v>
       </c>
       <c r="C29" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -13430,7 +13430,7 @@
         <v>203</v>
       </c>
       <c r="C30" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -13438,7 +13438,7 @@
         <v>205</v>
       </c>
       <c r="C31" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -13449,7 +13449,7 @@
         <v>203</v>
       </c>
       <c r="C32" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -13460,7 +13460,7 @@
         <v>203</v>
       </c>
       <c r="C33" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -13471,7 +13471,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -13482,7 +13482,7 @@
         <v>203</v>
       </c>
       <c r="C35" s="3">
-        <v>44151</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -13493,7 +13493,7 @@
         <v>203</v>
       </c>
       <c r="C36" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -13504,7 +13504,7 @@
         <v>203</v>
       </c>
       <c r="C37" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -13515,7 +13515,7 @@
         <v>203</v>
       </c>
       <c r="C38" s="3">
-        <v>44154</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -13526,7 +13526,7 @@
         <v>203</v>
       </c>
       <c r="C39" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -13537,7 +13537,7 @@
         <v>203</v>
       </c>
       <c r="C40" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -13548,7 +13548,7 @@
         <v>203</v>
       </c>
       <c r="C41" s="3">
-        <v>43962</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -13559,7 +13559,7 @@
         <v>203</v>
       </c>
       <c r="C42" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -13570,7 +13570,7 @@
         <v>203</v>
       </c>
       <c r="C43" s="3">
-        <v>43991</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -13581,7 +13581,7 @@
         <v>203</v>
       </c>
       <c r="C44" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -13589,7 +13589,7 @@
         <v>204</v>
       </c>
       <c r="C45" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -13600,7 +13600,7 @@
         <v>203</v>
       </c>
       <c r="C46" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -13608,7 +13608,7 @@
         <v>204</v>
       </c>
       <c r="C47" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -13619,7 +13619,7 @@
         <v>203</v>
       </c>
       <c r="C48" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -13627,7 +13627,7 @@
         <v>204</v>
       </c>
       <c r="C49" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -13638,7 +13638,7 @@
         <v>203</v>
       </c>
       <c r="C50" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -13646,7 +13646,7 @@
         <v>204</v>
       </c>
       <c r="C51" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -13657,7 +13657,7 @@
         <v>203</v>
       </c>
       <c r="C52" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -13665,7 +13665,7 @@
         <v>204</v>
       </c>
       <c r="C53" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -13676,7 +13676,7 @@
         <v>203</v>
       </c>
       <c r="C54" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -13687,7 +13687,7 @@
         <v>203</v>
       </c>
       <c r="C55" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -13698,7 +13698,7 @@
         <v>203</v>
       </c>
       <c r="C56" s="3">
-        <v>44061</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -13709,7 +13709,7 @@
         <v>203</v>
       </c>
       <c r="C57" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -13720,7 +13720,7 @@
         <v>203</v>
       </c>
       <c r="C58" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -13731,7 +13731,7 @@
         <v>203</v>
       </c>
       <c r="C59" s="3">
-        <v>44069</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -13742,7 +13742,7 @@
         <v>203</v>
       </c>
       <c r="C60" s="3">
-        <v>44076</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -13753,7 +13753,7 @@
         <v>203</v>
       </c>
       <c r="C61" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -13764,7 +13764,7 @@
         <v>203</v>
       </c>
       <c r="C62" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -13775,7 +13775,7 @@
         <v>203</v>
       </c>
       <c r="C63" s="3">
-        <v>44013</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -13786,7 +13786,7 @@
         <v>203</v>
       </c>
       <c r="C64" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -13797,7 +13797,7 @@
         <v>203</v>
       </c>
       <c r="C65" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -13808,7 +13808,7 @@
         <v>203</v>
       </c>
       <c r="C66" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -13816,7 +13816,7 @@
         <v>204</v>
       </c>
       <c r="C67" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -13827,7 +13827,7 @@
         <v>203</v>
       </c>
       <c r="C68" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -13838,7 +13838,7 @@
         <v>205</v>
       </c>
       <c r="C69" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -13849,7 +13849,7 @@
         <v>203</v>
       </c>
       <c r="C70" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -13860,7 +13860,7 @@
         <v>203</v>
       </c>
       <c r="C71" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -13882,7 +13882,7 @@
         <v>203</v>
       </c>
       <c r="C73" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -13893,7 +13893,7 @@
         <v>203</v>
       </c>
       <c r="C74" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -13915,7 +13915,7 @@
         <v>206</v>
       </c>
       <c r="C76" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -13926,7 +13926,7 @@
         <v>203</v>
       </c>
       <c r="C77" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -13937,7 +13937,7 @@
         <v>203</v>
       </c>
       <c r="C78" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -13945,7 +13945,7 @@
         <v>204</v>
       </c>
       <c r="C79" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -13956,7 +13956,7 @@
         <v>203</v>
       </c>
       <c r="C80" s="3">
-        <v>44004</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -13967,7 +13967,7 @@
         <v>203</v>
       </c>
       <c r="C81" s="3">
-        <v>44028</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -13978,7 +13978,7 @@
         <v>203</v>
       </c>
       <c r="C82" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -14000,7 +14000,7 @@
         <v>203</v>
       </c>
       <c r="C84" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -14011,7 +14011,7 @@
         <v>203</v>
       </c>
       <c r="C85" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -14022,7 +14022,7 @@
         <v>203</v>
       </c>
       <c r="C86" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -14044,7 +14044,7 @@
         <v>203</v>
       </c>
       <c r="C88" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -14055,7 +14055,7 @@
         <v>203</v>
       </c>
       <c r="C89" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -14066,7 +14066,7 @@
         <v>203</v>
       </c>
       <c r="C90" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -14077,7 +14077,7 @@
         <v>205</v>
       </c>
       <c r="C91" s="3">
-        <v>43984</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -14088,7 +14088,7 @@
         <v>203</v>
       </c>
       <c r="C92" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -14096,7 +14096,7 @@
         <v>205</v>
       </c>
       <c r="C93" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -14118,7 +14118,7 @@
         <v>203</v>
       </c>
       <c r="C95" s="3">
-        <v>44109</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -14129,7 +14129,7 @@
         <v>203</v>
       </c>
       <c r="C96" s="3">
-        <v>44131</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -14140,7 +14140,7 @@
         <v>205</v>
       </c>
       <c r="C97" s="3">
-        <v>44075</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -14162,7 +14162,7 @@
         <v>203</v>
       </c>
       <c r="C99" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -14173,7 +14173,7 @@
         <v>203</v>
       </c>
       <c r="C100" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -14206,7 +14206,7 @@
         <v>205</v>
       </c>
       <c r="C103" s="3">
-        <v>43203</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -14217,7 +14217,7 @@
         <v>205</v>
       </c>
       <c r="C104" s="3">
-        <v>43203</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -14239,7 +14239,7 @@
         <v>203</v>
       </c>
       <c r="C106" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -14250,7 +14250,7 @@
         <v>203</v>
       </c>
       <c r="C107" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -14291,7 +14291,7 @@
         <v>203</v>
       </c>
       <c r="C111" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -14310,7 +14310,7 @@
         <v>203</v>
       </c>
       <c r="C113" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -14321,7 +14321,7 @@
         <v>203</v>
       </c>
       <c r="C114" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -14332,7 +14332,7 @@
         <v>203</v>
       </c>
       <c r="C115" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -14343,7 +14343,7 @@
         <v>203</v>
       </c>
       <c r="C116" s="3">
-        <v>43978</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -14354,7 +14354,7 @@
         <v>203</v>
       </c>
       <c r="C117" s="3">
-        <v>44076</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -14365,7 +14365,7 @@
         <v>203</v>
       </c>
       <c r="C118" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -14376,7 +14376,7 @@
         <v>203</v>
       </c>
       <c r="C119" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -14387,7 +14387,7 @@
         <v>203</v>
       </c>
       <c r="C120" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -14398,7 +14398,7 @@
         <v>203</v>
       </c>
       <c r="C121" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -14409,7 +14409,7 @@
         <v>203</v>
       </c>
       <c r="C122" s="3">
-        <v>44043</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -14431,7 +14431,7 @@
         <v>203</v>
       </c>
       <c r="C124" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -14453,7 +14453,7 @@
         <v>205</v>
       </c>
       <c r="C126" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -14486,7 +14486,7 @@
         <v>203</v>
       </c>
       <c r="C129" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -14497,7 +14497,7 @@
         <v>205</v>
       </c>
       <c r="C130" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -14508,7 +14508,7 @@
         <v>203</v>
       </c>
       <c r="C131" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -14519,7 +14519,7 @@
         <v>205</v>
       </c>
       <c r="C132" s="3">
-        <v>44019</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -14530,7 +14530,7 @@
         <v>203</v>
       </c>
       <c r="C133" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -14541,7 +14541,7 @@
         <v>203</v>
       </c>
       <c r="C134" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -14552,7 +14552,7 @@
         <v>203</v>
       </c>
       <c r="C135" s="3">
-        <v>43992</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -14563,7 +14563,7 @@
         <v>203</v>
       </c>
       <c r="C136" s="3">
-        <v>43998</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -14571,7 +14571,7 @@
         <v>205</v>
       </c>
       <c r="C137" s="3">
-        <v>44074</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -14582,7 +14582,7 @@
         <v>203</v>
       </c>
       <c r="C138" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -14593,7 +14593,7 @@
         <v>203</v>
       </c>
       <c r="C139" s="3">
-        <v>44091</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -14604,7 +14604,7 @@
         <v>203</v>
       </c>
       <c r="C140" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -14615,7 +14615,7 @@
         <v>203</v>
       </c>
       <c r="C141" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -14626,7 +14626,7 @@
         <v>203</v>
       </c>
       <c r="C142" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -14637,7 +14637,7 @@
         <v>203</v>
       </c>
       <c r="C143" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -14648,7 +14648,7 @@
         <v>203</v>
       </c>
       <c r="C144" s="3">
-        <v>43994</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -14659,7 +14659,7 @@
         <v>203</v>
       </c>
       <c r="C145" s="3">
-        <v>43998</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -14670,7 +14670,7 @@
         <v>203</v>
       </c>
       <c r="C146" s="3">
-        <v>43977</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -14681,7 +14681,7 @@
         <v>203</v>
       </c>
       <c r="C147" s="3">
-        <v>43986</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -14692,7 +14692,7 @@
         <v>205</v>
       </c>
       <c r="C148" s="3">
-        <v>44053</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -14703,7 +14703,7 @@
         <v>205</v>
       </c>
       <c r="C149" s="3">
-        <v>44060</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -14714,7 +14714,7 @@
         <v>205</v>
       </c>
       <c r="C150" s="3">
-        <v>44067</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -14725,7 +14725,7 @@
         <v>203</v>
       </c>
       <c r="C151" s="3">
-        <v>44047</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -14736,7 +14736,7 @@
         <v>203</v>
       </c>
       <c r="C152" s="3">
-        <v>44018</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -14747,7 +14747,7 @@
         <v>203</v>
       </c>
       <c r="C153" s="3">
-        <v>44022</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -14758,7 +14758,7 @@
         <v>203</v>
       </c>
       <c r="C154" s="3">
-        <v>44067</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -14769,7 +14769,7 @@
         <v>203</v>
       </c>
       <c r="C155" s="3">
-        <v>44049</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -14780,7 +14780,7 @@
         <v>203</v>
       </c>
       <c r="C156" s="3">
-        <v>44007</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -14791,7 +14791,7 @@
         <v>203</v>
       </c>
       <c r="C157" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -14802,7 +14802,7 @@
         <v>203</v>
       </c>
       <c r="C158" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -14813,7 +14813,7 @@
         <v>203</v>
       </c>
       <c r="C159" s="3">
-        <v>44034</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -14824,7 +14824,7 @@
         <v>203</v>
       </c>
       <c r="C160" s="3">
-        <v>44005</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -14835,7 +14835,7 @@
         <v>203</v>
       </c>
       <c r="C161" s="3">
-        <v>44006</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -14846,7 +14846,7 @@
         <v>203</v>
       </c>
       <c r="C162" s="3">
-        <v>44012</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -14857,7 +14857,7 @@
         <v>203</v>
       </c>
       <c r="C163" s="3">
-        <v>43990</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -14868,7 +14868,7 @@
         <v>203</v>
       </c>
       <c r="C164" s="3">
-        <v>44054</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -14879,7 +14879,7 @@
         <v>203</v>
       </c>
       <c r="C165" s="3">
-        <v>44056</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -14890,7 +14890,7 @@
         <v>203</v>
       </c>
       <c r="C166" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -14901,7 +14901,7 @@
         <v>203</v>
       </c>
       <c r="C167" s="3">
-        <v>44176</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -14912,7 +14912,7 @@
         <v>203</v>
       </c>
       <c r="C168" s="3">
-        <v>44182</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -14920,7 +14920,7 @@
         <v>204</v>
       </c>
       <c r="C169" s="3">
-        <v>44208</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -14931,7 +14931,7 @@
         <v>203</v>
       </c>
       <c r="C170" s="3">
-        <v>44068</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -14939,7 +14939,7 @@
         <v>204</v>
       </c>
       <c r="C171" s="3">
-        <v>44159</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -14950,7 +14950,7 @@
         <v>203</v>
       </c>
       <c r="C172" s="3">
-        <v>44179</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -14958,7 +14958,7 @@
         <v>204</v>
       </c>
       <c r="C173" s="3">
-        <v>44229</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -14969,7 +14969,7 @@
         <v>203</v>
       </c>
       <c r="C174" s="3">
-        <v>44210</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -14977,7 +14977,7 @@
         <v>204</v>
       </c>
       <c r="C175" s="3">
-        <v>44239</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -14988,7 +14988,7 @@
         <v>203</v>
       </c>
       <c r="C176" s="3">
-        <v>44103</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -14999,7 +14999,7 @@
         <v>203</v>
       </c>
       <c r="C177" s="3">
-        <v>44176</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -15010,7 +15010,7 @@
         <v>203</v>
       </c>
       <c r="C178" s="3">
-        <v>44222</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -15018,7 +15018,7 @@
         <v>204</v>
       </c>
       <c r="C179" s="3">
-        <v>44243</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -15029,7 +15029,7 @@
         <v>203</v>
       </c>
       <c r="C180" s="3">
-        <v>44224</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -15037,7 +15037,7 @@
         <v>204</v>
       </c>
       <c r="C181" s="3">
-        <v>44245</v>
+        <v>44253</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -15048,7 +15048,7 @@
         <v>203</v>
       </c>
       <c r="C182" s="3">
-        <v>44182</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -15059,7 +15059,7 @@
         <v>203</v>
       </c>
       <c r="C183" s="3">
-        <v>44187</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -15070,7 +15070,7 @@
         <v>205</v>
       </c>
       <c r="C184" s="3">
-        <v>43998</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -15081,7 +15081,7 @@
         <v>203</v>
       </c>
       <c r="C185" s="3">
-        <v>43986</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -15092,7 +15092,7 @@
         <v>203</v>
       </c>
       <c r="C186" s="3">
-        <v>43971</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -15103,7 +15103,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="3">
-        <v>43978</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -15114,7 +15114,7 @@
         <v>203</v>
       </c>
       <c r="C188" s="3">
-        <v>44000</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -15122,7 +15122,7 @@
         <v>204</v>
       </c>
       <c r="C189" s="3">
-        <v>43971</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -15130,7 +15130,7 @@
         <v>205</v>
       </c>
       <c r="C190" s="3">
-        <v>44020</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -15141,7 +15141,7 @@
         <v>203</v>
       </c>
       <c r="C191" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -15152,7 +15152,7 @@
         <v>203</v>
       </c>
       <c r="C192" s="3">
-        <v>44034</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -15163,7 +15163,7 @@
         <v>203</v>
       </c>
       <c r="C193" s="3">
-        <v>44146</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -15174,7 +15174,7 @@
         <v>203</v>
       </c>
       <c r="C194" s="3">
-        <v>43990</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -15185,7 +15185,7 @@
         <v>203</v>
       </c>
       <c r="C195" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -15196,7 +15196,7 @@
         <v>203</v>
       </c>
       <c r="C196" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -15207,7 +15207,7 @@
         <v>203</v>
       </c>
       <c r="C197" s="3">
-        <v>43970</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -15256,7 +15256,7 @@
         <v>205</v>
       </c>
       <c r="C202" s="3">
-        <v>44074</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -15267,7 +15267,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="3">
-        <v>43977</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -15289,7 +15289,7 @@
         <v>203</v>
       </c>
       <c r="C205" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
   </sheetData>
@@ -15343,7 +15343,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15354,7 +15354,7 @@
         <v>215</v>
       </c>
       <c r="C3" s="3">
-        <v>44035</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15362,7 +15362,7 @@
         <v>216</v>
       </c>
       <c r="C4" s="3">
-        <v>44008</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -15373,7 +15373,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15381,7 +15381,7 @@
         <v>216</v>
       </c>
       <c r="C6" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -15392,7 +15392,7 @@
         <v>215</v>
       </c>
       <c r="C7" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15414,7 +15414,7 @@
         <v>215</v>
       </c>
       <c r="C9" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -15425,7 +15425,7 @@
         <v>215</v>
       </c>
       <c r="C10" s="3">
-        <v>44158</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -15433,7 +15433,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="3">
-        <v>44139</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -15466,7 +15466,7 @@
         <v>215</v>
       </c>
       <c r="C14" s="3">
-        <v>44055</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -15474,7 +15474,7 @@
         <v>217</v>
       </c>
       <c r="C15" s="3">
-        <v>44050</v>
+        <v>44054</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -15485,7 +15485,7 @@
         <v>215</v>
       </c>
       <c r="C16" s="3">
-        <v>44091</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -15493,7 +15493,7 @@
         <v>217</v>
       </c>
       <c r="C17" s="3">
-        <v>44088</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -15591,7 +15591,7 @@
         <v>215</v>
       </c>
       <c r="C27" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -15613,7 +15613,7 @@
         <v>215</v>
       </c>
       <c r="C29" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -15624,7 +15624,7 @@
         <v>215</v>
       </c>
       <c r="C30" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -15635,7 +15635,7 @@
         <v>215</v>
       </c>
       <c r="C31" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -15643,7 +15643,7 @@
         <v>216</v>
       </c>
       <c r="C32" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -15654,7 +15654,7 @@
         <v>215</v>
       </c>
       <c r="C33" s="3">
-        <v>44091</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -15665,7 +15665,7 @@
         <v>215</v>
       </c>
       <c r="C34" s="3">
-        <v>43991</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -15673,7 +15673,7 @@
         <v>219</v>
       </c>
       <c r="C35" s="3">
-        <v>43993</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -15692,7 +15692,7 @@
         <v>216</v>
       </c>
       <c r="C37" s="3">
-        <v>44083</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -15703,7 +15703,7 @@
         <v>215</v>
       </c>
       <c r="C38" s="3">
-        <v>44078</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -15714,7 +15714,7 @@
         <v>215</v>
       </c>
       <c r="C39" s="3">
-        <v>43997</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -15722,7 +15722,7 @@
         <v>219</v>
       </c>
       <c r="C40" s="3">
-        <v>44013</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -15730,7 +15730,7 @@
         <v>216</v>
       </c>
       <c r="C41" s="3">
-        <v>43992</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -15741,7 +15741,7 @@
         <v>215</v>
       </c>
       <c r="C42" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -15749,7 +15749,7 @@
         <v>216</v>
       </c>
       <c r="C43" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -15787,7 +15787,7 @@
         <v>215</v>
       </c>
       <c r="C47" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -15795,7 +15795,7 @@
         <v>217</v>
       </c>
       <c r="C48" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -15803,7 +15803,7 @@
         <v>218</v>
       </c>
       <c r="C49" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -15814,7 +15814,7 @@
         <v>215</v>
       </c>
       <c r="C50" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -15822,7 +15822,7 @@
         <v>217</v>
       </c>
       <c r="C51" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -15830,7 +15830,7 @@
         <v>218</v>
       </c>
       <c r="C52" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -15841,7 +15841,7 @@
         <v>215</v>
       </c>
       <c r="C53" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -15849,7 +15849,7 @@
         <v>216</v>
       </c>
       <c r="C54" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -15860,7 +15860,7 @@
         <v>215</v>
       </c>
       <c r="C55" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -15868,7 +15868,7 @@
         <v>218</v>
       </c>
       <c r="C56" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -15879,7 +15879,7 @@
         <v>215</v>
       </c>
       <c r="C57" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -15887,7 +15887,7 @@
         <v>218</v>
       </c>
       <c r="C58" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -15898,7 +15898,7 @@
         <v>215</v>
       </c>
       <c r="C59" s="3">
-        <v>44154</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -15906,7 +15906,7 @@
         <v>218</v>
       </c>
       <c r="C60" s="3">
-        <v>44151</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -15917,7 +15917,7 @@
         <v>215</v>
       </c>
       <c r="C61" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -15925,7 +15925,7 @@
         <v>218</v>
       </c>
       <c r="C62" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -15936,7 +15936,7 @@
         <v>215</v>
       </c>
       <c r="C63" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -15944,7 +15944,7 @@
         <v>218</v>
       </c>
       <c r="C64" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -15955,7 +15955,7 @@
         <v>215</v>
       </c>
       <c r="C65" s="3">
-        <v>44159</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -15963,7 +15963,7 @@
         <v>218</v>
       </c>
       <c r="C66" s="3">
-        <v>44154</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -15974,7 +15974,7 @@
         <v>215</v>
       </c>
       <c r="C67" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -15982,7 +15982,7 @@
         <v>217</v>
       </c>
       <c r="C68" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -15993,7 +15993,7 @@
         <v>215</v>
       </c>
       <c r="C69" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -16001,7 +16001,7 @@
         <v>217</v>
       </c>
       <c r="C70" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -16012,7 +16012,7 @@
         <v>215</v>
       </c>
       <c r="C71" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -16020,7 +16020,7 @@
         <v>216</v>
       </c>
       <c r="C72" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -16031,7 +16031,7 @@
         <v>215</v>
       </c>
       <c r="C73" s="3">
-        <v>44005</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -16039,7 +16039,7 @@
         <v>216</v>
       </c>
       <c r="C74" s="3">
-        <v>44000</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -16069,7 +16069,7 @@
         <v>215</v>
       </c>
       <c r="C77" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -16077,7 +16077,7 @@
         <v>218</v>
       </c>
       <c r="C78" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -16088,7 +16088,7 @@
         <v>215</v>
       </c>
       <c r="C79" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -16096,7 +16096,7 @@
         <v>216</v>
       </c>
       <c r="C80" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -16107,7 +16107,7 @@
         <v>215</v>
       </c>
       <c r="C81" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -16115,7 +16115,7 @@
         <v>218</v>
       </c>
       <c r="C82" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -16126,7 +16126,7 @@
         <v>215</v>
       </c>
       <c r="C83" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -16134,7 +16134,7 @@
         <v>216</v>
       </c>
       <c r="C84" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -16145,7 +16145,7 @@
         <v>215</v>
       </c>
       <c r="C85" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -16153,7 +16153,7 @@
         <v>216</v>
       </c>
       <c r="C86" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -16183,7 +16183,7 @@
         <v>217</v>
       </c>
       <c r="C89" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -16191,7 +16191,7 @@
         <v>218</v>
       </c>
       <c r="C90" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -16202,7 +16202,7 @@
         <v>215</v>
       </c>
       <c r="C91" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -16210,7 +16210,7 @@
         <v>217</v>
       </c>
       <c r="C92" s="3">
-        <v>43230</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -16218,7 +16218,7 @@
         <v>218</v>
       </c>
       <c r="C93" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -16237,7 +16237,7 @@
         <v>218</v>
       </c>
       <c r="C95" s="3">
-        <v>44070</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -16248,7 +16248,7 @@
         <v>215</v>
       </c>
       <c r="C96" s="3">
-        <v>43969</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -16256,7 +16256,7 @@
         <v>217</v>
       </c>
       <c r="C97" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -16267,7 +16267,7 @@
         <v>215</v>
       </c>
       <c r="C98" s="3">
-        <v>43984</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -16275,7 +16275,7 @@
         <v>217</v>
       </c>
       <c r="C99" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -16286,7 +16286,7 @@
         <v>215</v>
       </c>
       <c r="C100" s="3">
-        <v>44074</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -16294,7 +16294,7 @@
         <v>217</v>
       </c>
       <c r="C101" s="3">
-        <v>44069</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -16305,7 +16305,7 @@
         <v>215</v>
       </c>
       <c r="C102" s="3">
-        <v>44082</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -16313,7 +16313,7 @@
         <v>217</v>
       </c>
       <c r="C103" s="3">
-        <v>44076</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -16324,7 +16324,7 @@
         <v>215</v>
       </c>
       <c r="C104" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -16332,7 +16332,7 @@
         <v>217</v>
       </c>
       <c r="C105" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -16340,7 +16340,7 @@
         <v>218</v>
       </c>
       <c r="C106" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -16351,7 +16351,7 @@
         <v>215</v>
       </c>
       <c r="C107" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -16359,7 +16359,7 @@
         <v>217</v>
       </c>
       <c r="C108" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -16370,7 +16370,7 @@
         <v>215</v>
       </c>
       <c r="C109" s="3">
-        <v>44019</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -16378,7 +16378,7 @@
         <v>216</v>
       </c>
       <c r="C110" s="3">
-        <v>44013</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -16389,7 +16389,7 @@
         <v>215</v>
       </c>
       <c r="C111" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -16397,7 +16397,7 @@
         <v>217</v>
       </c>
       <c r="C112" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -16408,7 +16408,7 @@
         <v>215</v>
       </c>
       <c r="C113" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -16416,7 +16416,7 @@
         <v>217</v>
       </c>
       <c r="C114" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -16427,7 +16427,7 @@
         <v>215</v>
       </c>
       <c r="C115" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -16435,7 +16435,7 @@
         <v>217</v>
       </c>
       <c r="C116" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -16446,7 +16446,7 @@
         <v>215</v>
       </c>
       <c r="C117" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -16454,7 +16454,7 @@
         <v>217</v>
       </c>
       <c r="C118" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -16465,7 +16465,7 @@
         <v>215</v>
       </c>
       <c r="C119" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -16476,7 +16476,7 @@
         <v>215</v>
       </c>
       <c r="C120" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -16484,7 +16484,7 @@
         <v>216</v>
       </c>
       <c r="C121" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -16503,7 +16503,7 @@
         <v>217</v>
       </c>
       <c r="C123" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -16533,7 +16533,7 @@
         <v>215</v>
       </c>
       <c r="C126" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -16541,7 +16541,7 @@
         <v>216</v>
       </c>
       <c r="C127" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -16552,7 +16552,7 @@
         <v>215</v>
       </c>
       <c r="C128" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -16560,7 +16560,7 @@
         <v>218</v>
       </c>
       <c r="C129" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -16590,7 +16590,7 @@
         <v>215</v>
       </c>
       <c r="C132" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -16598,7 +16598,7 @@
         <v>218</v>
       </c>
       <c r="C133" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -16609,7 +16609,7 @@
         <v>215</v>
       </c>
       <c r="C134" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -16617,7 +16617,7 @@
         <v>219</v>
       </c>
       <c r="C135" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -16636,7 +16636,7 @@
         <v>217</v>
       </c>
       <c r="C137" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -16647,7 +16647,7 @@
         <v>215</v>
       </c>
       <c r="C138" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -16655,7 +16655,7 @@
         <v>217</v>
       </c>
       <c r="C139" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -16663,7 +16663,7 @@
         <v>218</v>
       </c>
       <c r="C140" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -16674,7 +16674,7 @@
         <v>215</v>
       </c>
       <c r="C141" s="3">
-        <v>44007</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -16682,7 +16682,7 @@
         <v>216</v>
       </c>
       <c r="C142" s="3">
-        <v>44004</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -16701,7 +16701,7 @@
         <v>218</v>
       </c>
       <c r="C144" s="3">
-        <v>44028</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -16712,7 +16712,7 @@
         <v>215</v>
       </c>
       <c r="C145" s="3">
-        <v>43950</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -16734,7 +16734,7 @@
         <v>215</v>
       </c>
       <c r="C147" s="3">
-        <v>43964</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -16745,7 +16745,7 @@
         <v>215</v>
       </c>
       <c r="C148" s="3">
-        <v>44019</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -16775,7 +16775,7 @@
         <v>215</v>
       </c>
       <c r="C151" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -16783,7 +16783,7 @@
         <v>218</v>
       </c>
       <c r="C152" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -16794,7 +16794,7 @@
         <v>215</v>
       </c>
       <c r="C153" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -16802,7 +16802,7 @@
         <v>217</v>
       </c>
       <c r="C154" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -16813,7 +16813,7 @@
         <v>215</v>
       </c>
       <c r="C155" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -16821,7 +16821,7 @@
         <v>217</v>
       </c>
       <c r="C156" s="3">
-        <v>43965</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -16843,7 +16843,7 @@
         <v>215</v>
       </c>
       <c r="C158" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -16854,7 +16854,7 @@
         <v>215</v>
       </c>
       <c r="C159" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -16865,7 +16865,7 @@
         <v>215</v>
       </c>
       <c r="C160" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -16876,7 +16876,7 @@
         <v>215</v>
       </c>
       <c r="C161" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -16887,7 +16887,7 @@
         <v>215</v>
       </c>
       <c r="C162" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -16895,7 +16895,7 @@
         <v>219</v>
       </c>
       <c r="C163" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -16922,7 +16922,7 @@
         <v>218</v>
       </c>
       <c r="C166" s="3">
-        <v>44160</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -16933,7 +16933,7 @@
         <v>215</v>
       </c>
       <c r="C167" s="3">
-        <v>44112</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -16941,7 +16941,7 @@
         <v>217</v>
       </c>
       <c r="C168" s="3">
-        <v>44109</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -16952,7 +16952,7 @@
         <v>215</v>
       </c>
       <c r="C169" s="3">
-        <v>44134</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -16960,7 +16960,7 @@
         <v>217</v>
       </c>
       <c r="C170" s="3">
-        <v>44131</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -16971,7 +16971,7 @@
         <v>215</v>
       </c>
       <c r="C171" s="3">
-        <v>44032</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -16993,7 +16993,7 @@
         <v>215</v>
       </c>
       <c r="C173" s="3">
-        <v>43984</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -17001,7 +17001,7 @@
         <v>216</v>
       </c>
       <c r="C174" s="3">
-        <v>44006</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -17012,7 +17012,7 @@
         <v>215</v>
       </c>
       <c r="C175" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -17020,7 +17020,7 @@
         <v>216</v>
       </c>
       <c r="C176" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -17031,7 +17031,7 @@
         <v>215</v>
       </c>
       <c r="C177" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -17039,7 +17039,7 @@
         <v>216</v>
       </c>
       <c r="C178" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -17088,7 +17088,7 @@
         <v>215</v>
       </c>
       <c r="C183" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -17099,7 +17099,7 @@
         <v>215</v>
       </c>
       <c r="C184" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -17129,7 +17129,7 @@
         <v>215</v>
       </c>
       <c r="C187" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -17140,7 +17140,7 @@
         <v>215</v>
       </c>
       <c r="C188" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -17148,7 +17148,7 @@
         <v>218</v>
       </c>
       <c r="C189" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -17197,7 +17197,7 @@
         <v>215</v>
       </c>
       <c r="C194" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -17205,7 +17205,7 @@
         <v>217</v>
       </c>
       <c r="C195" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -17216,7 +17216,7 @@
         <v>215</v>
       </c>
       <c r="C196" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -17224,7 +17224,7 @@
         <v>217</v>
       </c>
       <c r="C197" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -17235,7 +17235,7 @@
         <v>215</v>
       </c>
       <c r="C198" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -17243,7 +17243,7 @@
         <v>217</v>
       </c>
       <c r="C199" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -17254,7 +17254,7 @@
         <v>215</v>
       </c>
       <c r="C200" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -17262,7 +17262,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -17273,7 +17273,7 @@
         <v>215</v>
       </c>
       <c r="C202" s="3">
-        <v>43978</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -17281,7 +17281,7 @@
         <v>217</v>
       </c>
       <c r="C203" s="3">
-        <v>43978</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -17292,7 +17292,7 @@
         <v>215</v>
       </c>
       <c r="C204" s="3">
-        <v>44091</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -17300,7 +17300,7 @@
         <v>216</v>
       </c>
       <c r="C205" s="3">
-        <v>44088</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -17311,7 +17311,7 @@
         <v>215</v>
       </c>
       <c r="C206" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -17319,7 +17319,7 @@
         <v>216</v>
       </c>
       <c r="C207" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -17330,7 +17330,7 @@
         <v>215</v>
       </c>
       <c r="C208" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -17338,7 +17338,7 @@
         <v>216</v>
       </c>
       <c r="C209" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -17349,7 +17349,7 @@
         <v>215</v>
       </c>
       <c r="C210" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -17357,7 +17357,7 @@
         <v>216</v>
       </c>
       <c r="C211" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -17368,7 +17368,7 @@
         <v>215</v>
       </c>
       <c r="C212" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -17376,7 +17376,7 @@
         <v>216</v>
       </c>
       <c r="C213" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -17387,7 +17387,7 @@
         <v>215</v>
       </c>
       <c r="C214" s="3">
-        <v>44043</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -17395,7 +17395,7 @@
         <v>217</v>
       </c>
       <c r="C215" s="3">
-        <v>44043</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -17425,7 +17425,7 @@
         <v>215</v>
       </c>
       <c r="C218" s="3">
-        <v>44013</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -17433,7 +17433,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -17463,7 +17463,7 @@
         <v>215</v>
       </c>
       <c r="C222" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -17512,7 +17512,7 @@
         <v>215</v>
       </c>
       <c r="C227" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -17520,7 +17520,7 @@
         <v>216</v>
       </c>
       <c r="C228" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -17531,7 +17531,7 @@
         <v>215</v>
       </c>
       <c r="C229" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -17553,7 +17553,7 @@
         <v>215</v>
       </c>
       <c r="C231" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -17561,7 +17561,7 @@
         <v>216</v>
       </c>
       <c r="C232" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -17583,7 +17583,7 @@
         <v>215</v>
       </c>
       <c r="C234" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -17591,7 +17591,7 @@
         <v>217</v>
       </c>
       <c r="C235" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -17610,7 +17610,7 @@
         <v>217</v>
       </c>
       <c r="C237" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -17618,7 +17618,7 @@
         <v>218</v>
       </c>
       <c r="C238" s="3">
-        <v>43956</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -17629,7 +17629,7 @@
         <v>215</v>
       </c>
       <c r="C239" s="3">
-        <v>43997</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -17637,7 +17637,7 @@
         <v>217</v>
       </c>
       <c r="C240" s="3">
-        <v>43992</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -17648,7 +17648,7 @@
         <v>215</v>
       </c>
       <c r="C241" s="3">
-        <v>44001</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -17656,7 +17656,7 @@
         <v>217</v>
       </c>
       <c r="C242" s="3">
-        <v>43998</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -17667,7 +17667,7 @@
         <v>215</v>
       </c>
       <c r="C243" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -17675,7 +17675,7 @@
         <v>218</v>
       </c>
       <c r="C244" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -17686,7 +17686,7 @@
         <v>215</v>
       </c>
       <c r="C245" s="3">
-        <v>44105</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -17694,7 +17694,7 @@
         <v>216</v>
       </c>
       <c r="C246" s="3">
-        <v>44102</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -17705,7 +17705,7 @@
         <v>215</v>
       </c>
       <c r="C247" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -17713,7 +17713,7 @@
         <v>216</v>
       </c>
       <c r="C248" s="3">
-        <v>43983</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -17724,7 +17724,7 @@
         <v>215</v>
       </c>
       <c r="C249" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -17732,7 +17732,7 @@
         <v>217</v>
       </c>
       <c r="C250" s="3">
-        <v>43977</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -17740,7 +17740,7 @@
         <v>218</v>
       </c>
       <c r="C251" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -17759,7 +17759,7 @@
         <v>216</v>
       </c>
       <c r="C253" s="3">
-        <v>43986</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -17770,7 +17770,7 @@
         <v>215</v>
       </c>
       <c r="C254" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -17778,7 +17778,7 @@
         <v>217</v>
       </c>
       <c r="C255" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -17789,7 +17789,7 @@
         <v>215</v>
       </c>
       <c r="C256" s="3">
-        <v>43998</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -17797,7 +17797,7 @@
         <v>216</v>
       </c>
       <c r="C257" s="3">
-        <v>43994</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -17816,7 +17816,7 @@
         <v>216</v>
       </c>
       <c r="C259" s="3">
-        <v>43998</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -17827,7 +17827,7 @@
         <v>215</v>
       </c>
       <c r="C260" s="3">
-        <v>43962</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -17835,7 +17835,7 @@
         <v>217</v>
       </c>
       <c r="C261" s="3">
-        <v>43977</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -17846,7 +17846,7 @@
         <v>215</v>
       </c>
       <c r="C262" s="3">
-        <v>43991</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -17854,7 +17854,7 @@
         <v>217</v>
       </c>
       <c r="C263" s="3">
-        <v>43986</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -17906,7 +17906,7 @@
         <v>217</v>
       </c>
       <c r="C268" s="3">
-        <v>44047</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -17925,7 +17925,7 @@
         <v>217</v>
       </c>
       <c r="C270" s="3">
-        <v>44018</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -17936,7 +17936,7 @@
         <v>215</v>
       </c>
       <c r="C271" s="3">
-        <v>44012</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -17944,7 +17944,7 @@
         <v>217</v>
       </c>
       <c r="C272" s="3">
-        <v>44022</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -17955,7 +17955,7 @@
         <v>215</v>
       </c>
       <c r="C273" s="3">
-        <v>44070</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -17963,7 +17963,7 @@
         <v>217</v>
       </c>
       <c r="C274" s="3">
-        <v>44067</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -17982,7 +17982,7 @@
         <v>218</v>
       </c>
       <c r="C276" s="3">
-        <v>44049</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -18001,7 +18001,7 @@
         <v>217</v>
       </c>
       <c r="C278" s="3">
-        <v>44039</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -18009,7 +18009,7 @@
         <v>218</v>
       </c>
       <c r="C279" s="3">
-        <v>44007</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -18020,7 +18020,7 @@
         <v>215</v>
       </c>
       <c r="C280" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -18028,7 +18028,7 @@
         <v>217</v>
       </c>
       <c r="C281" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -18039,7 +18039,7 @@
         <v>215</v>
       </c>
       <c r="C282" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -18047,7 +18047,7 @@
         <v>216</v>
       </c>
       <c r="C283" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -18066,7 +18066,7 @@
         <v>218</v>
       </c>
       <c r="C285" s="3">
-        <v>44034</v>
+        <v>44040</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -18085,7 +18085,7 @@
         <v>217</v>
       </c>
       <c r="C287" s="3">
-        <v>44005</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -18096,7 +18096,7 @@
         <v>215</v>
       </c>
       <c r="C288" s="3">
-        <v>44011</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -18104,7 +18104,7 @@
         <v>217</v>
       </c>
       <c r="C289" s="3">
-        <v>44006</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -18115,7 +18115,7 @@
         <v>215</v>
       </c>
       <c r="C290" s="3">
-        <v>44012</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -18123,7 +18123,7 @@
         <v>217</v>
       </c>
       <c r="C291" s="3">
-        <v>44012</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -18134,7 +18134,7 @@
         <v>215</v>
       </c>
       <c r="C292" s="3">
-        <v>43984</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -18142,7 +18142,7 @@
         <v>216</v>
       </c>
       <c r="C293" s="3">
-        <v>43990</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -18161,7 +18161,7 @@
         <v>217</v>
       </c>
       <c r="C295" s="3">
-        <v>44054</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -18169,7 +18169,7 @@
         <v>218</v>
       </c>
       <c r="C296" s="3">
-        <v>44088</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -18188,7 +18188,7 @@
         <v>217</v>
       </c>
       <c r="C298" s="3">
-        <v>44056</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -18196,7 +18196,7 @@
         <v>218</v>
       </c>
       <c r="C299" s="3">
-        <v>44102</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -18207,7 +18207,7 @@
         <v>215</v>
       </c>
       <c r="C300" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -18215,7 +18215,7 @@
         <v>217</v>
       </c>
       <c r="C301" s="3">
-        <v>43952</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -18226,7 +18226,7 @@
         <v>215</v>
       </c>
       <c r="C302" s="3">
-        <v>44180</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -18234,7 +18234,7 @@
         <v>218</v>
       </c>
       <c r="C303" s="3">
-        <v>44176</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -18245,7 +18245,7 @@
         <v>215</v>
       </c>
       <c r="C304" s="3">
-        <v>44182</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -18253,7 +18253,7 @@
         <v>218</v>
       </c>
       <c r="C305" s="3">
-        <v>44182</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -18264,7 +18264,7 @@
         <v>215</v>
       </c>
       <c r="C306" s="3">
-        <v>44071</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -18272,7 +18272,7 @@
         <v>217</v>
       </c>
       <c r="C307" s="3">
-        <v>44068</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -18280,7 +18280,7 @@
         <v>218</v>
       </c>
       <c r="C308" s="3">
-        <v>44134</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -18291,7 +18291,7 @@
         <v>215</v>
       </c>
       <c r="C309" s="3">
-        <v>44193</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -18299,7 +18299,7 @@
         <v>218</v>
       </c>
       <c r="C310" s="3">
-        <v>44179</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -18310,7 +18310,7 @@
         <v>215</v>
       </c>
       <c r="C311" s="3">
-        <v>44215</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -18318,7 +18318,7 @@
         <v>218</v>
       </c>
       <c r="C312" s="3">
-        <v>44210</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -18329,7 +18329,7 @@
         <v>215</v>
       </c>
       <c r="C313" s="3">
-        <v>44106</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -18337,7 +18337,7 @@
         <v>217</v>
       </c>
       <c r="C314" s="3">
-        <v>44103</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -18348,7 +18348,7 @@
         <v>215</v>
       </c>
       <c r="C315" s="3">
-        <v>44181</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -18356,7 +18356,7 @@
         <v>217</v>
       </c>
       <c r="C316" s="3">
-        <v>44176</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -18367,7 +18367,7 @@
         <v>215</v>
       </c>
       <c r="C317" s="3">
-        <v>44225</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -18375,7 +18375,7 @@
         <v>218</v>
       </c>
       <c r="C318" s="3">
-        <v>44222</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -18386,7 +18386,7 @@
         <v>215</v>
       </c>
       <c r="C319" s="3">
-        <v>44229</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -18394,7 +18394,7 @@
         <v>218</v>
       </c>
       <c r="C320" s="3">
-        <v>44224</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -18405,7 +18405,7 @@
         <v>215</v>
       </c>
       <c r="C321" s="3">
-        <v>44187</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -18413,7 +18413,7 @@
         <v>217</v>
       </c>
       <c r="C322" s="3">
-        <v>44182</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -18424,7 +18424,7 @@
         <v>215</v>
       </c>
       <c r="C323" s="3">
-        <v>44194</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -18432,7 +18432,7 @@
         <v>217</v>
       </c>
       <c r="C324" s="3">
-        <v>44187</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -18443,7 +18443,7 @@
         <v>215</v>
       </c>
       <c r="C325" s="3">
-        <v>43991</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -18454,7 +18454,7 @@
         <v>215</v>
       </c>
       <c r="C326" s="3">
-        <v>43192</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -18462,7 +18462,7 @@
         <v>216</v>
       </c>
       <c r="C327" s="3">
-        <v>43986</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -18473,7 +18473,7 @@
         <v>215</v>
       </c>
       <c r="C328" s="3">
-        <v>43969</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -18481,7 +18481,7 @@
         <v>217</v>
       </c>
       <c r="C329" s="3">
-        <v>43971</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -18500,7 +18500,7 @@
         <v>217</v>
       </c>
       <c r="C331" s="3">
-        <v>43978</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -18511,7 +18511,7 @@
         <v>215</v>
       </c>
       <c r="C332" s="3">
-        <v>43971</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -18519,7 +18519,7 @@
         <v>217</v>
       </c>
       <c r="C333" s="3">
-        <v>44000</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -18530,7 +18530,7 @@
         <v>215</v>
       </c>
       <c r="C334" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -18538,7 +18538,7 @@
         <v>218</v>
       </c>
       <c r="C335" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -18549,7 +18549,7 @@
         <v>215</v>
       </c>
       <c r="C336" s="3">
-        <v>43971</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -18557,7 +18557,7 @@
         <v>217</v>
       </c>
       <c r="C337" s="3">
-        <v>44034</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -18568,7 +18568,7 @@
         <v>215</v>
       </c>
       <c r="C338" s="3">
-        <v>44151</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -18576,7 +18576,7 @@
         <v>218</v>
       </c>
       <c r="C339" s="3">
-        <v>44146</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -18587,7 +18587,7 @@
         <v>215</v>
       </c>
       <c r="C340" s="3">
-        <v>43983</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -18595,7 +18595,7 @@
         <v>218</v>
       </c>
       <c r="C341" s="3">
-        <v>43990</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -18606,7 +18606,7 @@
         <v>215</v>
       </c>
       <c r="C342" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -18614,7 +18614,7 @@
         <v>217</v>
       </c>
       <c r="C343" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -18625,7 +18625,7 @@
         <v>215</v>
       </c>
       <c r="C344" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -18633,7 +18633,7 @@
         <v>217</v>
       </c>
       <c r="C345" s="3">
-        <v>43969</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -18644,7 +18644,7 @@
         <v>215</v>
       </c>
       <c r="C346" s="3">
-        <v>43983</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -18652,7 +18652,7 @@
         <v>217</v>
       </c>
       <c r="C347" s="3">
-        <v>43970</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -18717,7 +18717,7 @@
         <v>215</v>
       </c>
       <c r="C354" s="3">
-        <v>44074</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -18736,7 +18736,7 @@
         <v>215</v>
       </c>
       <c r="C356" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -18744,7 +18744,7 @@
         <v>218</v>
       </c>
       <c r="C357" s="3">
-        <v>43977</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -18777,7 +18777,7 @@
         <v>215</v>
       </c>
       <c r="C360" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -18785,7 +18785,7 @@
         <v>217</v>
       </c>
       <c r="C361" s="3">
-        <v>43973</v>
+        <v>43980</v>
       </c>
     </row>
   </sheetData>
@@ -18794,15 +18794,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationWizIdPermissions xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-    <MigrationWizIdPermissionLevels xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-    <MigrationWizIdDocumentLibraryPermissions xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-    <MigrationWizIdSecurityGroups xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-    <MigrationWizId xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19059,27 +19056,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationWizIdPermissions xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+    <MigrationWizIdPermissionLevels xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+    <MigrationWizIdDocumentLibraryPermissions xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+    <MigrationWizIdSecurityGroups xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+    <MigrationWizId xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7537FF06-7D0F-4794-9610-42075F4E6CD2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A51473-3926-474A-B0A4-2C7C84CC84DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="80e2c8ce-ca24-4d64-a7ff-1f3dbec7935c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e3c1d424-5c4e-4dde-982c-2e7112ac5201"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19104,9 +19095,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A51473-3926-474A-B0A4-2C7C84CC84DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7537FF06-7D0F-4794-9610-42075F4E6CD2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="80e2c8ce-ca24-4d64-a7ff-1f3dbec7935c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e3c1d424-5c4e-4dde-982c-2e7112ac5201"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/scripts/data/Job Ship Dates.xlsx
+++ b/scripts/data/Job Ship Dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMiller1\git\prodctrlcore\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781937DB-9BCF-4DB6-8432-B9E09AE571C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B231AC8-C03D-4D4D-98F0-A10DC7189AAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="222">
   <si>
     <t>Row Labels</t>
   </si>
@@ -775,7 +775,1371 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.399914930553" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.633046643517" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
+      <sharedItems count="199">
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-02]" c="D-1160245A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-13]" c="D-1160245A-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-01]" c="D-1160253A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-04]" c="D-1160253C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-05]" c="D-1160253C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-01]" c="D-1170032A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-02]" c="D-1170032A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032B-03]" c="D-1170032B-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082A-03]" c="D-1170082A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082D-08]" c="D-1170082D-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-02]" c="D-1170143C-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155D-04]" c="D-1170155D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217A-01]" c="D-1170217A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217C-03]" c="D-1170217C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217F-07]" c="D-1170217F-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272A-01]" c="D-1170272A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272B-02]" c="D-1170272B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272C-03]" c="D-1170272C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272E-05]" c="D-1170272E-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272F-06]" c="D-1170272F-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272G-07]" c="D-1170272G-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170281B-01]" c="D-1170281B-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180020A-01]" c="D-1180020A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180023A-02]" c="D-1180023A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-01]" c="D-1180045A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-02]" c="D-1180045A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-03]" c="D-1180045A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-04]" c="D-1180045B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-05]" c="D-1180045B-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-06]" c="D-1180045B-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-01]" c="D-1180059A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-02]" c="D-1180059A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180081A-02]" c="D-1180081A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-03]" c="D-1180091C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-04]" c="D-1180091C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-04]" c="D-1180095D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-05]" c="D-1180095D-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095E-06]" c="D-1180095E-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095G-08]" c="D-1180095G-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095H-09]" c="D-1180095H-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095L-12]" c="D-1180095L-12"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180116B-01]" c="D-1180116B-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180136A-01]" c="D-1180136A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-02]" c="D-1180155A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-03]" c="D-1180155A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-01]" c="D-1180164A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-02]" c="D-1180164A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180174A-02]" c="D-1180174A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-01]" c="D-1180201A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-02]" c="D-1180201A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-03]" c="D-1180201B-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-12]" c="D-1180201B-12"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-04]" c="D-1180201C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-05]" c="D-1180201C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-13]" c="D-1180201C-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-06]" c="D-1180201D-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-07]" c="D-1180201D-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201E-08]" c="D-1180201E-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201F-09]" c="D-1180201F-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201G-10]" c="D-1180201G-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201H-11]" c="D-1180201H-11"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-04]" c="D-1180238D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-05]" c="D-1180238D-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-06]" c="D-1180238E-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-07]" c="D-1180238E-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238F-08]" c="D-1180238F-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180246A-01]" c="D-1180246A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180274A-02]" c="D-1180274A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285A-01]" c="D-1180285A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285C-03]" c="D-1180285C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285D-04]" c="D-1180285D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180302A-01]" c="D-1180302A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-01]" c="D-1180308A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-02]" c="D-1180308A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-03]" c="D-1180308A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180310A-01]" c="D-1180310A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190010A-01]" c="D-1190010A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190016A-01]" c="D-1190016A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028A-01]" c="D-1190028A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028B-02]" c="D-1190028B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190036A-01]" c="D-1190036A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190038A-01]" c="D-1190038A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190060A-01]" c="D-1190060A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190066A-01]" c="D-1190066A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190078A-01]" c="D-1190078A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190090A-01]" c="D-1190090A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092A-02]" c="D-1190092A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092B-04]" c="D-1190092B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190096A-01]" c="D-1190096A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190102A-01]" c="D-1190102A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-03]" c="D-1190103A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-04]" c="D-1190103A-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-01]" c="D-1190105A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-02]" c="D-1190105A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-01]" c="D-1190118A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-02]" c="D-1190118A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-03]" c="D-1190118B-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-04]" c="D-1190118B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190124A-01]" c="D-1190124A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128A-01]" c="D-1190128A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128B-02]" c="D-1190128B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130A-01]" c="D-1190130A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130B-02]" c="D-1190130B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190135A-01]" c="D-1190135A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-01]" c="D-1190136A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-02]" c="D-1190136A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190138A-01]" c="D-1190138A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144A-01]" c="D-1190144A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144B-02]" c="D-1190144B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190148A-01]" c="D-1190148A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190165A-01]" c="D-1190165A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190179A-01]" c="D-1190179A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190193A-01]" c="D-1190193A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190196A-01]" c="D-1190196A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190203A-01]" c="D-1190203A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190210A-01]" c="D-1190210A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190214A-01]" c="D-1190214A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190217A-01]" c="D-1190217A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190227A-01]" c="D-1190227A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190230A-01]" c="D-1190230A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232A-01]" c="D-1190232A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232B-02]" c="D-1190232B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232C-03]" c="D-1190232C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190239A-01]" c="D-1190239A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243A-01]" c="D-1190243A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243B-02]" c="D-1190243B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249A-01]" c="D-1190249A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249B-02]" c="D-1190249B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-01]" c="D-1190250A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-02]" c="D-1190250A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-03]" c="D-1190250A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-04]" c="D-1190250B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-05]" c="D-1190250B-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-06]" c="D-1190250B-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250C-07]" c="D-1190250C-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250D-08]" c="D-1190250D-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250E-09]" c="D-1190250E-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190251B-02]" c="D-1190251B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190254A-01]" c="D-1190254A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190258A-01]" c="D-1190258A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-01]" c="D-1190259A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-02]" c="D-1190259A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-03]" c="D-1190259A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190266A-01]" c="D-1190266A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272A-01]" c="D-1190272A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272B-02]" c="D-1190272B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274A-01]" c="D-1190274A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278A-01]" c="D-1190278A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278B-02]" c="D-1190278B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-03]" c="D-1190278C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-04]" c="D-1190278C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-05]" c="D-1190278C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-06]" c="D-1190278D-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-07]" c="D-1190278D-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-08]" c="D-1190278E-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-09]" c="D-1190278E-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278F-10]" c="D-1190278F-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278G-11]" c="D-1190278G-11"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190279A-01]" c="D-1190279A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190283A-01]" c="D-1190283A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190289A-01]" c="D-1190289A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190295A-01]" c="D-1190295A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190300A-01]" c="D-1190300A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190305A-01]" c="D-1190305A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190306A-01]" c="D-1190306A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310A-01]" c="D-1190310A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310B-02]" c="D-1190310B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190320A-01]" c="D-1190320A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190321A-01]" c="D-1190321A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200014A-01]" c="D-1200014A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-01]" c="D-1200017A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-02]" c="D-1200017A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200021A-01]" c="D-1200021A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200023A-01]" c="D-1200023A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200031A-01]" c="D-1200031A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200089A-03]" c="D-1200089A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" u="1" c="D-1160230F-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" u="1" c="D-1160253A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" u="1" c="D-1160253C-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" u="1" c="D-1160253C-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" u="1" c="D-1170143C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" u="1" c="D-1170143C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" u="1" c="D-1170155A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" u="1" c="D-1170155G-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" u="1" c="D-1170217G-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" u="1" c="D-1180095C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" u="1" c="D-1180095J-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" u="1" c="D-1180238A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" u="1" c="D-1180238B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" u="1" c="D-1180238C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" u="1" c="D-1180238G-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" u="1" c="D-1180261A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" u="1" c="D-1180261A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" u="1" c="D-1180262A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" u="1" c="D-1190037A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" u="1" c="D-1190145A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" u="1" c="D-1190187A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" u="1" c="D-1190274B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" u="1" c="D-1200034A-01"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Product Code].[Product Code]" caption="Product Code" numFmtId="0" hierarchy="79" level="1">
+      <sharedItems count="5">
+        <s v="[Products].[Product Code].&amp;[G]" c="G"/>
+        <s v="[Products].[Product Code].&amp;[BG]" c="BG"/>
+        <s v="[Products].[Product Code].&amp;[S]" c="S"/>
+        <s v="[Products].[Product Code].&amp;[TG]" c="TG"/>
+        <s v="[Products].[Product Code].&amp;[PD]" c="PD"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Public Start Date]" caption="Public Start Date" numFmtId="0" hierarchy="360" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="390">
+    <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Ending]" caption="Month Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Month Ending].[All]" allUniqueName="[Calendar].[Month Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Name]" caption="Month Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Name].[All]" allUniqueName="[Calendar].[Month Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Calendar].[Month Number].[All]" allUniqueName="[Calendar].[Month Number].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Short Name]" caption="Month Short Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Short Name].[All]" allUniqueName="[Calendar].[Month Short Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Starting]" caption="Month Starting" attribute="1" defaultMemberUniqueName="[Calendar].[Month Starting].[All]" allUniqueName="[Calendar].[Month Starting].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Year]" caption="Month Year" attribute="1" defaultMemberUniqueName="[Calendar].[Month Year].[All]" allUniqueName="[Calendar].[Month Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Months Out]" caption="Months Out" attribute="1" defaultMemberUniqueName="[Calendar].[Months Out].[All]" allUniqueName="[Calendar].[Months Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Week Beginning]" caption="Week Beginning" attribute="1" defaultMemberUniqueName="[Calendar].[Week Beginning].[All]" allUniqueName="[Calendar].[Week Beginning].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Week Ending]" caption="Week Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Week Ending].[All]" allUniqueName="[Calendar].[Week Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Weeks Out]" caption="Weeks Out" attribute="1" defaultMemberUniqueName="[Calendar].[Weeks Out].[All]" allUniqueName="[Calendar].[Weeks Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Calendar].[Year].[All]" allUniqueName="[Calendar].[Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Year Month]" caption="Year Month" attribute="1" defaultMemberUniqueName="[Calendar].[Year Month].[All]" allUniqueName="[Calendar].[Year Month].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Year Qtr]" caption="Year Qtr" attribute="1" defaultMemberUniqueName="[Calendar].[Year Qtr].[All]" allUniqueName="[Calendar].[Year Qtr].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Bay]" caption="Bay" attribute="1" defaultMemberUniqueName="[Cost Centers].[Bay].[All]" allUniqueName="[Cost Centers].[Bay].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center]" caption="Cost Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center].[All]" allUniqueName="[Cost Centers].[Cost Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Display]" caption="Cost Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Display].[All]" allUniqueName="[Cost Centers].[Cost Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Name]" caption="Cost Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Name].[All]" allUniqueName="[Cost Centers].[Cost Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Cost Centers].[Facility].[All]" allUniqueName="[Cost Centers].[Facility].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Plant]" caption="Plant" attribute="1" defaultMemberUniqueName="[Cost Centers].[Plant].[All]" allUniqueName="[Cost Centers].[Plant].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Work Center]" caption="Work Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center].[All]" allUniqueName="[Cost Centers].[Work Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Display]" caption="Work Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Display].[All]" allUniqueName="[Cost Centers].[Work Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Name]" caption="Work Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Name].[All]" allUniqueName="[Cost Centers].[Work Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Code]" caption="Function Code" attribute="1" defaultMemberUniqueName="[Functions].[Function Code].[All]" allUniqueName="[Functions].[Function Code].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Description]" caption="Function Description" attribute="1" defaultMemberUniqueName="[Functions].[Function Description].[All]" allUniqueName="[Functions].[Function Description].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Display]" caption="Function Display" attribute="1" defaultMemberUniqueName="[Functions].[Function Display].[All]" allUniqueName="[Functions].[Function Display].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Functions].[Function Group].[All]" allUniqueName="[Functions].[Function Group].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" allUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Start Date Mismatch].[All]" allUniqueName="[HD Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Code].[All]" allUniqueName="[HD Schedule].[Task Code].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name].[All]" allUniqueName="[HD Schedule].[Task Name].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name Short].[All]" allUniqueName="[HD Schedule].[Task Name Short].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Start Date].[All]" allUniqueName="[HD Schedule].[Task Start Date].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Coating]" caption="Coating" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating].[All]" allUniqueName="[Job Shipments].[Coating].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Coating Desc]" caption="Coating Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating Desc].[All]" allUniqueName="[Job Shipments].[Coating Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Display Ship Date]" caption="Display Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[Display Ship Date].[All]" allUniqueName="[Job Shipments].[Display Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[First Start Date]" caption="First Start Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[First Start Date].[All]" allUniqueName="[Job Shipments].[First Start Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[HD Ship Date]" caption="HD Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[HD Ship Date].[All]" allUniqueName="[Job Shipments].[HD Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[In HD?]" caption="In HD?" attribute="1" defaultMemberUniqueName="[Job Shipments].[In HD?].[All]" allUniqueName="[Job Shipments].[In HD?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Name]" caption="Job Name" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Name].[All]" allUniqueName="[Job Shipments].[Job Name].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Number]" caption="Job Number" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Number].[All]" allUniqueName="[Job Shipments].[Job Number].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job State]" caption="Job State" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job State].[All]" allUniqueName="[Job Shipments].[Job State].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Status]" caption="Job Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status].[All]" allUniqueName="[Job Shipments].[Job Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Status Full Text]" caption="Job Status Full Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status Full Text].[All]" allUniqueName="[Job Shipments].[Job Status Full Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Structure Shipment]" caption="Job Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Structure Shipment].[All]" allUniqueName="[Job Shipments].[Job Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Job Shipments].[Milestone Status Text]" caption="Milestone Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Milestone Status Text].[All]" allUniqueName="[Job Shipments].[Milestone Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Date]" caption="P6 Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Date].[All]" allUniqueName="[Job Shipments].[P6 Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Month Year]" caption="P6 Ship Month Year" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" allUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Year Month]" caption="P6 Ship Year Month" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" allUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[PM Initials]" caption="PM Initials" attribute="1" defaultMemberUniqueName="[Job Shipments].[PM Initials].[All]" allUniqueName="[Job Shipments].[PM Initials].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Production Status]" caption="Production Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Production Status].[All]" allUniqueName="[Job Shipments].[Production Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Manager]" caption="Project Manager" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Manager].[All]" allUniqueName="[Job Shipments].[Project Manager].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Milestone Status]" caption="Project Milestone Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Milestone Status].[All]" allUniqueName="[Job Shipments].[Project Milestone Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Notes]" caption="Project Notes" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Notes].[All]" allUniqueName="[Job Shipments].[Project Notes].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Ship Date Status]" caption="Project Ship Date Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Ship Date Status].[All]" allUniqueName="[Job Shipments].[Project Ship Date Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Job Label]" caption="Ship Date Job Label" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Job Label].[All]" allUniqueName="[Job Shipments].[Ship Date Job Label].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Status Text]" caption="Ship Date Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Status Text].[All]" allUniqueName="[Job Shipments].[Ship Date Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Ship Dates Match?]" caption="Ship Dates Match?" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Dates Match?].[All]" allUniqueName="[Job Shipments].[Ship Dates Match?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[State Abbr]" caption="State Abbr" attribute="1" defaultMemberUniqueName="[Job Shipments].[State Abbr].[All]" allUniqueName="[Job Shipments].[State Abbr].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Structure Shipment]" caption="Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Structure Shipment].[All]" allUniqueName="[Job Shipments].[Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup]" caption="Yard Setup" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup].[All]" allUniqueName="[Job Shipments].[Yard Setup].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup Desc]" caption="Yard Setup Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup Desc].[All]" allUniqueName="[Job Shipments].[Yard Setup Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD?].[All]" allUniqueName="[Late End Schedule].[HD?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP?].[All]" allUniqueName="[Late End Schedule].[SAP?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Code].[All]" allUniqueName="[Late End Schedule].[Task Code].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name].[All]" allUniqueName="[Late End Schedule].[Task Name].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name Short].[All]" allUniqueName="[Late End Schedule].[Task Name Short].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY].[All]" allUniqueName="[Late End Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Fab Start Date?]" caption="Fab Start Date?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" allUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone]" caption="Milestone" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone].[All]" allUniqueName="[Milestone Schedule].[Milestone].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Complete?]" caption="Milestone Complete?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" allUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Group]" caption="Milestone Group" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Group].[All]" allUniqueName="[Milestone Schedule].[Milestone Group].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Overdue?]" caption="Milestone Overdue?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" allUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Status]" caption="Milestone Status" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Status].[All]" allUniqueName="[Milestone Schedule].[Milestone Status].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Original Date]" caption="Original Date" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Original Date].[All]" allUniqueName="[Milestone Schedule].[Original Date].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group]" caption="Product Group" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group].[All]" allUniqueName="[Product Groups].[Product Group].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Product Description]" caption="Product Description" attribute="1" defaultMemberUniqueName="[Products].[Product Description].[All]" allUniqueName="[Products].[Product Description].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Display]" caption="Product Display" attribute="1" defaultMemberUniqueName="[Products].[Product Display].[All]" allUniqueName="[Products].[Product Display].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Finish Date Mismatch].[All]" allUniqueName="[Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Schedule].[HD?].[All]" allUniqueName="[Schedule].[HD?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Schedule].[SAP?].[All]" allUniqueName="[Schedule].[SAP?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Start Date Mismatch].[All]" allUniqueName="[Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Schedule].[Task Code].[All]" allUniqueName="[Schedule].[Task Code].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name].[All]" allUniqueName="[Schedule].[Task Name].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name Short].[All]" allUniqueName="[Schedule].[Task Name Short].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[Schedule].[Task Start Date].[All]" allUniqueName="[Schedule].[Task Start Date].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Center Distinct].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" allUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center Distinct]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[CO_VERSION_ID]" caption="CO_VERSION_ID" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" allUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[COST_CENTER].[All]" allUniqueName="[Cost Center MPS].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[DIRECT_MPS]" caption="DIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[EARNED_MPS]" caption="EARNED_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" allUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[INDIRECT_MPS]" caption="INDIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[OT_MPS]" caption="OT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[OT_MPS].[All]" allUniqueName="[Cost Center MPS].[OT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[WORKDAY_DATE]" caption="WORKDAY_DATE" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" allUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" allUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Functions].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[HD Schedule].[Function Group].[All]" allUniqueName="[HD Schedule].[Function Group].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_CD].[All]" allUniqueName="[HD Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_FLAG]" caption="HD_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FLAG].[All]" allUniqueName="[HD Schedule].[HD_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROD_GRP].[All]" allUniqueName="[HD Schedule].[PROD_GRP].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" allUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" allUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FLAG]" caption="SAP_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FLAG].[All]" allUniqueName="[HD Schedule].[SAP_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY].[All]" allUniqueName="[HD Schedule].[SAP_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_START_DATE].[All]" allUniqueName="[HD Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY].[All]" allUniqueName="[HD Schedule].[WORK_DAY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[LAST_UPDATED]" caption="LAST_UPDATED" attribute="1" defaultMemberUniqueName="[Job Shipments].[LAST_UPDATED].[All]" allUniqueName="[Job Shipments].[LAST_UPDATED].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Job Shipments].[PROJ_ID].[All]" allUniqueName="[Job Shipments].[PROJ_ID].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[SHIP_DATES_DIFF]" caption="SHIP_DATES_DIFF" attribute="1" defaultMemberUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" allUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[BAY].[All]" allUniqueName="[Late End Schedule].[BAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER].[All]" allUniqueName="[Late End Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH]" caption="FINISH_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" allUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP]" caption="FUNCTION_GROUP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" allUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_START_DATE].[All]" allUniqueName="[Late End Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HEIGHT].[All]" allUniqueName="[Late End Schedule].[HEIGHT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[LENGTH].[All]" allUniqueName="[Late End Schedule].[LENGTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT].[All]" allUniqueName="[Late End Schedule].[PLANT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT_ID].[All]" allUniqueName="[Late End Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP].[All]" allUniqueName="[Late End Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_ID].[All]" allUniqueName="[Late End Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY].[All]" allUniqueName="[Late End Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[START_DATE_MISMATCH]" caption="START_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN1].[All]" allUniqueName="[Milestone Measures].[COLUMN1].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN2].[All]" allUniqueName="[Milestone Measures].[COLUMN2].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN3].[All]" allUniqueName="[Milestone Measures].[COLUMN3].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[ACTUAL_DATE]" caption="ACTUAL_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" allUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[DAYS_OUT]" caption="DAYS_OUT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" allUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[DUE_DATE]" caption="DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MATL_MISSING]" caption="MATL_MISSING" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" allUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT]" caption="MILESTONE_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_SORT]" caption="MILESTONE_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE]" caption="MILESTONE_STATUS_VALUE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[ORDER_QTY]" caption="ORDER_QTY" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" allUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME]" caption="P6_PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" allUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[PLOT_DUE_DATE]" caption="PLOT_DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[QTY_RECVD]" caption="QTY_RECVD" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" allUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[REFERENCE_DATE]" caption="REFERENCE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" allUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN1].[All]" allUniqueName="[Public Schedule Measures].[COLUMN1].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN2].[All]" allUniqueName="[Public Schedule Measures].[COLUMN2].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN3].[All]" allUniqueName="[Public Schedule Measures].[COLUMN3].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Schedule].[BAY].[All]" allUniqueName="[Schedule].[BAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER].[All]" allUniqueName="[Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Schedule].[Function Group].[All]" allUniqueName="[Schedule].[Function Group].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_CD].[All]" allUniqueName="[Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_RESOURCE].[All]" allUniqueName="[Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_START_DATE].[All]" allUniqueName="[Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Schedule].[HEIGHT].[All]" allUniqueName="[Schedule].[HEIGHT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Schedule].[LENGTH].[All]" allUniqueName="[Schedule].[LENGTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_END_DATE].[All]" allUniqueName="[Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_START_DATE].[All]" allUniqueName="[Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT].[All]" allUniqueName="[Schedule].[PLANT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT_ID].[All]" allUniqueName="[Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP].[All]" allUniqueName="[Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD].[All]" allUniqueName="[Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_ID].[All]" allUniqueName="[Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY].[All]" allUniqueName="[Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_START_DATE].[All]" allUniqueName="[Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER].[All]" allUniqueName="[Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY].[All]" allUniqueName="[Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN1].[All]" allUniqueName="[Scheduling Measures].[COLUMN1].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN2].[All]" allUniqueName="[Scheduling Measures].[COLUMN2].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN3].[All]" allUniqueName="[Scheduling Measures].[COLUMN3].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Days Out]" caption="Milestone Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Matl Order Qty]" caption="Matl Order Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Matl Recvd Qty]" caption="Matl Recvd Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Matl Missing Qty]" caption="Matl Missing Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Due Date]" caption="Milestone Due Date" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Status Value]" caption="Milestone Status Value" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Days Overdue]" caption="Milestone Days Overdue" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Count]" caption="Milestone Count" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Completed Milestones]" caption="Completed Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Incomplete Milestones]" caption="Incomplete Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Group Status]" caption="Milestone Group Status" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 2 3]" caption="Milestone Column Value 2 3" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 1 4]" caption="Milestone Column Value 1 4" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Remaining Hours]" caption="P6 Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Scheduled Remaining Hours]" caption="P6 Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Remaining Hours]" caption="HD Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Scheduled Remaining Hours]" caption="HD Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty]" caption="HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Start Date]" caption="HD Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD End Date]" caption="HD End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Start Date]" caption="SAP Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP End Date]" caption="SAP End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty]" caption="SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty Complete]" caption="SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty Remaining]" caption="SAP Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty % Complete]" caption="SAP Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Plan Hours]" caption="SAP Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Actual Hours]" caption="SAP Actual Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Earned Hours]" caption="SAP Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Remaining Hours]" caption="SAP Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Scheduled Remaining Hours]" caption="SAP Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Target Hours]" caption="P6 Target Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Remaining Hours Adjusted]" caption="Remaining Hours Adjusted" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Earned Hours]" caption="HD Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Plan Hours]" caption="HD Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty Complete]" caption="HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty Remaining]" caption="HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty % Complete]" caption="HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Data Last Updated]" caption="Data Last Updated" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Ship Date Status Indicator]" caption="Ship Date Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Ship Date]" caption="Ship Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Earned MPS (004)]" caption="Earned MPS (004)" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Remaining Hours]" caption="Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Remaining Hours]" caption="Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Start Date]" caption="Active Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Start Date]" caption="Planned Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Job Status Indicator]" caption="Job Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[What-If Job Remaining Hours]" caption="What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Inactive Job Remaining Hours]" caption="Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Girder Start Date]" caption="P6 Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Early Start Date]" caption="P6 Early Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Early End Date]" caption="P6 Early End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fab Start Date]" caption="Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fab End Date]" caption="Fab End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Yard Start Date]" caption="Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Yard End Date]" caption="Yard End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Coatings Start Date]" caption="Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Coatings End Date]" caption="Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Late Remaining Hours]" caption="P6 Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Late Remaining Hours]" caption="Active Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Late Remaining Hours]" caption="Planned Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[What-If Job Late Remaining Hours]" caption="What-If Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Inactive Job Late Remaining Hours]" caption="Inactive Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Remaining Hours]" caption="Public Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Active Job Remaining Hours]" caption="Public Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Start Date]" caption="Public Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Public End Date]" caption="Public End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty]" caption="Public HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Complete]" caption="Public HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Remaining]" caption="Public HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty % Complete]" caption="Public HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public What-If Job Remaining Hours]" caption="Public What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Inactive Job Remaining Hours]" caption="Public Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Fab Start Date]" caption="Public Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Fab End Date]" caption="Public Fab End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Yard Start Date]" caption="Public Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Yard End Date]" caption="Public Yard End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Coatings Start Date]" caption="Public Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Coatings End Date]" caption="Public Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Average Days Out]" caption="Average Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 End Date]" caption="P6 End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty]" caption="Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty]" caption="Avg SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty Complete]" caption="Avg SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty Complete]" caption="Avg HD Qty Complete" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link]" caption="Bay Schedule 2 and 3 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link]" caption="Bay Schedule 1 and 4 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link MS]" caption="Bay Schedule 2 and 3 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link MS]" caption="Bay Schedule 1 and 4 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link]" caption="Early Start Date Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link MS]" caption="Early Start Date Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty]" caption="Public Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty Complete]" caption="Public Avg HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="11">
+    <dimension name="Calendar" uniqueName="[Calendar]" caption="Calendar"/>
+    <dimension name="Cost Centers" uniqueName="[Cost Centers]" caption="Cost Centers"/>
+    <dimension name="Functions" uniqueName="[Functions]" caption="Functions"/>
+    <dimension name="HD Schedule" uniqueName="[HD Schedule]" caption="HD Schedule"/>
+    <dimension name="Job Shipments" uniqueName="[Job Shipments]" caption="Job Shipments"/>
+    <dimension name="Late End Schedule" uniqueName="[Late End Schedule]" caption="Late End Schedule"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Milestone Schedule" uniqueName="[Milestone Schedule]" caption="Milestone Schedule"/>
+    <dimension name="Product Groups" uniqueName="[Product Groups]" caption="Product Groups"/>
+    <dimension name="Products" uniqueName="[Products]" caption="Products"/>
+    <dimension name="Schedule" uniqueName="[Schedule]" caption="Schedule"/>
+  </dimensions>
+  <measureGroups count="15">
+    <measureGroup name="Calendar" caption="Calendar"/>
+    <measureGroup name="Cost Center Distinct" caption="Cost Center Distinct"/>
+    <measureGroup name="Cost Center MPS" caption="Cost Center MPS"/>
+    <measureGroup name="Cost Centers" caption="Cost Centers"/>
+    <measureGroup name="Functions" caption="Functions"/>
+    <measureGroup name="HD Schedule" caption="HD Schedule"/>
+    <measureGroup name="Job Shipments" caption="Job Shipments"/>
+    <measureGroup name="Late End Schedule" caption="Late End Schedule"/>
+    <measureGroup name="Milestone Measures" caption="Milestone Measures"/>
+    <measureGroup name="Milestone Schedule" caption="Milestone Schedule"/>
+    <measureGroup name="Product Groups" caption="Product Groups"/>
+    <measureGroup name="Products" caption="Products"/>
+    <measureGroup name="Public Schedule Measures" caption="Public Schedule Measures"/>
+    <measureGroup name="Schedule" caption="Schedule"/>
+    <measureGroup name="Scheduling Measures" caption="Scheduling Measures"/>
+  </measureGroups>
+  <maps count="10">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="6" dimension="4"/>
+    <map measureGroup="7" dimension="5"/>
+    <map measureGroup="9" dimension="7"/>
+    <map measureGroup="10" dimension="8"/>
+    <map measureGroup="11" dimension="9"/>
+    <map measureGroup="13" dimension="10"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.633052083336" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
+      <sharedItems count="199">
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" c="D-1160230F-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-02]" c="D-1160245A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-13]" c="D-1160245A-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-01]" c="D-1160253A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" c="D-1160253A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-04]" c="D-1160253C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-05]" c="D-1160253C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" c="D-1160253C-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" c="D-1160253C-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-01]" c="D-1170032A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-02]" c="D-1170032A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032B-03]" c="D-1170032B-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082A-03]" c="D-1170082A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082D-08]" c="D-1170082D-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" c="D-1170143C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" c="D-1170155A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155D-04]" c="D-1170155D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" c="D-1170155G-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217A-01]" c="D-1170217A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217C-03]" c="D-1170217C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217F-07]" c="D-1170217F-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" c="D-1170217G-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272A-01]" c="D-1170272A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272B-02]" c="D-1170272B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272C-03]" c="D-1170272C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272E-05]" c="D-1170272E-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272F-06]" c="D-1170272F-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272G-07]" c="D-1170272G-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170281B-01]" c="D-1170281B-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180020A-01]" c="D-1180020A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180023A-02]" c="D-1180023A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-01]" c="D-1180045A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-02]" c="D-1180045A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-03]" c="D-1180045A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-04]" c="D-1180045B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-05]" c="D-1180045B-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-06]" c="D-1180045B-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-01]" c="D-1180059A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-02]" c="D-1180059A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-03]" c="D-1180091C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-04]" c="D-1180091C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" c="D-1180095C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-04]" c="D-1180095D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-05]" c="D-1180095D-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095E-06]" c="D-1180095E-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095G-08]" c="D-1180095G-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095H-09]" c="D-1180095H-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" c="D-1180095J-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095L-12]" c="D-1180095L-12"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180116B-01]" c="D-1180116B-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180136A-01]" c="D-1180136A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-02]" c="D-1180155A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-03]" c="D-1180155A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-01]" c="D-1180164A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-02]" c="D-1180164A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180174A-02]" c="D-1180174A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-01]" c="D-1180201A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-02]" c="D-1180201A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-03]" c="D-1180201B-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-12]" c="D-1180201B-12"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-04]" c="D-1180201C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-05]" c="D-1180201C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-13]" c="D-1180201C-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-06]" c="D-1180201D-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-07]" c="D-1180201D-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201E-08]" c="D-1180201E-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201F-09]" c="D-1180201F-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201G-10]" c="D-1180201G-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201H-11]" c="D-1180201H-11"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" c="D-1180238C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-04]" c="D-1180238D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-05]" c="D-1180238D-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-06]" c="D-1180238E-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-07]" c="D-1180238E-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238F-08]" c="D-1180238F-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" c="D-1180238G-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" c="D-1180261A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" c="D-1180261A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" c="D-1180262A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180274A-02]" c="D-1180274A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285A-01]" c="D-1180285A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285C-03]" c="D-1180285C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285D-04]" c="D-1180285D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180302A-01]" c="D-1180302A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-01]" c="D-1180308A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-02]" c="D-1180308A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-03]" c="D-1180308A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180310A-01]" c="D-1180310A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190010A-01]" c="D-1190010A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190016A-01]" c="D-1190016A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028A-01]" c="D-1190028A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028B-02]" c="D-1190028B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190036A-01]" c="D-1190036A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" c="D-1190037A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190038A-01]" c="D-1190038A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190060A-01]" c="D-1190060A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190066A-01]" c="D-1190066A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190078A-01]" c="D-1190078A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190090A-01]" c="D-1190090A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092A-02]" c="D-1190092A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092B-04]" c="D-1190092B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190096A-01]" c="D-1190096A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190102A-01]" c="D-1190102A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-03]" c="D-1190103A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-04]" c="D-1190103A-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-01]" c="D-1190105A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-02]" c="D-1190105A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-01]" c="D-1190118A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-02]" c="D-1190118A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-03]" c="D-1190118B-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-04]" c="D-1190118B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190124A-01]" c="D-1190124A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128A-01]" c="D-1190128A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128B-02]" c="D-1190128B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130A-01]" c="D-1190130A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130B-02]" c="D-1190130B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190135A-01]" c="D-1190135A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-01]" c="D-1190136A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-02]" c="D-1190136A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190138A-01]" c="D-1190138A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144A-01]" c="D-1190144A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144B-02]" c="D-1190144B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190148A-01]" c="D-1190148A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190165A-01]" c="D-1190165A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190179A-01]" c="D-1190179A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" c="D-1190187A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190193A-01]" c="D-1190193A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190196A-01]" c="D-1190196A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190203A-01]" c="D-1190203A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190210A-01]" c="D-1190210A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190214A-01]" c="D-1190214A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190217A-01]" c="D-1190217A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190227A-01]" c="D-1190227A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190230A-01]" c="D-1190230A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232A-01]" c="D-1190232A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232B-02]" c="D-1190232B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232C-03]" c="D-1190232C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190239A-01]" c="D-1190239A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243A-01]" c="D-1190243A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243B-02]" c="D-1190243B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249A-01]" c="D-1190249A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249B-02]" c="D-1190249B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-01]" c="D-1190250A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-02]" c="D-1190250A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-03]" c="D-1190250A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-04]" c="D-1190250B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-05]" c="D-1190250B-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-06]" c="D-1190250B-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250C-07]" c="D-1190250C-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250D-08]" c="D-1190250D-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250E-09]" c="D-1190250E-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190251B-02]" c="D-1190251B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190254A-01]" c="D-1190254A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190258A-01]" c="D-1190258A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-01]" c="D-1190259A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-02]" c="D-1190259A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-03]" c="D-1190259A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190266A-01]" c="D-1190266A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272A-01]" c="D-1190272A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272B-02]" c="D-1190272B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274A-01]" c="D-1190274A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278A-01]" c="D-1190278A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278B-02]" c="D-1190278B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-03]" c="D-1190278C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-04]" c="D-1190278C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-05]" c="D-1190278C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-06]" c="D-1190278D-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-07]" c="D-1190278D-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-08]" c="D-1190278E-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-09]" c="D-1190278E-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278F-10]" c="D-1190278F-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278G-11]" c="D-1190278G-11"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190279A-01]" c="D-1190279A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190283A-01]" c="D-1190283A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190289A-01]" c="D-1190289A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190295A-01]" c="D-1190295A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190300A-01]" c="D-1190300A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190305A-01]" c="D-1190305A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190306A-01]" c="D-1190306A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310A-01]" c="D-1190310A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310B-02]" c="D-1190310B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190320A-01]" c="D-1190320A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190321A-01]" c="D-1190321A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200014A-01]" c="D-1200014A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-01]" c="D-1200017A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-02]" c="D-1200017A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200021A-01]" c="D-1200021A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200023A-01]" c="D-1200023A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200031A-01]" c="D-1200031A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" c="D-1200034A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200089A-03]" c="D-1200089A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-02]" u="1" c="D-1170143C-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" u="1" c="D-1170143C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180081A-02]" u="1" c="D-1180081A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" u="1" c="D-1180238A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" u="1" c="D-1180238B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180246A-01]" u="1" c="D-1180246A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" u="1" c="D-1190145A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" u="1" c="D-1190274B-02"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Public Start Date]" caption="Public Start Date" numFmtId="0" hierarchy="360" level="32767"/>
+    <cacheField name="[Cost Centers].[Cost Center Display].[Cost Center Display]" caption="Cost Center Display" numFmtId="0" hierarchy="17" level="1">
+      <sharedItems count="5">
+        <s v="[Cost Centers].[Cost Center Display].&amp;[2005 - LN Plant 1 4 Fab]" c="2005 - LN Plant 1 4 Fab"/>
+        <s v="[Cost Centers].[Cost Center Display].&amp;[2031 - WP Plant 3 South Bay]" c="2031 - WP Plant 3 South Bay"/>
+        <s v="[Cost Centers].[Cost Center Display].&amp;[2006 - LN Plant 2 North Bay]" c="2006 - LN Plant 2 North Bay"/>
+        <s v="[Cost Centers].[Cost Center Display].&amp;[2007 - LN Plant 2 South Bay]" c="2007 - LN Plant 2 South Bay"/>
+        <s v="[Cost Centers].[Cost Center Display].&amp;[2030 - WP Plant 3 North Bay]" c="2030 - WP Plant 3 North Bay"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Cost Centers].[Cost Center].[Cost Center]" caption="Cost Center" numFmtId="0" hierarchy="16" level="1">
+      <sharedItems count="5">
+        <s v="[Cost Centers].[Cost Center].&amp;[2005]" c="2005"/>
+        <s v="[Cost Centers].[Cost Center].&amp;[2031]" c="2031"/>
+        <s v="[Cost Centers].[Cost Center].&amp;[2006]" c="2006"/>
+        <s v="[Cost Centers].[Cost Center].&amp;[2007]" c="2007"/>
+        <s v="[Cost Centers].[Cost Center].&amp;[2030]" c="2030"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="390">
+    <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Ending]" caption="Month Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Month Ending].[All]" allUniqueName="[Calendar].[Month Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Name]" caption="Month Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Name].[All]" allUniqueName="[Calendar].[Month Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Calendar].[Month Number].[All]" allUniqueName="[Calendar].[Month Number].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Short Name]" caption="Month Short Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Short Name].[All]" allUniqueName="[Calendar].[Month Short Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Starting]" caption="Month Starting" attribute="1" defaultMemberUniqueName="[Calendar].[Month Starting].[All]" allUniqueName="[Calendar].[Month Starting].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Year]" caption="Month Year" attribute="1" defaultMemberUniqueName="[Calendar].[Month Year].[All]" allUniqueName="[Calendar].[Month Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Months Out]" caption="Months Out" attribute="1" defaultMemberUniqueName="[Calendar].[Months Out].[All]" allUniqueName="[Calendar].[Months Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Week Beginning]" caption="Week Beginning" attribute="1" defaultMemberUniqueName="[Calendar].[Week Beginning].[All]" allUniqueName="[Calendar].[Week Beginning].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Week Ending]" caption="Week Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Week Ending].[All]" allUniqueName="[Calendar].[Week Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Weeks Out]" caption="Weeks Out" attribute="1" defaultMemberUniqueName="[Calendar].[Weeks Out].[All]" allUniqueName="[Calendar].[Weeks Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Calendar].[Year].[All]" allUniqueName="[Calendar].[Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Year Month]" caption="Year Month" attribute="1" defaultMemberUniqueName="[Calendar].[Year Month].[All]" allUniqueName="[Calendar].[Year Month].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Year Qtr]" caption="Year Qtr" attribute="1" defaultMemberUniqueName="[Calendar].[Year Qtr].[All]" allUniqueName="[Calendar].[Year Qtr].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Bay]" caption="Bay" attribute="1" defaultMemberUniqueName="[Cost Centers].[Bay].[All]" allUniqueName="[Cost Centers].[Bay].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center]" caption="Cost Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center].[All]" allUniqueName="[Cost Centers].[Cost Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Display]" caption="Cost Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Display].[All]" allUniqueName="[Cost Centers].[Cost Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Name]" caption="Cost Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Name].[All]" allUniqueName="[Cost Centers].[Cost Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Cost Centers].[Facility].[All]" allUniqueName="[Cost Centers].[Facility].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Plant]" caption="Plant" attribute="1" defaultMemberUniqueName="[Cost Centers].[Plant].[All]" allUniqueName="[Cost Centers].[Plant].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Work Center]" caption="Work Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center].[All]" allUniqueName="[Cost Centers].[Work Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Display]" caption="Work Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Display].[All]" allUniqueName="[Cost Centers].[Work Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Name]" caption="Work Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Name].[All]" allUniqueName="[Cost Centers].[Work Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Code]" caption="Function Code" attribute="1" defaultMemberUniqueName="[Functions].[Function Code].[All]" allUniqueName="[Functions].[Function Code].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Description]" caption="Function Description" attribute="1" defaultMemberUniqueName="[Functions].[Function Description].[All]" allUniqueName="[Functions].[Function Description].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Display]" caption="Function Display" attribute="1" defaultMemberUniqueName="[Functions].[Function Display].[All]" allUniqueName="[Functions].[Function Display].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Functions].[Function Group].[All]" allUniqueName="[Functions].[Function Group].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" allUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Start Date Mismatch].[All]" allUniqueName="[HD Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Code].[All]" allUniqueName="[HD Schedule].[Task Code].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name].[All]" allUniqueName="[HD Schedule].[Task Name].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name Short].[All]" allUniqueName="[HD Schedule].[Task Name Short].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Start Date].[All]" allUniqueName="[HD Schedule].[Task Start Date].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Coating]" caption="Coating" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating].[All]" allUniqueName="[Job Shipments].[Coating].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Coating Desc]" caption="Coating Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating Desc].[All]" allUniqueName="[Job Shipments].[Coating Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Display Ship Date]" caption="Display Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[Display Ship Date].[All]" allUniqueName="[Job Shipments].[Display Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[First Start Date]" caption="First Start Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[First Start Date].[All]" allUniqueName="[Job Shipments].[First Start Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[HD Ship Date]" caption="HD Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[HD Ship Date].[All]" allUniqueName="[Job Shipments].[HD Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[In HD?]" caption="In HD?" attribute="1" defaultMemberUniqueName="[Job Shipments].[In HD?].[All]" allUniqueName="[Job Shipments].[In HD?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Name]" caption="Job Name" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Name].[All]" allUniqueName="[Job Shipments].[Job Name].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Number]" caption="Job Number" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Number].[All]" allUniqueName="[Job Shipments].[Job Number].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job State]" caption="Job State" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job State].[All]" allUniqueName="[Job Shipments].[Job State].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Status]" caption="Job Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status].[All]" allUniqueName="[Job Shipments].[Job Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Status Full Text]" caption="Job Status Full Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status Full Text].[All]" allUniqueName="[Job Shipments].[Job Status Full Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Structure Shipment]" caption="Job Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Structure Shipment].[All]" allUniqueName="[Job Shipments].[Job Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Job Shipments].[Milestone Status Text]" caption="Milestone Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Milestone Status Text].[All]" allUniqueName="[Job Shipments].[Milestone Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Date]" caption="P6 Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Date].[All]" allUniqueName="[Job Shipments].[P6 Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Month Year]" caption="P6 Ship Month Year" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" allUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Year Month]" caption="P6 Ship Year Month" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" allUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[PM Initials]" caption="PM Initials" attribute="1" defaultMemberUniqueName="[Job Shipments].[PM Initials].[All]" allUniqueName="[Job Shipments].[PM Initials].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Production Status]" caption="Production Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Production Status].[All]" allUniqueName="[Job Shipments].[Production Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Manager]" caption="Project Manager" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Manager].[All]" allUniqueName="[Job Shipments].[Project Manager].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Milestone Status]" caption="Project Milestone Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Milestone Status].[All]" allUniqueName="[Job Shipments].[Project Milestone Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Notes]" caption="Project Notes" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Notes].[All]" allUniqueName="[Job Shipments].[Project Notes].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Ship Date Status]" caption="Project Ship Date Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Ship Date Status].[All]" allUniqueName="[Job Shipments].[Project Ship Date Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Job Label]" caption="Ship Date Job Label" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Job Label].[All]" allUniqueName="[Job Shipments].[Ship Date Job Label].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Status Text]" caption="Ship Date Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Status Text].[All]" allUniqueName="[Job Shipments].[Ship Date Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Ship Dates Match?]" caption="Ship Dates Match?" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Dates Match?].[All]" allUniqueName="[Job Shipments].[Ship Dates Match?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[State Abbr]" caption="State Abbr" attribute="1" defaultMemberUniqueName="[Job Shipments].[State Abbr].[All]" allUniqueName="[Job Shipments].[State Abbr].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Structure Shipment]" caption="Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Structure Shipment].[All]" allUniqueName="[Job Shipments].[Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup]" caption="Yard Setup" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup].[All]" allUniqueName="[Job Shipments].[Yard Setup].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup Desc]" caption="Yard Setup Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup Desc].[All]" allUniqueName="[Job Shipments].[Yard Setup Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD?].[All]" allUniqueName="[Late End Schedule].[HD?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP?].[All]" allUniqueName="[Late End Schedule].[SAP?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Code].[All]" allUniqueName="[Late End Schedule].[Task Code].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name].[All]" allUniqueName="[Late End Schedule].[Task Name].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name Short].[All]" allUniqueName="[Late End Schedule].[Task Name Short].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY].[All]" allUniqueName="[Late End Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Fab Start Date?]" caption="Fab Start Date?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" allUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone]" caption="Milestone" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone].[All]" allUniqueName="[Milestone Schedule].[Milestone].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Complete?]" caption="Milestone Complete?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" allUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Group]" caption="Milestone Group" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Group].[All]" allUniqueName="[Milestone Schedule].[Milestone Group].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Overdue?]" caption="Milestone Overdue?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" allUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Status]" caption="Milestone Status" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Status].[All]" allUniqueName="[Milestone Schedule].[Milestone Status].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Original Date]" caption="Original Date" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Original Date].[All]" allUniqueName="[Milestone Schedule].[Original Date].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group]" caption="Product Group" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group].[All]" allUniqueName="[Product Groups].[Product Group].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Description]" caption="Product Description" attribute="1" defaultMemberUniqueName="[Products].[Product Description].[All]" allUniqueName="[Products].[Product Description].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Display]" caption="Product Display" attribute="1" defaultMemberUniqueName="[Products].[Product Display].[All]" allUniqueName="[Products].[Product Display].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Finish Date Mismatch].[All]" allUniqueName="[Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Schedule].[HD?].[All]" allUniqueName="[Schedule].[HD?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Schedule].[SAP?].[All]" allUniqueName="[Schedule].[SAP?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Start Date Mismatch].[All]" allUniqueName="[Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Schedule].[Task Code].[All]" allUniqueName="[Schedule].[Task Code].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name].[All]" allUniqueName="[Schedule].[Task Name].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name Short].[All]" allUniqueName="[Schedule].[Task Name Short].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[Schedule].[Task Start Date].[All]" allUniqueName="[Schedule].[Task Start Date].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Center Distinct].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" allUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center Distinct]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[CO_VERSION_ID]" caption="CO_VERSION_ID" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" allUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[COST_CENTER].[All]" allUniqueName="[Cost Center MPS].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[DIRECT_MPS]" caption="DIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[EARNED_MPS]" caption="EARNED_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" allUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[INDIRECT_MPS]" caption="INDIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[OT_MPS]" caption="OT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[OT_MPS].[All]" allUniqueName="[Cost Center MPS].[OT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[WORKDAY_DATE]" caption="WORKDAY_DATE" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" allUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" allUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Functions].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[HD Schedule].[Function Group].[All]" allUniqueName="[HD Schedule].[Function Group].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_CD].[All]" allUniqueName="[HD Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_FLAG]" caption="HD_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FLAG].[All]" allUniqueName="[HD Schedule].[HD_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROD_GRP].[All]" allUniqueName="[HD Schedule].[PROD_GRP].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" allUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" allUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FLAG]" caption="SAP_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FLAG].[All]" allUniqueName="[HD Schedule].[SAP_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY].[All]" allUniqueName="[HD Schedule].[SAP_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_START_DATE].[All]" allUniqueName="[HD Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY].[All]" allUniqueName="[HD Schedule].[WORK_DAY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[LAST_UPDATED]" caption="LAST_UPDATED" attribute="1" defaultMemberUniqueName="[Job Shipments].[LAST_UPDATED].[All]" allUniqueName="[Job Shipments].[LAST_UPDATED].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Job Shipments].[PROJ_ID].[All]" allUniqueName="[Job Shipments].[PROJ_ID].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[SHIP_DATES_DIFF]" caption="SHIP_DATES_DIFF" attribute="1" defaultMemberUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" allUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[BAY].[All]" allUniqueName="[Late End Schedule].[BAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER].[All]" allUniqueName="[Late End Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH]" caption="FINISH_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" allUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP]" caption="FUNCTION_GROUP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" allUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_START_DATE].[All]" allUniqueName="[Late End Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HEIGHT].[All]" allUniqueName="[Late End Schedule].[HEIGHT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[LENGTH].[All]" allUniqueName="[Late End Schedule].[LENGTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT].[All]" allUniqueName="[Late End Schedule].[PLANT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT_ID].[All]" allUniqueName="[Late End Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP].[All]" allUniqueName="[Late End Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_ID].[All]" allUniqueName="[Late End Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY].[All]" allUniqueName="[Late End Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[START_DATE_MISMATCH]" caption="START_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN1].[All]" allUniqueName="[Milestone Measures].[COLUMN1].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN2].[All]" allUniqueName="[Milestone Measures].[COLUMN2].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN3].[All]" allUniqueName="[Milestone Measures].[COLUMN3].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[ACTUAL_DATE]" caption="ACTUAL_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" allUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[DAYS_OUT]" caption="DAYS_OUT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" allUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[DUE_DATE]" caption="DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MATL_MISSING]" caption="MATL_MISSING" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" allUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT]" caption="MILESTONE_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_SORT]" caption="MILESTONE_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE]" caption="MILESTONE_STATUS_VALUE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[ORDER_QTY]" caption="ORDER_QTY" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" allUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME]" caption="P6_PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" allUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[PLOT_DUE_DATE]" caption="PLOT_DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[QTY_RECVD]" caption="QTY_RECVD" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" allUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[REFERENCE_DATE]" caption="REFERENCE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" allUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN1].[All]" allUniqueName="[Public Schedule Measures].[COLUMN1].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN2].[All]" allUniqueName="[Public Schedule Measures].[COLUMN2].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN3].[All]" allUniqueName="[Public Schedule Measures].[COLUMN3].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Schedule].[BAY].[All]" allUniqueName="[Schedule].[BAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER].[All]" allUniqueName="[Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Schedule].[Function Group].[All]" allUniqueName="[Schedule].[Function Group].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_CD].[All]" allUniqueName="[Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_RESOURCE].[All]" allUniqueName="[Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_START_DATE].[All]" allUniqueName="[Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Schedule].[HEIGHT].[All]" allUniqueName="[Schedule].[HEIGHT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Schedule].[LENGTH].[All]" allUniqueName="[Schedule].[LENGTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_END_DATE].[All]" allUniqueName="[Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_START_DATE].[All]" allUniqueName="[Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT].[All]" allUniqueName="[Schedule].[PLANT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT_ID].[All]" allUniqueName="[Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP].[All]" allUniqueName="[Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD].[All]" allUniqueName="[Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_ID].[All]" allUniqueName="[Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY].[All]" allUniqueName="[Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_START_DATE].[All]" allUniqueName="[Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER].[All]" allUniqueName="[Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY].[All]" allUniqueName="[Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN1].[All]" allUniqueName="[Scheduling Measures].[COLUMN1].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN2].[All]" allUniqueName="[Scheduling Measures].[COLUMN2].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN3].[All]" allUniqueName="[Scheduling Measures].[COLUMN3].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Days Out]" caption="Milestone Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Matl Order Qty]" caption="Matl Order Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Matl Recvd Qty]" caption="Matl Recvd Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Matl Missing Qty]" caption="Matl Missing Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Due Date]" caption="Milestone Due Date" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Status Value]" caption="Milestone Status Value" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Days Overdue]" caption="Milestone Days Overdue" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Count]" caption="Milestone Count" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Completed Milestones]" caption="Completed Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Incomplete Milestones]" caption="Incomplete Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Group Status]" caption="Milestone Group Status" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 2 3]" caption="Milestone Column Value 2 3" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 1 4]" caption="Milestone Column Value 1 4" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Remaining Hours]" caption="P6 Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Scheduled Remaining Hours]" caption="P6 Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Remaining Hours]" caption="HD Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Scheduled Remaining Hours]" caption="HD Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty]" caption="HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Start Date]" caption="HD Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD End Date]" caption="HD End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Start Date]" caption="SAP Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP End Date]" caption="SAP End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty]" caption="SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty Complete]" caption="SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty Remaining]" caption="SAP Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty % Complete]" caption="SAP Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Plan Hours]" caption="SAP Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Actual Hours]" caption="SAP Actual Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Earned Hours]" caption="SAP Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Remaining Hours]" caption="SAP Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Scheduled Remaining Hours]" caption="SAP Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Target Hours]" caption="P6 Target Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Remaining Hours Adjusted]" caption="Remaining Hours Adjusted" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Earned Hours]" caption="HD Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Plan Hours]" caption="HD Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty Complete]" caption="HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty Remaining]" caption="HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty % Complete]" caption="HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Data Last Updated]" caption="Data Last Updated" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Ship Date Status Indicator]" caption="Ship Date Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Ship Date]" caption="Ship Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Earned MPS (004)]" caption="Earned MPS (004)" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Remaining Hours]" caption="Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Remaining Hours]" caption="Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Start Date]" caption="Active Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Start Date]" caption="Planned Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Job Status Indicator]" caption="Job Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[What-If Job Remaining Hours]" caption="What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Inactive Job Remaining Hours]" caption="Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Girder Start Date]" caption="P6 Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Early Start Date]" caption="P6 Early Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Early End Date]" caption="P6 Early End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fab Start Date]" caption="Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fab End Date]" caption="Fab End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Yard Start Date]" caption="Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Yard End Date]" caption="Yard End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Coatings Start Date]" caption="Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Coatings End Date]" caption="Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Late Remaining Hours]" caption="P6 Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Late Remaining Hours]" caption="Active Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Late Remaining Hours]" caption="Planned Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[What-If Job Late Remaining Hours]" caption="What-If Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Inactive Job Late Remaining Hours]" caption="Inactive Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Remaining Hours]" caption="Public Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Active Job Remaining Hours]" caption="Public Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Start Date]" caption="Public Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Public End Date]" caption="Public End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty]" caption="Public HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Complete]" caption="Public HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Remaining]" caption="Public HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty % Complete]" caption="Public HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public What-If Job Remaining Hours]" caption="Public What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Inactive Job Remaining Hours]" caption="Public Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Fab Start Date]" caption="Public Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Fab End Date]" caption="Public Fab End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Yard Start Date]" caption="Public Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Yard End Date]" caption="Public Yard End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Coatings Start Date]" caption="Public Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Coatings End Date]" caption="Public Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Average Days Out]" caption="Average Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 End Date]" caption="P6 End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty]" caption="Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty]" caption="Avg SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty Complete]" caption="Avg SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty Complete]" caption="Avg HD Qty Complete" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link]" caption="Bay Schedule 2 and 3 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link]" caption="Bay Schedule 1 and 4 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link MS]" caption="Bay Schedule 2 and 3 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link MS]" caption="Bay Schedule 1 and 4 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link]" caption="Early Start Date Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link MS]" caption="Early Start Date Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty]" caption="Public Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty Complete]" caption="Public Avg HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="11">
+    <dimension name="Calendar" uniqueName="[Calendar]" caption="Calendar"/>
+    <dimension name="Cost Centers" uniqueName="[Cost Centers]" caption="Cost Centers"/>
+    <dimension name="Functions" uniqueName="[Functions]" caption="Functions"/>
+    <dimension name="HD Schedule" uniqueName="[HD Schedule]" caption="HD Schedule"/>
+    <dimension name="Job Shipments" uniqueName="[Job Shipments]" caption="Job Shipments"/>
+    <dimension name="Late End Schedule" uniqueName="[Late End Schedule]" caption="Late End Schedule"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Milestone Schedule" uniqueName="[Milestone Schedule]" caption="Milestone Schedule"/>
+    <dimension name="Product Groups" uniqueName="[Product Groups]" caption="Product Groups"/>
+    <dimension name="Products" uniqueName="[Products]" caption="Products"/>
+    <dimension name="Schedule" uniqueName="[Schedule]" caption="Schedule"/>
+  </dimensions>
+  <measureGroups count="15">
+    <measureGroup name="Calendar" caption="Calendar"/>
+    <measureGroup name="Cost Center Distinct" caption="Cost Center Distinct"/>
+    <measureGroup name="Cost Center MPS" caption="Cost Center MPS"/>
+    <measureGroup name="Cost Centers" caption="Cost Centers"/>
+    <measureGroup name="Functions" caption="Functions"/>
+    <measureGroup name="HD Schedule" caption="HD Schedule"/>
+    <measureGroup name="Job Shipments" caption="Job Shipments"/>
+    <measureGroup name="Late End Schedule" caption="Late End Schedule"/>
+    <measureGroup name="Milestone Measures" caption="Milestone Measures"/>
+    <measureGroup name="Milestone Schedule" caption="Milestone Schedule"/>
+    <measureGroup name="Product Groups" caption="Product Groups"/>
+    <measureGroup name="Products" caption="Products"/>
+    <measureGroup name="Public Schedule Measures" caption="Public Schedule Measures"/>
+    <measureGroup name="Schedule" caption="Schedule"/>
+    <measureGroup name="Scheduling Measures" caption="Scheduling Measures"/>
+  </measureGroups>
+  <maps count="10">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="6" dimension="4"/>
+    <map measureGroup="7" dimension="5"/>
+    <map measureGroup="9" dimension="7"/>
+    <map measureGroup="10" dimension="8"/>
+    <map measureGroup="11" dimension="9"/>
+    <map measureGroup="13" dimension="10"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.633056944447" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -981,9 +2345,9 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200089A-03]" c="D-1200089A-03"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Public Start Date]" caption="Public Start Date" numFmtId="0" hierarchy="286" level="32767"/>
-    <cacheField name="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" numFmtId="0" hierarchy="292" level="32767"/>
-    <cacheField name="[Product Groups].[Product Group Desc].[Product Group Desc]" caption="Product Group Desc" numFmtId="0" hierarchy="71" level="1">
+    <cacheField name="[Measures].[Public Start Date]" caption="Public Start Date" numFmtId="0" hierarchy="360" level="32767"/>
+    <cacheField name="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" numFmtId="0" hierarchy="366" level="32767"/>
+    <cacheField name="[Product Groups].[Product Group Desc].[Product Group Desc]" caption="Product Group Desc" numFmtId="0" hierarchy="77" level="1">
       <sharedItems count="13">
         <s v="[Product Groups].[Product Group Desc].&amp;[Misc]" c="Misc"/>
         <s v="[Product Groups].[Product Group Desc].&amp;[Parts]" c="Parts"/>
@@ -1001,7 +2365,7 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="316">
+  <cacheHierarchies count="390">
     <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Month Ending]" caption="Month Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Month Ending].[All]" allUniqueName="[Calendar].[Month Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Month Name]" caption="Month Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Name].[All]" allUniqueName="[Calendar].[Month Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
@@ -1070,6 +2434,12 @@
     <cacheHierarchy uniqueName="[Job Shipments].[Structure Shipment]" caption="Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Structure Shipment].[All]" allUniqueName="[Job Shipments].[Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup]" caption="Yard Setup" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup].[All]" allUniqueName="[Job Shipments].[Yard Setup].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup Desc]" caption="Yard Setup Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup Desc].[All]" allUniqueName="[Job Shipments].[Yard Setup Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD?].[All]" allUniqueName="[Late End Schedule].[HD?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP?].[All]" allUniqueName="[Late End Schedule].[SAP?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Code].[All]" allUniqueName="[Late End Schedule].[Task Code].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name].[All]" allUniqueName="[Late End Schedule].[Task Name].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name Short].[All]" allUniqueName="[Late End Schedule].[Task Name Short].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY].[All]" allUniqueName="[Late End Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Milestone Schedule].[Fab Start Date?]" caption="Fab Start Date?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" allUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone]" caption="Milestone" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone].[All]" allUniqueName="[Milestone Schedule].[Milestone].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Complete?]" caption="Milestone Complete?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" allUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
@@ -1155,6 +2525,69 @@
     <cacheHierarchy uniqueName="[Job Shipments].[LAST_UPDATED]" caption="LAST_UPDATED" attribute="1" defaultMemberUniqueName="[Job Shipments].[LAST_UPDATED].[All]" allUniqueName="[Job Shipments].[LAST_UPDATED].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Job Shipments].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Job Shipments].[PROJ_ID].[All]" allUniqueName="[Job Shipments].[PROJ_ID].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Job Shipments].[SHIP_DATES_DIFF]" caption="SHIP_DATES_DIFF" attribute="1" defaultMemberUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" allUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[BAY].[All]" allUniqueName="[Late End Schedule].[BAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER].[All]" allUniqueName="[Late End Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH]" caption="FINISH_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" allUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP]" caption="FUNCTION_GROUP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" allUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_START_DATE].[All]" allUniqueName="[Late End Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HEIGHT].[All]" allUniqueName="[Late End Schedule].[HEIGHT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[LENGTH].[All]" allUniqueName="[Late End Schedule].[LENGTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT].[All]" allUniqueName="[Late End Schedule].[PLANT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT_ID].[All]" allUniqueName="[Late End Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP].[All]" allUniqueName="[Late End Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_ID].[All]" allUniqueName="[Late End Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY].[All]" allUniqueName="[Late End Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[START_DATE_MISMATCH]" caption="START_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN1].[All]" allUniqueName="[Milestone Measures].[COLUMN1].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN2].[All]" allUniqueName="[Milestone Measures].[COLUMN2].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN3].[All]" allUniqueName="[Milestone Measures].[COLUMN3].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
@@ -1295,6 +2728,11 @@
     <cacheHierarchy uniqueName="[Measures].[Yard End Date]" caption="Yard End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Coatings Start Date]" caption="Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Coatings End Date]" caption="Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Late Remaining Hours]" caption="P6 Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Late Remaining Hours]" caption="Active Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Late Remaining Hours]" caption="Planned Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[What-If Job Late Remaining Hours]" caption="What-If Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Inactive Job Late Remaining Hours]" caption="Inactive Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Remaining Hours]" caption="Public Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Active Job Remaining Hours]" caption="Public Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
@@ -1338,19 +2776,20 @@
     <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="10">
+  <dimensions count="11">
     <dimension name="Calendar" uniqueName="[Calendar]" caption="Calendar"/>
     <dimension name="Cost Centers" uniqueName="[Cost Centers]" caption="Cost Centers"/>
     <dimension name="Functions" uniqueName="[Functions]" caption="Functions"/>
     <dimension name="HD Schedule" uniqueName="[HD Schedule]" caption="HD Schedule"/>
     <dimension name="Job Shipments" uniqueName="[Job Shipments]" caption="Job Shipments"/>
+    <dimension name="Late End Schedule" uniqueName="[Late End Schedule]" caption="Late End Schedule"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Milestone Schedule" uniqueName="[Milestone Schedule]" caption="Milestone Schedule"/>
     <dimension name="Product Groups" uniqueName="[Product Groups]" caption="Product Groups"/>
     <dimension name="Products" uniqueName="[Products]" caption="Products"/>
     <dimension name="Schedule" uniqueName="[Schedule]" caption="Schedule"/>
   </dimensions>
-  <measureGroups count="14">
+  <measureGroups count="15">
     <measureGroup name="Calendar" caption="Calendar"/>
     <measureGroup name="Cost Center Distinct" caption="Cost Center Distinct"/>
     <measureGroup name="Cost Center MPS" caption="Cost Center MPS"/>
@@ -1358,6 +2797,7 @@
     <measureGroup name="Functions" caption="Functions"/>
     <measureGroup name="HD Schedule" caption="HD Schedule"/>
     <measureGroup name="Job Shipments" caption="Job Shipments"/>
+    <measureGroup name="Late End Schedule" caption="Late End Schedule"/>
     <measureGroup name="Milestone Measures" caption="Milestone Measures"/>
     <measureGroup name="Milestone Schedule" caption="Milestone Schedule"/>
     <measureGroup name="Product Groups" caption="Product Groups"/>
@@ -1366,16 +2806,17 @@
     <measureGroup name="Schedule" caption="Schedule"/>
     <measureGroup name="Scheduling Measures" caption="Scheduling Measures"/>
   </measureGroups>
-  <maps count="9">
+  <maps count="10">
     <map measureGroup="0" dimension="0"/>
     <map measureGroup="3" dimension="1"/>
     <map measureGroup="4" dimension="2"/>
     <map measureGroup="5" dimension="3"/>
     <map measureGroup="6" dimension="4"/>
-    <map measureGroup="8" dimension="6"/>
+    <map measureGroup="7" dimension="5"/>
     <map measureGroup="9" dimension="7"/>
     <map measureGroup="10" dimension="8"/>
-    <map measureGroup="12" dimension="9"/>
+    <map measureGroup="11" dimension="9"/>
+    <map measureGroup="13" dimension="10"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1385,8 +2826,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.399917592593" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.633061574074" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -1605,7 +3046,7 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="316">
+  <cacheHierarchies count="390">
     <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Month Ending]" caption="Month Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Month Ending].[All]" allUniqueName="[Calendar].[Month Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Month Name]" caption="Month Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Name].[All]" allUniqueName="[Calendar].[Month Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
@@ -1679,6 +3120,12 @@
     <cacheHierarchy uniqueName="[Job Shipments].[Structure Shipment]" caption="Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Structure Shipment].[All]" allUniqueName="[Job Shipments].[Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup]" caption="Yard Setup" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup].[All]" allUniqueName="[Job Shipments].[Yard Setup].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup Desc]" caption="Yard Setup Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup Desc].[All]" allUniqueName="[Job Shipments].[Yard Setup Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD?].[All]" allUniqueName="[Late End Schedule].[HD?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP?].[All]" allUniqueName="[Late End Schedule].[SAP?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Code].[All]" allUniqueName="[Late End Schedule].[Task Code].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name].[All]" allUniqueName="[Late End Schedule].[Task Name].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name Short].[All]" allUniqueName="[Late End Schedule].[Task Name Short].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY].[All]" allUniqueName="[Late End Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Milestone Schedule].[Fab Start Date?]" caption="Fab Start Date?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" allUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone]" caption="Milestone" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone].[All]" allUniqueName="[Milestone Schedule].[Milestone].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Complete?]" caption="Milestone Complete?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" allUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
@@ -1759,6 +3206,69 @@
     <cacheHierarchy uniqueName="[Job Shipments].[LAST_UPDATED]" caption="LAST_UPDATED" attribute="1" defaultMemberUniqueName="[Job Shipments].[LAST_UPDATED].[All]" allUniqueName="[Job Shipments].[LAST_UPDATED].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Job Shipments].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Job Shipments].[PROJ_ID].[All]" allUniqueName="[Job Shipments].[PROJ_ID].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Job Shipments].[SHIP_DATES_DIFF]" caption="SHIP_DATES_DIFF" attribute="1" defaultMemberUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" allUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[BAY].[All]" allUniqueName="[Late End Schedule].[BAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER].[All]" allUniqueName="[Late End Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH]" caption="FINISH_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" allUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP]" caption="FUNCTION_GROUP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" allUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_START_DATE].[All]" allUniqueName="[Late End Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HEIGHT].[All]" allUniqueName="[Late End Schedule].[HEIGHT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[LENGTH].[All]" allUniqueName="[Late End Schedule].[LENGTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT].[All]" allUniqueName="[Late End Schedule].[PLANT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT_ID].[All]" allUniqueName="[Late End Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP].[All]" allUniqueName="[Late End Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_ID].[All]" allUniqueName="[Late End Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY].[All]" allUniqueName="[Late End Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[START_DATE_MISMATCH]" caption="START_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN1].[All]" allUniqueName="[Milestone Measures].[COLUMN1].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN2].[All]" allUniqueName="[Milestone Measures].[COLUMN2].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN3].[All]" allUniqueName="[Milestone Measures].[COLUMN3].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
@@ -1899,6 +3409,11 @@
     <cacheHierarchy uniqueName="[Measures].[Yard End Date]" caption="Yard End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Coatings Start Date]" caption="Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Coatings End Date]" caption="Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Late Remaining Hours]" caption="P6 Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Late Remaining Hours]" caption="Active Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Late Remaining Hours]" caption="Planned Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[What-If Job Late Remaining Hours]" caption="What-If Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Inactive Job Late Remaining Hours]" caption="Inactive Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Remaining Hours]" caption="Public Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Active Job Remaining Hours]" caption="Public Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
@@ -1934,19 +3449,20 @@
     <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="10">
+  <dimensions count="11">
     <dimension name="Calendar" uniqueName="[Calendar]" caption="Calendar"/>
     <dimension name="Cost Centers" uniqueName="[Cost Centers]" caption="Cost Centers"/>
     <dimension name="Functions" uniqueName="[Functions]" caption="Functions"/>
     <dimension name="HD Schedule" uniqueName="[HD Schedule]" caption="HD Schedule"/>
     <dimension name="Job Shipments" uniqueName="[Job Shipments]" caption="Job Shipments"/>
+    <dimension name="Late End Schedule" uniqueName="[Late End Schedule]" caption="Late End Schedule"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Milestone Schedule" uniqueName="[Milestone Schedule]" caption="Milestone Schedule"/>
     <dimension name="Product Groups" uniqueName="[Product Groups]" caption="Product Groups"/>
     <dimension name="Products" uniqueName="[Products]" caption="Products"/>
     <dimension name="Schedule" uniqueName="[Schedule]" caption="Schedule"/>
   </dimensions>
-  <measureGroups count="14">
+  <measureGroups count="15">
     <measureGroup name="Calendar" caption="Calendar"/>
     <measureGroup name="Cost Center Distinct" caption="Cost Center Distinct"/>
     <measureGroup name="Cost Center MPS" caption="Cost Center MPS"/>
@@ -1954,6 +3470,7 @@
     <measureGroup name="Functions" caption="Functions"/>
     <measureGroup name="HD Schedule" caption="HD Schedule"/>
     <measureGroup name="Job Shipments" caption="Job Shipments"/>
+    <measureGroup name="Late End Schedule" caption="Late End Schedule"/>
     <measureGroup name="Milestone Measures" caption="Milestone Measures"/>
     <measureGroup name="Milestone Schedule" caption="Milestone Schedule"/>
     <measureGroup name="Product Groups" caption="Product Groups"/>
@@ -1962,1226 +3479,17 @@
     <measureGroup name="Schedule" caption="Schedule"/>
     <measureGroup name="Scheduling Measures" caption="Scheduling Measures"/>
   </measureGroups>
-  <maps count="9">
+  <maps count="10">
     <map measureGroup="0" dimension="0"/>
     <map measureGroup="3" dimension="1"/>
     <map measureGroup="4" dimension="2"/>
     <map measureGroup="5" dimension="3"/>
     <map measureGroup="6" dimension="4"/>
-    <map measureGroup="8" dimension="6"/>
+    <map measureGroup="7" dimension="5"/>
     <map measureGroup="9" dimension="7"/>
     <map measureGroup="10" dimension="8"/>
-    <map measureGroup="12" dimension="9"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.399921064818" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
-      <sharedItems count="199">
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-02]" c="D-1160245A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-13]" c="D-1160245A-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-01]" c="D-1160253A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-04]" c="D-1160253C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-05]" c="D-1160253C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-01]" c="D-1170032A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-02]" c="D-1170032A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032B-03]" c="D-1170032B-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082A-03]" c="D-1170082A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082D-08]" c="D-1170082D-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-02]" c="D-1170143C-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155D-04]" c="D-1170155D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217A-01]" c="D-1170217A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217C-03]" c="D-1170217C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217F-07]" c="D-1170217F-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272A-01]" c="D-1170272A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272B-02]" c="D-1170272B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272C-03]" c="D-1170272C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272E-05]" c="D-1170272E-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272F-06]" c="D-1170272F-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272G-07]" c="D-1170272G-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170281B-01]" c="D-1170281B-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180020A-01]" c="D-1180020A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180023A-02]" c="D-1180023A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-01]" c="D-1180045A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-02]" c="D-1180045A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-03]" c="D-1180045A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-04]" c="D-1180045B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-05]" c="D-1180045B-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-06]" c="D-1180045B-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-01]" c="D-1180059A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-02]" c="D-1180059A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180081A-02]" c="D-1180081A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-03]" c="D-1180091C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-04]" c="D-1180091C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-04]" c="D-1180095D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-05]" c="D-1180095D-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095E-06]" c="D-1180095E-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095G-08]" c="D-1180095G-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095H-09]" c="D-1180095H-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095L-12]" c="D-1180095L-12"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180116B-01]" c="D-1180116B-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180136A-01]" c="D-1180136A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-02]" c="D-1180155A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-03]" c="D-1180155A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-01]" c="D-1180164A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-02]" c="D-1180164A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180174A-02]" c="D-1180174A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-01]" c="D-1180201A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-02]" c="D-1180201A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-03]" c="D-1180201B-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-12]" c="D-1180201B-12"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-04]" c="D-1180201C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-05]" c="D-1180201C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-13]" c="D-1180201C-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-06]" c="D-1180201D-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-07]" c="D-1180201D-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201E-08]" c="D-1180201E-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201F-09]" c="D-1180201F-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201G-10]" c="D-1180201G-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201H-11]" c="D-1180201H-11"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-04]" c="D-1180238D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-05]" c="D-1180238D-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-06]" c="D-1180238E-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-07]" c="D-1180238E-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238F-08]" c="D-1180238F-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180246A-01]" c="D-1180246A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180274A-02]" c="D-1180274A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285A-01]" c="D-1180285A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285C-03]" c="D-1180285C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285D-04]" c="D-1180285D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180302A-01]" c="D-1180302A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-01]" c="D-1180308A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-02]" c="D-1180308A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-03]" c="D-1180308A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180310A-01]" c="D-1180310A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190010A-01]" c="D-1190010A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190016A-01]" c="D-1190016A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028A-01]" c="D-1190028A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028B-02]" c="D-1190028B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190036A-01]" c="D-1190036A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190038A-01]" c="D-1190038A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190060A-01]" c="D-1190060A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190066A-01]" c="D-1190066A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190078A-01]" c="D-1190078A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190090A-01]" c="D-1190090A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092A-02]" c="D-1190092A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092B-04]" c="D-1190092B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190096A-01]" c="D-1190096A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190102A-01]" c="D-1190102A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-03]" c="D-1190103A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-04]" c="D-1190103A-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-01]" c="D-1190105A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-02]" c="D-1190105A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-01]" c="D-1190118A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-02]" c="D-1190118A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-03]" c="D-1190118B-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-04]" c="D-1190118B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190124A-01]" c="D-1190124A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128A-01]" c="D-1190128A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128B-02]" c="D-1190128B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130A-01]" c="D-1190130A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130B-02]" c="D-1190130B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190135A-01]" c="D-1190135A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-01]" c="D-1190136A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-02]" c="D-1190136A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190138A-01]" c="D-1190138A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144A-01]" c="D-1190144A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144B-02]" c="D-1190144B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190148A-01]" c="D-1190148A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190165A-01]" c="D-1190165A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190179A-01]" c="D-1190179A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190193A-01]" c="D-1190193A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190196A-01]" c="D-1190196A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190203A-01]" c="D-1190203A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190210A-01]" c="D-1190210A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190214A-01]" c="D-1190214A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190217A-01]" c="D-1190217A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190227A-01]" c="D-1190227A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190230A-01]" c="D-1190230A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232A-01]" c="D-1190232A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232B-02]" c="D-1190232B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232C-03]" c="D-1190232C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190239A-01]" c="D-1190239A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243A-01]" c="D-1190243A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243B-02]" c="D-1190243B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249A-01]" c="D-1190249A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249B-02]" c="D-1190249B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-01]" c="D-1190250A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-02]" c="D-1190250A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-03]" c="D-1190250A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-04]" c="D-1190250B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-05]" c="D-1190250B-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-06]" c="D-1190250B-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250C-07]" c="D-1190250C-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250D-08]" c="D-1190250D-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250E-09]" c="D-1190250E-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190251B-02]" c="D-1190251B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190254A-01]" c="D-1190254A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190258A-01]" c="D-1190258A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-01]" c="D-1190259A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-02]" c="D-1190259A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-03]" c="D-1190259A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190266A-01]" c="D-1190266A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272A-01]" c="D-1190272A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272B-02]" c="D-1190272B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274A-01]" c="D-1190274A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278A-01]" c="D-1190278A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278B-02]" c="D-1190278B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-03]" c="D-1190278C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-04]" c="D-1190278C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-05]" c="D-1190278C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-06]" c="D-1190278D-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-07]" c="D-1190278D-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-08]" c="D-1190278E-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-09]" c="D-1190278E-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278F-10]" c="D-1190278F-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278G-11]" c="D-1190278G-11"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190279A-01]" c="D-1190279A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190283A-01]" c="D-1190283A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190289A-01]" c="D-1190289A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190295A-01]" c="D-1190295A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190300A-01]" c="D-1190300A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190305A-01]" c="D-1190305A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190306A-01]" c="D-1190306A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310A-01]" c="D-1190310A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310B-02]" c="D-1190310B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190320A-01]" c="D-1190320A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190321A-01]" c="D-1190321A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200014A-01]" c="D-1200014A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-01]" c="D-1200017A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-02]" c="D-1200017A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200021A-01]" c="D-1200021A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200023A-01]" c="D-1200023A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200031A-01]" c="D-1200031A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200089A-03]" c="D-1200089A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" u="1" c="D-1160230F-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" u="1" c="D-1160253A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" u="1" c="D-1160253C-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" u="1" c="D-1160253C-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" u="1" c="D-1170143C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" u="1" c="D-1170143C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" u="1" c="D-1170155A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" u="1" c="D-1170155G-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" u="1" c="D-1170217G-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" u="1" c="D-1180095C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" u="1" c="D-1180095J-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" u="1" c="D-1180238A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" u="1" c="D-1180238B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" u="1" c="D-1180238C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" u="1" c="D-1180238G-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" u="1" c="D-1180261A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" u="1" c="D-1180261A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" u="1" c="D-1180262A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" u="1" c="D-1190037A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" u="1" c="D-1190145A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" u="1" c="D-1190187A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" u="1" c="D-1190274B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" u="1" c="D-1200034A-01"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Products].[Product Code].[Product Code]" caption="Product Code" numFmtId="0" hierarchy="73" level="1">
-      <sharedItems count="5">
-        <s v="[Products].[Product Code].&amp;[G]" c="G"/>
-        <s v="[Products].[Product Code].&amp;[BG]" c="BG"/>
-        <s v="[Products].[Product Code].&amp;[S]" c="S"/>
-        <s v="[Products].[Product Code].&amp;[TG]" c="TG"/>
-        <s v="[Products].[Product Code].&amp;[PD]" c="PD"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Public Start Date]" caption="Public Start Date" numFmtId="0" hierarchy="286" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="316">
-    <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Ending]" caption="Month Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Month Ending].[All]" allUniqueName="[Calendar].[Month Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Name]" caption="Month Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Name].[All]" allUniqueName="[Calendar].[Month Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Calendar].[Month Number].[All]" allUniqueName="[Calendar].[Month Number].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Short Name]" caption="Month Short Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Short Name].[All]" allUniqueName="[Calendar].[Month Short Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Starting]" caption="Month Starting" attribute="1" defaultMemberUniqueName="[Calendar].[Month Starting].[All]" allUniqueName="[Calendar].[Month Starting].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Year]" caption="Month Year" attribute="1" defaultMemberUniqueName="[Calendar].[Month Year].[All]" allUniqueName="[Calendar].[Month Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Months Out]" caption="Months Out" attribute="1" defaultMemberUniqueName="[Calendar].[Months Out].[All]" allUniqueName="[Calendar].[Months Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Week Beginning]" caption="Week Beginning" attribute="1" defaultMemberUniqueName="[Calendar].[Week Beginning].[All]" allUniqueName="[Calendar].[Week Beginning].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Week Ending]" caption="Week Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Week Ending].[All]" allUniqueName="[Calendar].[Week Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Weeks Out]" caption="Weeks Out" attribute="1" defaultMemberUniqueName="[Calendar].[Weeks Out].[All]" allUniqueName="[Calendar].[Weeks Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Calendar].[Year].[All]" allUniqueName="[Calendar].[Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Year Month]" caption="Year Month" attribute="1" defaultMemberUniqueName="[Calendar].[Year Month].[All]" allUniqueName="[Calendar].[Year Month].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Year Qtr]" caption="Year Qtr" attribute="1" defaultMemberUniqueName="[Calendar].[Year Qtr].[All]" allUniqueName="[Calendar].[Year Qtr].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Bay]" caption="Bay" attribute="1" defaultMemberUniqueName="[Cost Centers].[Bay].[All]" allUniqueName="[Cost Centers].[Bay].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center]" caption="Cost Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center].[All]" allUniqueName="[Cost Centers].[Cost Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Display]" caption="Cost Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Display].[All]" allUniqueName="[Cost Centers].[Cost Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Name]" caption="Cost Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Name].[All]" allUniqueName="[Cost Centers].[Cost Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Cost Centers].[Facility].[All]" allUniqueName="[Cost Centers].[Facility].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Plant]" caption="Plant" attribute="1" defaultMemberUniqueName="[Cost Centers].[Plant].[All]" allUniqueName="[Cost Centers].[Plant].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Work Center]" caption="Work Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center].[All]" allUniqueName="[Cost Centers].[Work Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Display]" caption="Work Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Display].[All]" allUniqueName="[Cost Centers].[Work Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Name]" caption="Work Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Name].[All]" allUniqueName="[Cost Centers].[Work Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Code]" caption="Function Code" attribute="1" defaultMemberUniqueName="[Functions].[Function Code].[All]" allUniqueName="[Functions].[Function Code].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Description]" caption="Function Description" attribute="1" defaultMemberUniqueName="[Functions].[Function Description].[All]" allUniqueName="[Functions].[Function Description].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Display]" caption="Function Display" attribute="1" defaultMemberUniqueName="[Functions].[Function Display].[All]" allUniqueName="[Functions].[Function Display].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Functions].[Function Group].[All]" allUniqueName="[Functions].[Function Group].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" allUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Start Date Mismatch].[All]" allUniqueName="[HD Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Code].[All]" allUniqueName="[HD Schedule].[Task Code].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name].[All]" allUniqueName="[HD Schedule].[Task Name].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name Short].[All]" allUniqueName="[HD Schedule].[Task Name Short].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Start Date].[All]" allUniqueName="[HD Schedule].[Task Start Date].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Coating]" caption="Coating" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating].[All]" allUniqueName="[Job Shipments].[Coating].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Coating Desc]" caption="Coating Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating Desc].[All]" allUniqueName="[Job Shipments].[Coating Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Display Ship Date]" caption="Display Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[Display Ship Date].[All]" allUniqueName="[Job Shipments].[Display Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[First Start Date]" caption="First Start Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[First Start Date].[All]" allUniqueName="[Job Shipments].[First Start Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[HD Ship Date]" caption="HD Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[HD Ship Date].[All]" allUniqueName="[Job Shipments].[HD Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[In HD?]" caption="In HD?" attribute="1" defaultMemberUniqueName="[Job Shipments].[In HD?].[All]" allUniqueName="[Job Shipments].[In HD?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Name]" caption="Job Name" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Name].[All]" allUniqueName="[Job Shipments].[Job Name].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Number]" caption="Job Number" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Number].[All]" allUniqueName="[Job Shipments].[Job Number].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job State]" caption="Job State" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job State].[All]" allUniqueName="[Job Shipments].[Job State].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Status]" caption="Job Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status].[All]" allUniqueName="[Job Shipments].[Job Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Status Full Text]" caption="Job Status Full Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status Full Text].[All]" allUniqueName="[Job Shipments].[Job Status Full Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Structure Shipment]" caption="Job Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Structure Shipment].[All]" allUniqueName="[Job Shipments].[Job Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Job Shipments].[Milestone Status Text]" caption="Milestone Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Milestone Status Text].[All]" allUniqueName="[Job Shipments].[Milestone Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Date]" caption="P6 Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Date].[All]" allUniqueName="[Job Shipments].[P6 Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Month Year]" caption="P6 Ship Month Year" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" allUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Year Month]" caption="P6 Ship Year Month" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" allUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[PM Initials]" caption="PM Initials" attribute="1" defaultMemberUniqueName="[Job Shipments].[PM Initials].[All]" allUniqueName="[Job Shipments].[PM Initials].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Production Status]" caption="Production Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Production Status].[All]" allUniqueName="[Job Shipments].[Production Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Manager]" caption="Project Manager" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Manager].[All]" allUniqueName="[Job Shipments].[Project Manager].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Milestone Status]" caption="Project Milestone Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Milestone Status].[All]" allUniqueName="[Job Shipments].[Project Milestone Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Notes]" caption="Project Notes" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Notes].[All]" allUniqueName="[Job Shipments].[Project Notes].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Ship Date Status]" caption="Project Ship Date Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Ship Date Status].[All]" allUniqueName="[Job Shipments].[Project Ship Date Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Job Label]" caption="Ship Date Job Label" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Job Label].[All]" allUniqueName="[Job Shipments].[Ship Date Job Label].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Status Text]" caption="Ship Date Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Status Text].[All]" allUniqueName="[Job Shipments].[Ship Date Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Ship Dates Match?]" caption="Ship Dates Match?" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Dates Match?].[All]" allUniqueName="[Job Shipments].[Ship Dates Match?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[State Abbr]" caption="State Abbr" attribute="1" defaultMemberUniqueName="[Job Shipments].[State Abbr].[All]" allUniqueName="[Job Shipments].[State Abbr].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Structure Shipment]" caption="Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Structure Shipment].[All]" allUniqueName="[Job Shipments].[Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup]" caption="Yard Setup" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup].[All]" allUniqueName="[Job Shipments].[Yard Setup].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup Desc]" caption="Yard Setup Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup Desc].[All]" allUniqueName="[Job Shipments].[Yard Setup Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Fab Start Date?]" caption="Fab Start Date?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" allUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone]" caption="Milestone" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone].[All]" allUniqueName="[Milestone Schedule].[Milestone].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Complete?]" caption="Milestone Complete?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" allUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Group]" caption="Milestone Group" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Group].[All]" allUniqueName="[Milestone Schedule].[Milestone Group].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Overdue?]" caption="Milestone Overdue?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" allUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Status]" caption="Milestone Status" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Status].[All]" allUniqueName="[Milestone Schedule].[Milestone Status].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Original Date]" caption="Original Date" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Original Date].[All]" allUniqueName="[Milestone Schedule].[Original Date].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group]" caption="Product Group" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group].[All]" allUniqueName="[Product Groups].[Product Group].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Product Description]" caption="Product Description" attribute="1" defaultMemberUniqueName="[Products].[Product Description].[All]" allUniqueName="[Products].[Product Description].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Display]" caption="Product Display" attribute="1" defaultMemberUniqueName="[Products].[Product Display].[All]" allUniqueName="[Products].[Product Display].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Finish Date Mismatch].[All]" allUniqueName="[Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Schedule].[HD?].[All]" allUniqueName="[Schedule].[HD?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Schedule].[SAP?].[All]" allUniqueName="[Schedule].[SAP?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Start Date Mismatch].[All]" allUniqueName="[Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Schedule].[Task Code].[All]" allUniqueName="[Schedule].[Task Code].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name].[All]" allUniqueName="[Schedule].[Task Name].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name Short].[All]" allUniqueName="[Schedule].[Task Name Short].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[Schedule].[Task Start Date].[All]" allUniqueName="[Schedule].[Task Start Date].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Center Distinct].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" allUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center Distinct]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[CO_VERSION_ID]" caption="CO_VERSION_ID" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" allUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[COST_CENTER].[All]" allUniqueName="[Cost Center MPS].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[DIRECT_MPS]" caption="DIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[EARNED_MPS]" caption="EARNED_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" allUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[INDIRECT_MPS]" caption="INDIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[OT_MPS]" caption="OT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[OT_MPS].[All]" allUniqueName="[Cost Center MPS].[OT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[WORKDAY_DATE]" caption="WORKDAY_DATE" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" allUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" allUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Functions].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[HD Schedule].[Function Group].[All]" allUniqueName="[HD Schedule].[Function Group].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_CD].[All]" allUniqueName="[HD Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_FLAG]" caption="HD_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FLAG].[All]" allUniqueName="[HD Schedule].[HD_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROD_GRP].[All]" allUniqueName="[HD Schedule].[PROD_GRP].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" allUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" allUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FLAG]" caption="SAP_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FLAG].[All]" allUniqueName="[HD Schedule].[SAP_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY].[All]" allUniqueName="[HD Schedule].[SAP_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_START_DATE].[All]" allUniqueName="[HD Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY].[All]" allUniqueName="[HD Schedule].[WORK_DAY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[LAST_UPDATED]" caption="LAST_UPDATED" attribute="1" defaultMemberUniqueName="[Job Shipments].[LAST_UPDATED].[All]" allUniqueName="[Job Shipments].[LAST_UPDATED].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Job Shipments].[PROJ_ID].[All]" allUniqueName="[Job Shipments].[PROJ_ID].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[SHIP_DATES_DIFF]" caption="SHIP_DATES_DIFF" attribute="1" defaultMemberUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" allUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN1].[All]" allUniqueName="[Milestone Measures].[COLUMN1].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN2].[All]" allUniqueName="[Milestone Measures].[COLUMN2].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN3].[All]" allUniqueName="[Milestone Measures].[COLUMN3].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[ACTUAL_DATE]" caption="ACTUAL_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" allUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[DAYS_OUT]" caption="DAYS_OUT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" allUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[DUE_DATE]" caption="DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MATL_MISSING]" caption="MATL_MISSING" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" allUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT]" caption="MILESTONE_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_SORT]" caption="MILESTONE_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE]" caption="MILESTONE_STATUS_VALUE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[ORDER_QTY]" caption="ORDER_QTY" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" allUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME]" caption="P6_PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" allUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[PLOT_DUE_DATE]" caption="PLOT_DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[QTY_RECVD]" caption="QTY_RECVD" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" allUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[REFERENCE_DATE]" caption="REFERENCE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" allUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN1].[All]" allUniqueName="[Public Schedule Measures].[COLUMN1].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN2].[All]" allUniqueName="[Public Schedule Measures].[COLUMN2].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN3].[All]" allUniqueName="[Public Schedule Measures].[COLUMN3].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Schedule].[BAY].[All]" allUniqueName="[Schedule].[BAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER].[All]" allUniqueName="[Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Schedule].[Function Group].[All]" allUniqueName="[Schedule].[Function Group].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_CD].[All]" allUniqueName="[Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_RESOURCE].[All]" allUniqueName="[Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_START_DATE].[All]" allUniqueName="[Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Schedule].[HEIGHT].[All]" allUniqueName="[Schedule].[HEIGHT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Schedule].[LENGTH].[All]" allUniqueName="[Schedule].[LENGTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_END_DATE].[All]" allUniqueName="[Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_START_DATE].[All]" allUniqueName="[Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT].[All]" allUniqueName="[Schedule].[PLANT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT_ID].[All]" allUniqueName="[Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP].[All]" allUniqueName="[Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD].[All]" allUniqueName="[Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_ID].[All]" allUniqueName="[Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY].[All]" allUniqueName="[Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_START_DATE].[All]" allUniqueName="[Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER].[All]" allUniqueName="[Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY].[All]" allUniqueName="[Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN1].[All]" allUniqueName="[Scheduling Measures].[COLUMN1].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN2].[All]" allUniqueName="[Scheduling Measures].[COLUMN2].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN3].[All]" allUniqueName="[Scheduling Measures].[COLUMN3].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Days Out]" caption="Milestone Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Matl Order Qty]" caption="Matl Order Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Matl Recvd Qty]" caption="Matl Recvd Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Matl Missing Qty]" caption="Matl Missing Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Due Date]" caption="Milestone Due Date" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Status Value]" caption="Milestone Status Value" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Days Overdue]" caption="Milestone Days Overdue" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Count]" caption="Milestone Count" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Completed Milestones]" caption="Completed Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Incomplete Milestones]" caption="Incomplete Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Group Status]" caption="Milestone Group Status" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 2 3]" caption="Milestone Column Value 2 3" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 1 4]" caption="Milestone Column Value 1 4" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Remaining Hours]" caption="P6 Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Scheduled Remaining Hours]" caption="P6 Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Remaining Hours]" caption="HD Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Scheduled Remaining Hours]" caption="HD Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty]" caption="HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Start Date]" caption="HD Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD End Date]" caption="HD End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Start Date]" caption="SAP Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP End Date]" caption="SAP End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty]" caption="SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty Complete]" caption="SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty Remaining]" caption="SAP Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty % Complete]" caption="SAP Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Plan Hours]" caption="SAP Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Actual Hours]" caption="SAP Actual Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Earned Hours]" caption="SAP Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Remaining Hours]" caption="SAP Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Scheduled Remaining Hours]" caption="SAP Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Target Hours]" caption="P6 Target Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Remaining Hours Adjusted]" caption="Remaining Hours Adjusted" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Earned Hours]" caption="HD Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Plan Hours]" caption="HD Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty Complete]" caption="HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty Remaining]" caption="HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty % Complete]" caption="HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Data Last Updated]" caption="Data Last Updated" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Ship Date Status Indicator]" caption="Ship Date Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Ship Date]" caption="Ship Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Earned MPS (004)]" caption="Earned MPS (004)" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Active Job Remaining Hours]" caption="Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Planned Job Remaining Hours]" caption="Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Active Job Start Date]" caption="Active Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Planned Job Start Date]" caption="Planned Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Job Status Indicator]" caption="Job Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[What-If Job Remaining Hours]" caption="What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Inactive Job Remaining Hours]" caption="Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Girder Start Date]" caption="P6 Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Early Start Date]" caption="P6 Early Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Early End Date]" caption="P6 Early End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fab Start Date]" caption="Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fab End Date]" caption="Fab End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Yard Start Date]" caption="Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Yard End Date]" caption="Yard End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Coatings Start Date]" caption="Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Coatings End Date]" caption="Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Remaining Hours]" caption="Public Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Active Job Remaining Hours]" caption="Public Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Start Date]" caption="Public Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Public End Date]" caption="Public End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty]" caption="Public HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Complete]" caption="Public HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Remaining]" caption="Public HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty % Complete]" caption="Public HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public What-If Job Remaining Hours]" caption="Public What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Inactive Job Remaining Hours]" caption="Public Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Fab Start Date]" caption="Public Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Fab End Date]" caption="Public Fab End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Yard Start Date]" caption="Public Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Yard End Date]" caption="Public Yard End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Coatings Start Date]" caption="Public Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Coatings End Date]" caption="Public Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Average Days Out]" caption="Average Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 End Date]" caption="P6 End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty]" caption="Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty]" caption="Avg SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty Complete]" caption="Avg SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty Complete]" caption="Avg HD Qty Complete" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link]" caption="Bay Schedule 2 and 3 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link]" caption="Bay Schedule 1 and 4 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link MS]" caption="Bay Schedule 2 and 3 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link MS]" caption="Bay Schedule 1 and 4 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link]" caption="Early Start Date Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link MS]" caption="Early Start Date Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty]" caption="Public Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty Complete]" caption="Public Avg HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="10">
-    <dimension name="Calendar" uniqueName="[Calendar]" caption="Calendar"/>
-    <dimension name="Cost Centers" uniqueName="[Cost Centers]" caption="Cost Centers"/>
-    <dimension name="Functions" uniqueName="[Functions]" caption="Functions"/>
-    <dimension name="HD Schedule" uniqueName="[HD Schedule]" caption="HD Schedule"/>
-    <dimension name="Job Shipments" uniqueName="[Job Shipments]" caption="Job Shipments"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Milestone Schedule" uniqueName="[Milestone Schedule]" caption="Milestone Schedule"/>
-    <dimension name="Product Groups" uniqueName="[Product Groups]" caption="Product Groups"/>
-    <dimension name="Products" uniqueName="[Products]" caption="Products"/>
-    <dimension name="Schedule" uniqueName="[Schedule]" caption="Schedule"/>
-  </dimensions>
-  <measureGroups count="14">
-    <measureGroup name="Calendar" caption="Calendar"/>
-    <measureGroup name="Cost Center Distinct" caption="Cost Center Distinct"/>
-    <measureGroup name="Cost Center MPS" caption="Cost Center MPS"/>
-    <measureGroup name="Cost Centers" caption="Cost Centers"/>
-    <measureGroup name="Functions" caption="Functions"/>
-    <measureGroup name="HD Schedule" caption="HD Schedule"/>
-    <measureGroup name="Job Shipments" caption="Job Shipments"/>
-    <measureGroup name="Milestone Measures" caption="Milestone Measures"/>
-    <measureGroup name="Milestone Schedule" caption="Milestone Schedule"/>
-    <measureGroup name="Product Groups" caption="Product Groups"/>
-    <measureGroup name="Products" caption="Products"/>
-    <measureGroup name="Public Schedule Measures" caption="Public Schedule Measures"/>
-    <measureGroup name="Schedule" caption="Schedule"/>
-    <measureGroup name="Scheduling Measures" caption="Scheduling Measures"/>
-  </measureGroups>
-  <maps count="9">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="6" dimension="4"/>
-    <map measureGroup="8" dimension="6"/>
-    <map measureGroup="9" dimension="7"/>
-    <map measureGroup="10" dimension="8"/>
-    <map measureGroup="12" dimension="9"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.399926157406" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
-      <sharedItems count="199">
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" c="D-1160230F-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-02]" c="D-1160245A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-13]" c="D-1160245A-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-01]" c="D-1160253A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" c="D-1160253A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-04]" c="D-1160253C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-05]" c="D-1160253C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" c="D-1160253C-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" c="D-1160253C-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-01]" c="D-1170032A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-02]" c="D-1170032A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032B-03]" c="D-1170032B-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082A-03]" c="D-1170082A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082D-08]" c="D-1170082D-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" c="D-1170143C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" c="D-1170155A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155D-04]" c="D-1170155D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" c="D-1170155G-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217A-01]" c="D-1170217A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217C-03]" c="D-1170217C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217F-07]" c="D-1170217F-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" c="D-1170217G-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272A-01]" c="D-1170272A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272B-02]" c="D-1170272B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272C-03]" c="D-1170272C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272E-05]" c="D-1170272E-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272F-06]" c="D-1170272F-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272G-07]" c="D-1170272G-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170281B-01]" c="D-1170281B-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180020A-01]" c="D-1180020A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180023A-02]" c="D-1180023A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-01]" c="D-1180045A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-02]" c="D-1180045A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-03]" c="D-1180045A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-04]" c="D-1180045B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-05]" c="D-1180045B-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-06]" c="D-1180045B-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-01]" c="D-1180059A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-02]" c="D-1180059A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-03]" c="D-1180091C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-04]" c="D-1180091C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" c="D-1180095C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-04]" c="D-1180095D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-05]" c="D-1180095D-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095E-06]" c="D-1180095E-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095G-08]" c="D-1180095G-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095H-09]" c="D-1180095H-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" c="D-1180095J-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095L-12]" c="D-1180095L-12"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180116B-01]" c="D-1180116B-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180136A-01]" c="D-1180136A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-02]" c="D-1180155A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-03]" c="D-1180155A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-01]" c="D-1180164A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-02]" c="D-1180164A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180174A-02]" c="D-1180174A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-01]" c="D-1180201A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-02]" c="D-1180201A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-03]" c="D-1180201B-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-12]" c="D-1180201B-12"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-04]" c="D-1180201C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-05]" c="D-1180201C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-13]" c="D-1180201C-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-06]" c="D-1180201D-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-07]" c="D-1180201D-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201E-08]" c="D-1180201E-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201F-09]" c="D-1180201F-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201G-10]" c="D-1180201G-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201H-11]" c="D-1180201H-11"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" c="D-1180238C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-04]" c="D-1180238D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-05]" c="D-1180238D-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-06]" c="D-1180238E-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-07]" c="D-1180238E-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238F-08]" c="D-1180238F-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" c="D-1180238G-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" c="D-1180261A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" c="D-1180261A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" c="D-1180262A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180274A-02]" c="D-1180274A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285A-01]" c="D-1180285A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285C-03]" c="D-1180285C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285D-04]" c="D-1180285D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180302A-01]" c="D-1180302A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-01]" c="D-1180308A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-02]" c="D-1180308A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-03]" c="D-1180308A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180310A-01]" c="D-1180310A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190010A-01]" c="D-1190010A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190016A-01]" c="D-1190016A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028A-01]" c="D-1190028A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028B-02]" c="D-1190028B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190036A-01]" c="D-1190036A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" c="D-1190037A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190038A-01]" c="D-1190038A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190060A-01]" c="D-1190060A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190066A-01]" c="D-1190066A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190078A-01]" c="D-1190078A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190090A-01]" c="D-1190090A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092A-02]" c="D-1190092A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092B-04]" c="D-1190092B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190096A-01]" c="D-1190096A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190102A-01]" c="D-1190102A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-03]" c="D-1190103A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-04]" c="D-1190103A-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-01]" c="D-1190105A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-02]" c="D-1190105A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-01]" c="D-1190118A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-02]" c="D-1190118A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-03]" c="D-1190118B-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-04]" c="D-1190118B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190124A-01]" c="D-1190124A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128A-01]" c="D-1190128A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128B-02]" c="D-1190128B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130A-01]" c="D-1190130A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130B-02]" c="D-1190130B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190135A-01]" c="D-1190135A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-01]" c="D-1190136A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-02]" c="D-1190136A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190138A-01]" c="D-1190138A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144A-01]" c="D-1190144A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144B-02]" c="D-1190144B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190148A-01]" c="D-1190148A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190165A-01]" c="D-1190165A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190179A-01]" c="D-1190179A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" c="D-1190187A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190193A-01]" c="D-1190193A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190196A-01]" c="D-1190196A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190203A-01]" c="D-1190203A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190210A-01]" c="D-1190210A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190214A-01]" c="D-1190214A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190217A-01]" c="D-1190217A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190227A-01]" c="D-1190227A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190230A-01]" c="D-1190230A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232A-01]" c="D-1190232A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232B-02]" c="D-1190232B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232C-03]" c="D-1190232C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190239A-01]" c="D-1190239A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243A-01]" c="D-1190243A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243B-02]" c="D-1190243B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249A-01]" c="D-1190249A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249B-02]" c="D-1190249B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-01]" c="D-1190250A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-02]" c="D-1190250A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-03]" c="D-1190250A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-04]" c="D-1190250B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-05]" c="D-1190250B-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-06]" c="D-1190250B-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250C-07]" c="D-1190250C-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250D-08]" c="D-1190250D-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250E-09]" c="D-1190250E-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190251B-02]" c="D-1190251B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190254A-01]" c="D-1190254A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190258A-01]" c="D-1190258A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-01]" c="D-1190259A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-02]" c="D-1190259A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-03]" c="D-1190259A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190266A-01]" c="D-1190266A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272A-01]" c="D-1190272A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272B-02]" c="D-1190272B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274A-01]" c="D-1190274A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278A-01]" c="D-1190278A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278B-02]" c="D-1190278B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-03]" c="D-1190278C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-04]" c="D-1190278C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-05]" c="D-1190278C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-06]" c="D-1190278D-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-07]" c="D-1190278D-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-08]" c="D-1190278E-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-09]" c="D-1190278E-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278F-10]" c="D-1190278F-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278G-11]" c="D-1190278G-11"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190279A-01]" c="D-1190279A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190283A-01]" c="D-1190283A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190289A-01]" c="D-1190289A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190295A-01]" c="D-1190295A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190300A-01]" c="D-1190300A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190305A-01]" c="D-1190305A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190306A-01]" c="D-1190306A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310A-01]" c="D-1190310A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310B-02]" c="D-1190310B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190320A-01]" c="D-1190320A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190321A-01]" c="D-1190321A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200014A-01]" c="D-1200014A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-01]" c="D-1200017A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-02]" c="D-1200017A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200021A-01]" c="D-1200021A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200023A-01]" c="D-1200023A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200031A-01]" c="D-1200031A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" c="D-1200034A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200089A-03]" c="D-1200089A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-02]" u="1" c="D-1170143C-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" u="1" c="D-1170143C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180081A-02]" u="1" c="D-1180081A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" u="1" c="D-1180238A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" u="1" c="D-1180238B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180246A-01]" u="1" c="D-1180246A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" u="1" c="D-1190145A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" u="1" c="D-1190274B-02"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Public Start Date]" caption="Public Start Date" numFmtId="0" hierarchy="286" level="32767"/>
-    <cacheField name="[Cost Centers].[Cost Center Display].[Cost Center Display]" caption="Cost Center Display" numFmtId="0" hierarchy="17" level="1">
-      <sharedItems count="5">
-        <s v="[Cost Centers].[Cost Center Display].&amp;[2005 - LN Plant 1 4 Fab]" c="2005 - LN Plant 1 4 Fab"/>
-        <s v="[Cost Centers].[Cost Center Display].&amp;[2031 - WP Plant 3 South Bay]" c="2031 - WP Plant 3 South Bay"/>
-        <s v="[Cost Centers].[Cost Center Display].&amp;[2006 - LN Plant 2 North Bay]" c="2006 - LN Plant 2 North Bay"/>
-        <s v="[Cost Centers].[Cost Center Display].&amp;[2007 - LN Plant 2 South Bay]" c="2007 - LN Plant 2 South Bay"/>
-        <s v="[Cost Centers].[Cost Center Display].&amp;[2030 - WP Plant 3 North Bay]" c="2030 - WP Plant 3 North Bay"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Cost Centers].[Cost Center].[Cost Center]" caption="Cost Center" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="5">
-        <s v="[Cost Centers].[Cost Center].&amp;[2005]" c="2005"/>
-        <s v="[Cost Centers].[Cost Center].&amp;[2031]" c="2031"/>
-        <s v="[Cost Centers].[Cost Center].&amp;[2006]" c="2006"/>
-        <s v="[Cost Centers].[Cost Center].&amp;[2007]" c="2007"/>
-        <s v="[Cost Centers].[Cost Center].&amp;[2030]" c="2030"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="316">
-    <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Ending]" caption="Month Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Month Ending].[All]" allUniqueName="[Calendar].[Month Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Name]" caption="Month Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Name].[All]" allUniqueName="[Calendar].[Month Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Calendar].[Month Number].[All]" allUniqueName="[Calendar].[Month Number].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Short Name]" caption="Month Short Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Short Name].[All]" allUniqueName="[Calendar].[Month Short Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Starting]" caption="Month Starting" attribute="1" defaultMemberUniqueName="[Calendar].[Month Starting].[All]" allUniqueName="[Calendar].[Month Starting].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Year]" caption="Month Year" attribute="1" defaultMemberUniqueName="[Calendar].[Month Year].[All]" allUniqueName="[Calendar].[Month Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Months Out]" caption="Months Out" attribute="1" defaultMemberUniqueName="[Calendar].[Months Out].[All]" allUniqueName="[Calendar].[Months Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Week Beginning]" caption="Week Beginning" attribute="1" defaultMemberUniqueName="[Calendar].[Week Beginning].[All]" allUniqueName="[Calendar].[Week Beginning].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Week Ending]" caption="Week Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Week Ending].[All]" allUniqueName="[Calendar].[Week Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Weeks Out]" caption="Weeks Out" attribute="1" defaultMemberUniqueName="[Calendar].[Weeks Out].[All]" allUniqueName="[Calendar].[Weeks Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Calendar].[Year].[All]" allUniqueName="[Calendar].[Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Year Month]" caption="Year Month" attribute="1" defaultMemberUniqueName="[Calendar].[Year Month].[All]" allUniqueName="[Calendar].[Year Month].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Year Qtr]" caption="Year Qtr" attribute="1" defaultMemberUniqueName="[Calendar].[Year Qtr].[All]" allUniqueName="[Calendar].[Year Qtr].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Bay]" caption="Bay" attribute="1" defaultMemberUniqueName="[Cost Centers].[Bay].[All]" allUniqueName="[Cost Centers].[Bay].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center]" caption="Cost Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center].[All]" allUniqueName="[Cost Centers].[Cost Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Display]" caption="Cost Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Display].[All]" allUniqueName="[Cost Centers].[Cost Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Name]" caption="Cost Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Name].[All]" allUniqueName="[Cost Centers].[Cost Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Cost Centers].[Facility].[All]" allUniqueName="[Cost Centers].[Facility].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Plant]" caption="Plant" attribute="1" defaultMemberUniqueName="[Cost Centers].[Plant].[All]" allUniqueName="[Cost Centers].[Plant].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Work Center]" caption="Work Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center].[All]" allUniqueName="[Cost Centers].[Work Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Display]" caption="Work Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Display].[All]" allUniqueName="[Cost Centers].[Work Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Name]" caption="Work Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Name].[All]" allUniqueName="[Cost Centers].[Work Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Code]" caption="Function Code" attribute="1" defaultMemberUniqueName="[Functions].[Function Code].[All]" allUniqueName="[Functions].[Function Code].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Description]" caption="Function Description" attribute="1" defaultMemberUniqueName="[Functions].[Function Description].[All]" allUniqueName="[Functions].[Function Description].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Display]" caption="Function Display" attribute="1" defaultMemberUniqueName="[Functions].[Function Display].[All]" allUniqueName="[Functions].[Function Display].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Functions].[Function Group].[All]" allUniqueName="[Functions].[Function Group].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" allUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Start Date Mismatch].[All]" allUniqueName="[HD Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Code].[All]" allUniqueName="[HD Schedule].[Task Code].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name].[All]" allUniqueName="[HD Schedule].[Task Name].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name Short].[All]" allUniqueName="[HD Schedule].[Task Name Short].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Start Date].[All]" allUniqueName="[HD Schedule].[Task Start Date].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Coating]" caption="Coating" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating].[All]" allUniqueName="[Job Shipments].[Coating].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Coating Desc]" caption="Coating Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating Desc].[All]" allUniqueName="[Job Shipments].[Coating Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Display Ship Date]" caption="Display Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[Display Ship Date].[All]" allUniqueName="[Job Shipments].[Display Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[First Start Date]" caption="First Start Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[First Start Date].[All]" allUniqueName="[Job Shipments].[First Start Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[HD Ship Date]" caption="HD Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[HD Ship Date].[All]" allUniqueName="[Job Shipments].[HD Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[In HD?]" caption="In HD?" attribute="1" defaultMemberUniqueName="[Job Shipments].[In HD?].[All]" allUniqueName="[Job Shipments].[In HD?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Name]" caption="Job Name" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Name].[All]" allUniqueName="[Job Shipments].[Job Name].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Number]" caption="Job Number" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Number].[All]" allUniqueName="[Job Shipments].[Job Number].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job State]" caption="Job State" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job State].[All]" allUniqueName="[Job Shipments].[Job State].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Status]" caption="Job Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status].[All]" allUniqueName="[Job Shipments].[Job Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Status Full Text]" caption="Job Status Full Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status Full Text].[All]" allUniqueName="[Job Shipments].[Job Status Full Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Structure Shipment]" caption="Job Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Structure Shipment].[All]" allUniqueName="[Job Shipments].[Job Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Job Shipments].[Milestone Status Text]" caption="Milestone Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Milestone Status Text].[All]" allUniqueName="[Job Shipments].[Milestone Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Date]" caption="P6 Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Date].[All]" allUniqueName="[Job Shipments].[P6 Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Month Year]" caption="P6 Ship Month Year" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" allUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Year Month]" caption="P6 Ship Year Month" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" allUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[PM Initials]" caption="PM Initials" attribute="1" defaultMemberUniqueName="[Job Shipments].[PM Initials].[All]" allUniqueName="[Job Shipments].[PM Initials].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Production Status]" caption="Production Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Production Status].[All]" allUniqueName="[Job Shipments].[Production Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Manager]" caption="Project Manager" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Manager].[All]" allUniqueName="[Job Shipments].[Project Manager].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Milestone Status]" caption="Project Milestone Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Milestone Status].[All]" allUniqueName="[Job Shipments].[Project Milestone Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Notes]" caption="Project Notes" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Notes].[All]" allUniqueName="[Job Shipments].[Project Notes].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Ship Date Status]" caption="Project Ship Date Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Ship Date Status].[All]" allUniqueName="[Job Shipments].[Project Ship Date Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Job Label]" caption="Ship Date Job Label" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Job Label].[All]" allUniqueName="[Job Shipments].[Ship Date Job Label].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Status Text]" caption="Ship Date Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Status Text].[All]" allUniqueName="[Job Shipments].[Ship Date Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Ship Dates Match?]" caption="Ship Dates Match?" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Dates Match?].[All]" allUniqueName="[Job Shipments].[Ship Dates Match?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[State Abbr]" caption="State Abbr" attribute="1" defaultMemberUniqueName="[Job Shipments].[State Abbr].[All]" allUniqueName="[Job Shipments].[State Abbr].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Structure Shipment]" caption="Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Structure Shipment].[All]" allUniqueName="[Job Shipments].[Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup]" caption="Yard Setup" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup].[All]" allUniqueName="[Job Shipments].[Yard Setup].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup Desc]" caption="Yard Setup Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup Desc].[All]" allUniqueName="[Job Shipments].[Yard Setup Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Fab Start Date?]" caption="Fab Start Date?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" allUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone]" caption="Milestone" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone].[All]" allUniqueName="[Milestone Schedule].[Milestone].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Complete?]" caption="Milestone Complete?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" allUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Group]" caption="Milestone Group" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Group].[All]" allUniqueName="[Milestone Schedule].[Milestone Group].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Overdue?]" caption="Milestone Overdue?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" allUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Status]" caption="Milestone Status" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Status].[All]" allUniqueName="[Milestone Schedule].[Milestone Status].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Original Date]" caption="Original Date" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Original Date].[All]" allUniqueName="[Milestone Schedule].[Original Date].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group]" caption="Product Group" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group].[All]" allUniqueName="[Product Groups].[Product Group].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Description]" caption="Product Description" attribute="1" defaultMemberUniqueName="[Products].[Product Description].[All]" allUniqueName="[Products].[Product Description].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Display]" caption="Product Display" attribute="1" defaultMemberUniqueName="[Products].[Product Display].[All]" allUniqueName="[Products].[Product Display].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Finish Date Mismatch].[All]" allUniqueName="[Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Schedule].[HD?].[All]" allUniqueName="[Schedule].[HD?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Schedule].[SAP?].[All]" allUniqueName="[Schedule].[SAP?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Start Date Mismatch].[All]" allUniqueName="[Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Schedule].[Task Code].[All]" allUniqueName="[Schedule].[Task Code].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name].[All]" allUniqueName="[Schedule].[Task Name].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name Short].[All]" allUniqueName="[Schedule].[Task Name Short].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[Schedule].[Task Start Date].[All]" allUniqueName="[Schedule].[Task Start Date].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Center Distinct].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" allUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center Distinct]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[CO_VERSION_ID]" caption="CO_VERSION_ID" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" allUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[COST_CENTER].[All]" allUniqueName="[Cost Center MPS].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[DIRECT_MPS]" caption="DIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[EARNED_MPS]" caption="EARNED_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" allUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[INDIRECT_MPS]" caption="INDIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[OT_MPS]" caption="OT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[OT_MPS].[All]" allUniqueName="[Cost Center MPS].[OT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[WORKDAY_DATE]" caption="WORKDAY_DATE" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" allUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" allUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Functions].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[HD Schedule].[Function Group].[All]" allUniqueName="[HD Schedule].[Function Group].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_CD].[All]" allUniqueName="[HD Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_FLAG]" caption="HD_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FLAG].[All]" allUniqueName="[HD Schedule].[HD_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROD_GRP].[All]" allUniqueName="[HD Schedule].[PROD_GRP].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" allUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" allUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FLAG]" caption="SAP_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FLAG].[All]" allUniqueName="[HD Schedule].[SAP_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY].[All]" allUniqueName="[HD Schedule].[SAP_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_START_DATE].[All]" allUniqueName="[HD Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY].[All]" allUniqueName="[HD Schedule].[WORK_DAY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[LAST_UPDATED]" caption="LAST_UPDATED" attribute="1" defaultMemberUniqueName="[Job Shipments].[LAST_UPDATED].[All]" allUniqueName="[Job Shipments].[LAST_UPDATED].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Job Shipments].[PROJ_ID].[All]" allUniqueName="[Job Shipments].[PROJ_ID].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[SHIP_DATES_DIFF]" caption="SHIP_DATES_DIFF" attribute="1" defaultMemberUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" allUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN1].[All]" allUniqueName="[Milestone Measures].[COLUMN1].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN2].[All]" allUniqueName="[Milestone Measures].[COLUMN2].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN3].[All]" allUniqueName="[Milestone Measures].[COLUMN3].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[ACTUAL_DATE]" caption="ACTUAL_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" allUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[DAYS_OUT]" caption="DAYS_OUT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" allUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[DUE_DATE]" caption="DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MATL_MISSING]" caption="MATL_MISSING" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" allUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT]" caption="MILESTONE_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_SORT]" caption="MILESTONE_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE]" caption="MILESTONE_STATUS_VALUE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[ORDER_QTY]" caption="ORDER_QTY" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" allUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME]" caption="P6_PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" allUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[PLOT_DUE_DATE]" caption="PLOT_DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[QTY_RECVD]" caption="QTY_RECVD" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" allUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[REFERENCE_DATE]" caption="REFERENCE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" allUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN1].[All]" allUniqueName="[Public Schedule Measures].[COLUMN1].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN2].[All]" allUniqueName="[Public Schedule Measures].[COLUMN2].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN3].[All]" allUniqueName="[Public Schedule Measures].[COLUMN3].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Schedule].[BAY].[All]" allUniqueName="[Schedule].[BAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER].[All]" allUniqueName="[Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Schedule].[Function Group].[All]" allUniqueName="[Schedule].[Function Group].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_CD].[All]" allUniqueName="[Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_RESOURCE].[All]" allUniqueName="[Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_START_DATE].[All]" allUniqueName="[Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Schedule].[HEIGHT].[All]" allUniqueName="[Schedule].[HEIGHT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Schedule].[LENGTH].[All]" allUniqueName="[Schedule].[LENGTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_END_DATE].[All]" allUniqueName="[Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_START_DATE].[All]" allUniqueName="[Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT].[All]" allUniqueName="[Schedule].[PLANT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT_ID].[All]" allUniqueName="[Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP].[All]" allUniqueName="[Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD].[All]" allUniqueName="[Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_ID].[All]" allUniqueName="[Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY].[All]" allUniqueName="[Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_START_DATE].[All]" allUniqueName="[Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER].[All]" allUniqueName="[Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY].[All]" allUniqueName="[Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN1].[All]" allUniqueName="[Scheduling Measures].[COLUMN1].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN2].[All]" allUniqueName="[Scheduling Measures].[COLUMN2].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN3].[All]" allUniqueName="[Scheduling Measures].[COLUMN3].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Days Out]" caption="Milestone Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Matl Order Qty]" caption="Matl Order Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Matl Recvd Qty]" caption="Matl Recvd Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Matl Missing Qty]" caption="Matl Missing Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Due Date]" caption="Milestone Due Date" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Status Value]" caption="Milestone Status Value" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Days Overdue]" caption="Milestone Days Overdue" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Count]" caption="Milestone Count" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Completed Milestones]" caption="Completed Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Incomplete Milestones]" caption="Incomplete Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Group Status]" caption="Milestone Group Status" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 2 3]" caption="Milestone Column Value 2 3" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 1 4]" caption="Milestone Column Value 1 4" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Remaining Hours]" caption="P6 Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Scheduled Remaining Hours]" caption="P6 Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Remaining Hours]" caption="HD Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Scheduled Remaining Hours]" caption="HD Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty]" caption="HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Start Date]" caption="HD Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD End Date]" caption="HD End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Start Date]" caption="SAP Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP End Date]" caption="SAP End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty]" caption="SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty Complete]" caption="SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty Remaining]" caption="SAP Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty % Complete]" caption="SAP Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Plan Hours]" caption="SAP Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Actual Hours]" caption="SAP Actual Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Earned Hours]" caption="SAP Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Remaining Hours]" caption="SAP Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Scheduled Remaining Hours]" caption="SAP Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Target Hours]" caption="P6 Target Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Remaining Hours Adjusted]" caption="Remaining Hours Adjusted" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Earned Hours]" caption="HD Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Plan Hours]" caption="HD Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty Complete]" caption="HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty Remaining]" caption="HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty % Complete]" caption="HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Data Last Updated]" caption="Data Last Updated" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Ship Date Status Indicator]" caption="Ship Date Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Ship Date]" caption="Ship Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Earned MPS (004)]" caption="Earned MPS (004)" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Active Job Remaining Hours]" caption="Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Planned Job Remaining Hours]" caption="Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Active Job Start Date]" caption="Active Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Planned Job Start Date]" caption="Planned Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Job Status Indicator]" caption="Job Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[What-If Job Remaining Hours]" caption="What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Inactive Job Remaining Hours]" caption="Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Girder Start Date]" caption="P6 Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Early Start Date]" caption="P6 Early Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Early End Date]" caption="P6 Early End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fab Start Date]" caption="Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fab End Date]" caption="Fab End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Yard Start Date]" caption="Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Yard End Date]" caption="Yard End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Coatings Start Date]" caption="Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Coatings End Date]" caption="Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Remaining Hours]" caption="Public Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Active Job Remaining Hours]" caption="Public Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Start Date]" caption="Public Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Public End Date]" caption="Public End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty]" caption="Public HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Complete]" caption="Public HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Remaining]" caption="Public HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty % Complete]" caption="Public HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public What-If Job Remaining Hours]" caption="Public What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Inactive Job Remaining Hours]" caption="Public Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Fab Start Date]" caption="Public Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Fab End Date]" caption="Public Fab End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Yard Start Date]" caption="Public Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Yard End Date]" caption="Public Yard End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Coatings Start Date]" caption="Public Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Coatings End Date]" caption="Public Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Average Days Out]" caption="Average Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 End Date]" caption="P6 End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty]" caption="Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty]" caption="Avg SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty Complete]" caption="Avg SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty Complete]" caption="Avg HD Qty Complete" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link]" caption="Bay Schedule 2 and 3 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link]" caption="Bay Schedule 1 and 4 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link MS]" caption="Bay Schedule 2 and 3 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link MS]" caption="Bay Schedule 1 and 4 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link]" caption="Early Start Date Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link MS]" caption="Early Start Date Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty]" caption="Public Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty Complete]" caption="Public Avg HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="10">
-    <dimension name="Calendar" uniqueName="[Calendar]" caption="Calendar"/>
-    <dimension name="Cost Centers" uniqueName="[Cost Centers]" caption="Cost Centers"/>
-    <dimension name="Functions" uniqueName="[Functions]" caption="Functions"/>
-    <dimension name="HD Schedule" uniqueName="[HD Schedule]" caption="HD Schedule"/>
-    <dimension name="Job Shipments" uniqueName="[Job Shipments]" caption="Job Shipments"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Milestone Schedule" uniqueName="[Milestone Schedule]" caption="Milestone Schedule"/>
-    <dimension name="Product Groups" uniqueName="[Product Groups]" caption="Product Groups"/>
-    <dimension name="Products" uniqueName="[Products]" caption="Products"/>
-    <dimension name="Schedule" uniqueName="[Schedule]" caption="Schedule"/>
-  </dimensions>
-  <measureGroups count="14">
-    <measureGroup name="Calendar" caption="Calendar"/>
-    <measureGroup name="Cost Center Distinct" caption="Cost Center Distinct"/>
-    <measureGroup name="Cost Center MPS" caption="Cost Center MPS"/>
-    <measureGroup name="Cost Centers" caption="Cost Centers"/>
-    <measureGroup name="Functions" caption="Functions"/>
-    <measureGroup name="HD Schedule" caption="HD Schedule"/>
-    <measureGroup name="Job Shipments" caption="Job Shipments"/>
-    <measureGroup name="Milestone Measures" caption="Milestone Measures"/>
-    <measureGroup name="Milestone Schedule" caption="Milestone Schedule"/>
-    <measureGroup name="Product Groups" caption="Product Groups"/>
-    <measureGroup name="Products" caption="Products"/>
-    <measureGroup name="Public Schedule Measures" caption="Public Schedule Measures"/>
-    <measureGroup name="Schedule" caption="Schedule"/>
-    <measureGroup name="Scheduling Measures" caption="Scheduling Measures"/>
-  </measureGroups>
-  <maps count="9">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="6" dimension="4"/>
-    <map measureGroup="8" dimension="6"/>
-    <map measureGroup="9" dimension="7"/>
-    <map measureGroup="10" dimension="8"/>
-    <map measureGroup="12" dimension="9"/>
+    <map measureGroup="11" dimension="9"/>
+    <map measureGroup="13" dimension="10"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -3192,7 +3500,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C200" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4044,232 +4352,306 @@
     <dataField fld="1" baseField="0" baseItem="0"/>
     <dataField fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="316">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="390">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -4381,7 +4763,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B201" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -5367,7 +5749,7 @@
     </i>
     <i>
       <x v="190"/>
-      <x/>
+      <x v="4"/>
     </i>
     <i>
       <x v="191"/>
@@ -5406,232 +5788,306 @@
       <x v="3"/>
     </i>
   </rowItems>
-  <pivotHierarchies count="316">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="390">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -5741,7 +6197,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Products" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Products" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C205" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -5946,6 +6402,11 @@
         <item s="1" x="198"/>
         <item s="1" x="175"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="6">
@@ -5956,8 +6417,19 @@
         <item s="1" x="4"/>
         <item t="default"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -6759,232 +7231,306 @@
   <dataFields count="1">
     <dataField fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="316">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="390">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -7080,11 +7626,11 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
     <rowHierarchyUsage hierarchyUsage="45"/>
-    <rowHierarchyUsage hierarchyUsage="73"/>
+    <rowHierarchyUsage hierarchyUsage="79"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -7094,7 +7640,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Bays" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Bays" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C361" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -7299,8 +7845,19 @@
         <item s="1" x="189"/>
         <item s="1" x="190"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
     <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="6">
         <item s="1" x="0"/>
@@ -7310,6 +7867,11 @@
         <item s="1" x="4"/>
         <item t="default"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="6">
@@ -7320,6 +7882,11 @@
         <item s="1" x="4"/>
         <item t="default"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
   </pivotFields>
   <rowFields count="2">
@@ -8605,232 +9172,306 @@
   <dataFields count="1">
     <dataField fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="316">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="390">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -8930,7 +9571,7 @@
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -13017,7 +13658,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -13099,7 +13740,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13166,6 +13809,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>203</v>
       </c>
@@ -13185,6 +13831,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>203</v>
       </c>
@@ -13204,6 +13853,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>203</v>
       </c>
@@ -13311,6 +13963,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>206</v>
       </c>
@@ -13341,6 +13996,9 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>204</v>
       </c>
@@ -13404,6 +14062,9 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>204</v>
       </c>
@@ -13434,6 +14095,9 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>205</v>
       </c>
@@ -13585,6 +14249,9 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>204</v>
       </c>
@@ -13604,6 +14271,9 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>204</v>
       </c>
@@ -13623,6 +14293,9 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>204</v>
       </c>
@@ -13642,6 +14315,9 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B51" s="2" t="s">
         <v>204</v>
       </c>
@@ -13661,6 +14337,9 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B53" s="2" t="s">
         <v>204</v>
       </c>
@@ -13812,6 +14491,9 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B67" s="2" t="s">
         <v>204</v>
       </c>
@@ -13941,6 +14623,9 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B79" s="2" t="s">
         <v>204</v>
       </c>
@@ -14092,6 +14777,9 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="B93" s="2" t="s">
         <v>205</v>
       </c>
@@ -14276,6 +14964,9 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B110" s="2" t="s">
         <v>204</v>
       </c>
@@ -14295,6 +14986,9 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B112" s="2" t="s">
         <v>204</v>
       </c>
@@ -14567,6 +15261,9 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="B137" s="2" t="s">
         <v>205</v>
       </c>
@@ -14916,6 +15613,9 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="B169" s="2" t="s">
         <v>204</v>
       </c>
@@ -14935,6 +15635,9 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="B171" s="2" t="s">
         <v>204</v>
       </c>
@@ -14954,6 +15657,9 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="B173" s="2" t="s">
         <v>204</v>
       </c>
@@ -14973,6 +15679,9 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="B175" s="2" t="s">
         <v>204</v>
       </c>
@@ -15014,6 +15723,9 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="B179" s="2" t="s">
         <v>204</v>
       </c>
@@ -15033,6 +15745,9 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="B181" s="2" t="s">
         <v>204</v>
       </c>
@@ -15118,6 +15833,9 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="B189" s="2" t="s">
         <v>204</v>
       </c>
@@ -15126,6 +15844,9 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="B190" s="2" t="s">
         <v>205</v>
       </c>
@@ -15244,6 +15965,9 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="B201" s="2" t="s">
         <v>204</v>
       </c>
@@ -15252,6 +15976,9 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="B202" s="2" t="s">
         <v>205</v>
       </c>
@@ -15302,7 +16029,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C361"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15358,6 +16087,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
@@ -15377,6 +16109,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>216</v>
       </c>
@@ -15429,6 +16164,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>216</v>
       </c>
@@ -15470,6 +16208,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>217</v>
       </c>
@@ -15489,6 +16230,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>217</v>
       </c>
@@ -15519,6 +16263,9 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>217</v>
       </c>
@@ -15527,6 +16274,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>218</v>
       </c>
@@ -15546,6 +16296,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>217</v>
       </c>
@@ -15554,6 +16307,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>218</v>
       </c>
@@ -15639,6 +16395,9 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>216</v>
       </c>
@@ -15669,6 +16428,9 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>219</v>
       </c>
@@ -15688,6 +16450,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>216</v>
       </c>
@@ -15718,6 +16483,9 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>219</v>
       </c>
@@ -15726,6 +16494,9 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B41" s="2" t="s">
         <v>216</v>
       </c>
@@ -15745,6 +16516,9 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>216</v>
       </c>
@@ -15764,6 +16538,9 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>219</v>
       </c>
@@ -15772,6 +16549,9 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>216</v>
       </c>
@@ -15791,6 +16571,9 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>217</v>
       </c>
@@ -15799,6 +16582,9 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>218</v>
       </c>
@@ -15818,6 +16604,9 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B51" s="2" t="s">
         <v>217</v>
       </c>
@@ -15826,6 +16615,9 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B52" s="2" t="s">
         <v>218</v>
       </c>
@@ -15845,6 +16637,9 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B54" s="2" t="s">
         <v>216</v>
       </c>
@@ -15864,6 +16659,9 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B56" s="2" t="s">
         <v>218</v>
       </c>
@@ -15883,6 +16681,9 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B58" s="2" t="s">
         <v>218</v>
       </c>
@@ -15902,6 +16703,9 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B60" s="2" t="s">
         <v>218</v>
       </c>
@@ -15921,6 +16725,9 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>218</v>
       </c>
@@ -15940,6 +16747,9 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B64" s="2" t="s">
         <v>218</v>
       </c>
@@ -15959,6 +16769,9 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B66" s="2" t="s">
         <v>218</v>
       </c>
@@ -15978,6 +16791,9 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B68" s="2" t="s">
         <v>217</v>
       </c>
@@ -15997,6 +16813,9 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B70" s="2" t="s">
         <v>217</v>
       </c>
@@ -16016,6 +16835,9 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B72" s="2" t="s">
         <v>216</v>
       </c>
@@ -16035,6 +16857,9 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B74" s="2" t="s">
         <v>216</v>
       </c>
@@ -16054,6 +16879,9 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B76" s="2" t="s">
         <v>218</v>
       </c>
@@ -16073,6 +16901,9 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B78" s="2" t="s">
         <v>218</v>
       </c>
@@ -16092,6 +16923,9 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B80" s="2" t="s">
         <v>216</v>
       </c>
@@ -16111,6 +16945,9 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B82" s="2" t="s">
         <v>218</v>
       </c>
@@ -16130,6 +16967,9 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B84" s="2" t="s">
         <v>216</v>
       </c>
@@ -16149,6 +16989,9 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B86" s="2" t="s">
         <v>216</v>
       </c>
@@ -16179,6 +17022,9 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B89" s="2" t="s">
         <v>217</v>
       </c>
@@ -16187,6 +17033,9 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B90" s="2" t="s">
         <v>218</v>
       </c>
@@ -16206,6 +17055,9 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B92" s="2" t="s">
         <v>217</v>
       </c>
@@ -16214,6 +17066,9 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B93" s="2" t="s">
         <v>218</v>
       </c>
@@ -16233,6 +17088,9 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B95" s="2" t="s">
         <v>218</v>
       </c>
@@ -16252,6 +17110,9 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B97" s="2" t="s">
         <v>217</v>
       </c>
@@ -16271,6 +17132,9 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B99" s="2" t="s">
         <v>217</v>
       </c>
@@ -16290,6 +17154,9 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B101" s="2" t="s">
         <v>217</v>
       </c>
@@ -16309,6 +17176,9 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B103" s="2" t="s">
         <v>217</v>
       </c>
@@ -16328,6 +17198,9 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B105" s="2" t="s">
         <v>217</v>
       </c>
@@ -16336,6 +17209,9 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B106" s="2" t="s">
         <v>218</v>
       </c>
@@ -16355,6 +17231,9 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B108" s="2" t="s">
         <v>217</v>
       </c>
@@ -16374,6 +17253,9 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B110" s="2" t="s">
         <v>216</v>
       </c>
@@ -16393,6 +17275,9 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B112" s="2" t="s">
         <v>217</v>
       </c>
@@ -16412,6 +17297,9 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B114" s="2" t="s">
         <v>217</v>
       </c>
@@ -16431,6 +17319,9 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B116" s="2" t="s">
         <v>217</v>
       </c>
@@ -16450,6 +17341,9 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B118" s="2" t="s">
         <v>217</v>
       </c>
@@ -16480,6 +17374,9 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B121" s="2" t="s">
         <v>216</v>
       </c>
@@ -16499,6 +17396,9 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B123" s="2" t="s">
         <v>217</v>
       </c>
@@ -16518,6 +17418,9 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B125" s="2" t="s">
         <v>216</v>
       </c>
@@ -16537,6 +17440,9 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B127" s="2" t="s">
         <v>216</v>
       </c>
@@ -16556,6 +17462,9 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B129" s="2" t="s">
         <v>218</v>
       </c>
@@ -16575,6 +17484,9 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B131" s="2" t="s">
         <v>217</v>
       </c>
@@ -16594,6 +17506,9 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B133" s="2" t="s">
         <v>218</v>
       </c>
@@ -16613,6 +17528,9 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B135" s="2" t="s">
         <v>219</v>
       </c>
@@ -16632,6 +17550,9 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="B137" s="2" t="s">
         <v>217</v>
       </c>
@@ -16651,6 +17572,9 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B139" s="2" t="s">
         <v>217</v>
       </c>
@@ -16659,6 +17583,9 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B140" s="2" t="s">
         <v>218</v>
       </c>
@@ -16678,6 +17605,9 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B142" s="2" t="s">
         <v>216</v>
       </c>
@@ -16697,6 +17627,9 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B144" s="2" t="s">
         <v>218</v>
       </c>
@@ -16760,6 +17693,9 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="B150" s="2" t="s">
         <v>216</v>
       </c>
@@ -16779,6 +17715,9 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B152" s="2" t="s">
         <v>218</v>
       </c>
@@ -16798,6 +17737,9 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B154" s="2" t="s">
         <v>217</v>
       </c>
@@ -16817,6 +17759,9 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="B156" s="2" t="s">
         <v>217</v>
       </c>
@@ -16891,6 +17836,9 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="B163" s="2" t="s">
         <v>219</v>
       </c>
@@ -16910,6 +17858,9 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="B165" s="2" t="s">
         <v>217</v>
       </c>
@@ -16918,6 +17869,9 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="B166" s="2" t="s">
         <v>218</v>
       </c>
@@ -16937,6 +17891,9 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B168" s="2" t="s">
         <v>217</v>
       </c>
@@ -16956,6 +17913,9 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B170" s="2" t="s">
         <v>217</v>
       </c>
@@ -16997,6 +17957,9 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="B174" s="2" t="s">
         <v>216</v>
       </c>
@@ -17016,6 +17979,9 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="B176" s="2" t="s">
         <v>216</v>
       </c>
@@ -17035,6 +18001,9 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="B178" s="2" t="s">
         <v>216</v>
       </c>
@@ -17054,6 +18023,9 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B180" s="2" t="s">
         <v>216</v>
       </c>
@@ -17073,6 +18045,9 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="B182" s="2" t="s">
         <v>216</v>
       </c>
@@ -17114,6 +18089,9 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="B186" s="2" t="s">
         <v>218</v>
       </c>
@@ -17144,6 +18122,9 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="B189" s="2" t="s">
         <v>218</v>
       </c>
@@ -17163,6 +18144,9 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="B191" s="2" t="s">
         <v>217</v>
       </c>
@@ -17182,6 +18166,9 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B193" s="2" t="s">
         <v>217</v>
       </c>
@@ -17201,6 +18188,9 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B195" s="2" t="s">
         <v>217</v>
       </c>
@@ -17220,6 +18210,9 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="B197" s="2" t="s">
         <v>217</v>
       </c>
@@ -17239,6 +18232,9 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B199" s="2" t="s">
         <v>217</v>
       </c>
@@ -17258,6 +18254,9 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B201" s="2" t="s">
         <v>217</v>
       </c>
@@ -17277,6 +18276,9 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B203" s="2" t="s">
         <v>217</v>
       </c>
@@ -17296,6 +18298,9 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="B205" s="2" t="s">
         <v>216</v>
       </c>
@@ -17315,6 +18320,9 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="B207" s="2" t="s">
         <v>216</v>
       </c>
@@ -17334,6 +18342,9 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="B209" s="2" t="s">
         <v>216</v>
       </c>
@@ -17353,6 +18364,9 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="B211" s="2" t="s">
         <v>216</v>
       </c>
@@ -17372,6 +18386,9 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="B213" s="2" t="s">
         <v>216</v>
       </c>
@@ -17391,6 +18408,9 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="B215" s="2" t="s">
         <v>217</v>
       </c>
@@ -17410,6 +18430,9 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B217" s="2" t="s">
         <v>217</v>
       </c>
@@ -17429,6 +18452,9 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="B219" s="2" t="s">
         <v>217</v>
       </c>
@@ -17448,6 +18474,9 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="B221" s="2" t="s">
         <v>217</v>
       </c>
@@ -17478,6 +18507,9 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="B224" s="2" t="s">
         <v>217</v>
       </c>
@@ -17497,6 +18529,9 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="B226" s="2" t="s">
         <v>217</v>
       </c>
@@ -17516,6 +18551,9 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="B228" s="2" t="s">
         <v>216</v>
       </c>
@@ -17557,6 +18595,9 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="B232" s="2" t="s">
         <v>216</v>
       </c>
@@ -17587,6 +18628,9 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="B235" s="2" t="s">
         <v>217</v>
       </c>
@@ -17606,6 +18650,9 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="B237" s="2" t="s">
         <v>217</v>
       </c>
@@ -17614,6 +18661,9 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="B238" s="2" t="s">
         <v>218</v>
       </c>
@@ -17633,6 +18683,9 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="B240" s="2" t="s">
         <v>217</v>
       </c>
@@ -17652,6 +18705,9 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="B242" s="2" t="s">
         <v>217</v>
       </c>
@@ -17671,6 +18727,9 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="B244" s="2" t="s">
         <v>218</v>
       </c>
@@ -17690,6 +18749,9 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="B246" s="2" t="s">
         <v>216</v>
       </c>
@@ -17709,6 +18771,9 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B248" s="2" t="s">
         <v>216</v>
       </c>
@@ -17728,6 +18793,9 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="B250" s="2" t="s">
         <v>217</v>
       </c>
@@ -17736,6 +18804,9 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="B251" s="2" t="s">
         <v>218</v>
       </c>
@@ -17755,6 +18826,9 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="B253" s="2" t="s">
         <v>216</v>
       </c>
@@ -17774,6 +18848,9 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="B255" s="2" t="s">
         <v>217</v>
       </c>
@@ -17793,6 +18870,9 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="B257" s="2" t="s">
         <v>216</v>
       </c>
@@ -17812,6 +18892,9 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="B259" s="2" t="s">
         <v>216</v>
       </c>
@@ -17831,6 +18914,9 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="B261" s="2" t="s">
         <v>217</v>
       </c>
@@ -17850,6 +18936,9 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="B263" s="2" t="s">
         <v>217</v>
       </c>
@@ -17902,6 +18991,9 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="B268" s="2" t="s">
         <v>217</v>
       </c>
@@ -17921,6 +19013,9 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="B270" s="2" t="s">
         <v>217</v>
       </c>
@@ -17940,6 +19035,9 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="B272" s="2" t="s">
         <v>217</v>
       </c>
@@ -17959,6 +19057,9 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="B274" s="2" t="s">
         <v>217</v>
       </c>
@@ -17978,6 +19079,9 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B276" s="2" t="s">
         <v>218</v>
       </c>
@@ -17997,6 +19101,9 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="B278" s="2" t="s">
         <v>217</v>
       </c>
@@ -18005,6 +19112,9 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="B279" s="2" t="s">
         <v>218</v>
       </c>
@@ -18024,6 +19134,9 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="B281" s="2" t="s">
         <v>217</v>
       </c>
@@ -18043,6 +19156,9 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="B283" s="2" t="s">
         <v>216</v>
       </c>
@@ -18062,6 +19178,9 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B285" s="2" t="s">
         <v>218</v>
       </c>
@@ -18081,6 +19200,9 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="B287" s="2" t="s">
         <v>217</v>
       </c>
@@ -18100,6 +19222,9 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="B289" s="2" t="s">
         <v>217</v>
       </c>
@@ -18119,6 +19244,9 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="B291" s="2" t="s">
         <v>217</v>
       </c>
@@ -18138,6 +19266,9 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="B293" s="2" t="s">
         <v>216</v>
       </c>
@@ -18157,6 +19288,9 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="B295" s="2" t="s">
         <v>217</v>
       </c>
@@ -18165,6 +19299,9 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="B296" s="2" t="s">
         <v>218</v>
       </c>
@@ -18184,6 +19321,9 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="B298" s="2" t="s">
         <v>217</v>
       </c>
@@ -18192,6 +19332,9 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="B299" s="2" t="s">
         <v>218</v>
       </c>
@@ -18211,6 +19354,9 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="B301" s="2" t="s">
         <v>217</v>
       </c>
@@ -18230,6 +19376,9 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="B303" s="2" t="s">
         <v>218</v>
       </c>
@@ -18249,6 +19398,9 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="B305" s="2" t="s">
         <v>218</v>
       </c>
@@ -18268,6 +19420,9 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="B307" s="2" t="s">
         <v>217</v>
       </c>
@@ -18276,6 +19431,9 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="B308" s="2" t="s">
         <v>218</v>
       </c>
@@ -18295,6 +19453,9 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="B310" s="2" t="s">
         <v>218</v>
       </c>
@@ -18314,6 +19475,9 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="B312" s="2" t="s">
         <v>218</v>
       </c>
@@ -18333,6 +19497,9 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="B314" s="2" t="s">
         <v>217</v>
       </c>
@@ -18352,6 +19519,9 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="B316" s="2" t="s">
         <v>217</v>
       </c>
@@ -18371,6 +19541,9 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="B318" s="2" t="s">
         <v>218</v>
       </c>
@@ -18390,6 +19563,9 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="B320" s="2" t="s">
         <v>218</v>
       </c>
@@ -18409,6 +19585,9 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="B322" s="2" t="s">
         <v>217</v>
       </c>
@@ -18428,6 +19607,9 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="B324" s="2" t="s">
         <v>217</v>
       </c>
@@ -18458,6 +19640,9 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="B327" s="2" t="s">
         <v>216</v>
       </c>
@@ -18477,6 +19662,9 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="B329" s="2" t="s">
         <v>217</v>
       </c>
@@ -18496,6 +19684,9 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="B331" s="2" t="s">
         <v>217</v>
       </c>
@@ -18515,6 +19706,9 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="B333" s="2" t="s">
         <v>217</v>
       </c>
@@ -18534,6 +19728,9 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="B335" s="2" t="s">
         <v>218</v>
       </c>
@@ -18553,6 +19750,9 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="B337" s="2" t="s">
         <v>217</v>
       </c>
@@ -18572,6 +19772,9 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="B339" s="2" t="s">
         <v>218</v>
       </c>
@@ -18591,6 +19794,9 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="B341" s="2" t="s">
         <v>218</v>
       </c>
@@ -18610,6 +19816,9 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="B343" s="2" t="s">
         <v>217</v>
       </c>
@@ -18629,6 +19838,9 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="B345" s="2" t="s">
         <v>217</v>
       </c>
@@ -18648,6 +19860,9 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="B347" s="2" t="s">
         <v>217</v>
       </c>
@@ -18667,6 +19882,9 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B349" s="2" t="s">
         <v>219</v>
       </c>
@@ -18675,6 +19893,9 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B350" s="2" t="s">
         <v>216</v>
       </c>
@@ -18694,6 +19915,9 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="B352" s="2" t="s">
         <v>219</v>
       </c>
@@ -18702,6 +19926,9 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="B353" s="2" t="s">
         <v>216</v>
       </c>
@@ -18721,6 +19948,9 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="B355" s="2" t="s">
         <v>219</v>
       </c>
@@ -18740,6 +19970,9 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B357" s="2" t="s">
         <v>218</v>
       </c>
@@ -18781,6 +20014,9 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="B361" s="2" t="s">
         <v>217</v>
       </c>

--- a/scripts/data/Job Ship Dates.xlsx
+++ b/scripts/data/Job Ship Dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMiller1\git\prodctrlcore\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B231AC8-C03D-4D4D-98F0-A10DC7189AAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE24B4F2-0F63-4142-BE3C-6D509F772235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="Products" sheetId="3" r:id="rId3"/>
     <sheet name="Bays" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="BAYS_HEADER">Bays!$A$1:$C$1</definedName>
+    <definedName name="DATES_HEADER">Dates!$A$1:$C$1</definedName>
+    <definedName name="PM_HEADER">PM!$A$1:$B$1</definedName>
+    <definedName name="PRODUCTS_HEADER">Products!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="6" r:id="rId5"/>
@@ -775,26 +781,35 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.633046643517" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43984.290078356484" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
+  <cacheFields count="2">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
-      <sharedItems count="199">
+      <sharedItems count="200">
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" c="D-1160230F-06"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-02]" c="D-1160245A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-13]" c="D-1160245A-13"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-01]" c="D-1160253A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" c="D-1160253A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-04]" c="D-1160253C-04"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-05]" c="D-1160253C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" c="D-1160253C-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" c="D-1160253C-07"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-01]" c="D-1170032A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-02]" c="D-1170032A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032B-03]" c="D-1170032B-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082A-03]" c="D-1170082A-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082D-08]" c="D-1170082D-08"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-02]" c="D-1170143C-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" c="D-1170143C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" c="D-1170143C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" c="D-1170155A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155D-04]" c="D-1170155D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" c="D-1170155G-13"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217A-01]" c="D-1170217A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217C-03]" c="D-1170217C-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217F-07]" c="D-1170217F-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" c="D-1170217G-08"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272A-01]" c="D-1170272A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272B-02]" c="D-1170272B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272C-03]" c="D-1170272C-03"/>
@@ -815,11 +830,13 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180081A-02]" c="D-1180081A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-03]" c="D-1180091C-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-04]" c="D-1180091C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" c="D-1180095C-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-04]" c="D-1180095D-04"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-05]" c="D-1180095D-05"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095E-06]" c="D-1180095E-06"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095G-08]" c="D-1180095G-08"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095H-09]" c="D-1180095H-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" c="D-1180095J-10"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095L-12]" c="D-1180095L-12"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180116B-01]" c="D-1180116B-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180136A-01]" c="D-1180136A-01"/>
@@ -841,12 +858,19 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201F-09]" c="D-1180201F-09"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201G-10]" c="D-1180201G-10"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201H-11]" c="D-1180201H-11"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" c="D-1180238A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" c="D-1180238B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" c="D-1180238C-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-04]" c="D-1180238D-04"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-05]" c="D-1180238D-05"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-06]" c="D-1180238E-06"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-07]" c="D-1180238E-07"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238F-08]" c="D-1180238F-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" c="D-1180238G-09"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180246A-01]" c="D-1180246A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" c="D-1180261A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" c="D-1180261A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" c="D-1180262A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180274A-02]" c="D-1180274A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285A-01]" c="D-1180285A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285C-03]" c="D-1180285C-03"/>
@@ -861,6 +885,7 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028A-01]" c="D-1190028A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028B-02]" c="D-1190028B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190036A-01]" c="D-1190036A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" c="D-1190037A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190038A-01]" c="D-1190038A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190060A-01]" c="D-1190060A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190066A-01]" c="D-1190066A-01"/>
@@ -889,9 +914,11 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190138A-01]" c="D-1190138A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144A-01]" c="D-1190144A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144B-02]" c="D-1190144B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" c="D-1190145A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190148A-01]" c="D-1190148A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190165A-01]" c="D-1190165A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190179A-01]" c="D-1190179A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" c="D-1190187A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190193A-01]" c="D-1190193A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190196A-01]" c="D-1190196A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190203A-01]" c="D-1190203A-01"/>
@@ -927,6 +954,680 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272A-01]" c="D-1190272A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272B-02]" c="D-1190272B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274A-01]" c="D-1190274A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" c="D-1190274B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278A-01]" c="D-1190278A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278B-02]" c="D-1190278B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-03]" c="D-1190278C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-04]" c="D-1190278C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-05]" c="D-1190278C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-06]" c="D-1190278D-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-07]" c="D-1190278D-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-08]" c="D-1190278E-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-09]" c="D-1190278E-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278F-10]" c="D-1190278F-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278G-11]" c="D-1190278G-11"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190279A-01]" c="D-1190279A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190283A-01]" c="D-1190283A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190289A-01]" c="D-1190289A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190295A-01]" c="D-1190295A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190300A-01]" c="D-1190300A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190305A-01]" c="D-1190305A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190306A-01]" c="D-1190306A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310A-01]" c="D-1190310A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310B-02]" c="D-1190310B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190320A-01]" c="D-1190320A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190321A-01]" c="D-1190321A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200014A-01]" c="D-1200014A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-01]" c="D-1200017A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-02]" c="D-1200017A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200021A-01]" c="D-1200021A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200022A-01]" c="D-1200022A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200023A-01]" c="D-1200023A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200031A-01]" c="D-1200031A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" c="D-1200034A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200089A-03]" c="D-1200089A-03"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Job Shipments].[PM Initials].[PM Initials]" caption="PM Initials" numFmtId="0" hierarchy="50" level="1">
+      <sharedItems count="7">
+        <s v="[Job Shipments].[PM Initials].&amp;[MK]" c="MK"/>
+        <s v="[Job Shipments].[PM Initials].&amp;[DP]" c="DP"/>
+        <s v="[Job Shipments].[PM Initials].&amp;[JF]" c="JF"/>
+        <s v="[Job Shipments].[PM Initials].&amp;[JW]" c="JW"/>
+        <s v="[Job Shipments].[PM Initials].&amp;[KG]" c="KG"/>
+        <s v="[Job Shipments].[PM Initials].&amp;[MD]" c="MD"/>
+        <s v="[Job Shipments].[PM Initials].&amp;" c=""/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="390">
+    <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Ending]" caption="Month Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Month Ending].[All]" allUniqueName="[Calendar].[Month Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Name]" caption="Month Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Name].[All]" allUniqueName="[Calendar].[Month Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Calendar].[Month Number].[All]" allUniqueName="[Calendar].[Month Number].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Short Name]" caption="Month Short Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Short Name].[All]" allUniqueName="[Calendar].[Month Short Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Starting]" caption="Month Starting" attribute="1" defaultMemberUniqueName="[Calendar].[Month Starting].[All]" allUniqueName="[Calendar].[Month Starting].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Month Year]" caption="Month Year" attribute="1" defaultMemberUniqueName="[Calendar].[Month Year].[All]" allUniqueName="[Calendar].[Month Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Months Out]" caption="Months Out" attribute="1" defaultMemberUniqueName="[Calendar].[Months Out].[All]" allUniqueName="[Calendar].[Months Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Week Beginning]" caption="Week Beginning" attribute="1" defaultMemberUniqueName="[Calendar].[Week Beginning].[All]" allUniqueName="[Calendar].[Week Beginning].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Week Ending]" caption="Week Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Week Ending].[All]" allUniqueName="[Calendar].[Week Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Weeks Out]" caption="Weeks Out" attribute="1" defaultMemberUniqueName="[Calendar].[Weeks Out].[All]" allUniqueName="[Calendar].[Weeks Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Calendar].[Year].[All]" allUniqueName="[Calendar].[Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Year Month]" caption="Year Month" attribute="1" defaultMemberUniqueName="[Calendar].[Year Month].[All]" allUniqueName="[Calendar].[Year Month].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[Year Qtr]" caption="Year Qtr" attribute="1" defaultMemberUniqueName="[Calendar].[Year Qtr].[All]" allUniqueName="[Calendar].[Year Qtr].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Bay]" caption="Bay" attribute="1" defaultMemberUniqueName="[Cost Centers].[Bay].[All]" allUniqueName="[Cost Centers].[Bay].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center]" caption="Cost Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center].[All]" allUniqueName="[Cost Centers].[Cost Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Display]" caption="Cost Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Display].[All]" allUniqueName="[Cost Centers].[Cost Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Name]" caption="Cost Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Name].[All]" allUniqueName="[Cost Centers].[Cost Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Cost Centers].[Facility].[All]" allUniqueName="[Cost Centers].[Facility].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Plant]" caption="Plant" attribute="1" defaultMemberUniqueName="[Cost Centers].[Plant].[All]" allUniqueName="[Cost Centers].[Plant].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Work Center]" caption="Work Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center].[All]" allUniqueName="[Cost Centers].[Work Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Display]" caption="Work Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Display].[All]" allUniqueName="[Cost Centers].[Work Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Name]" caption="Work Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Name].[All]" allUniqueName="[Cost Centers].[Work Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Code]" caption="Function Code" attribute="1" defaultMemberUniqueName="[Functions].[Function Code].[All]" allUniqueName="[Functions].[Function Code].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Description]" caption="Function Description" attribute="1" defaultMemberUniqueName="[Functions].[Function Description].[All]" allUniqueName="[Functions].[Function Description].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Display]" caption="Function Display" attribute="1" defaultMemberUniqueName="[Functions].[Function Display].[All]" allUniqueName="[Functions].[Function Display].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Functions].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Functions].[Function Group].[All]" allUniqueName="[Functions].[Function Group].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" allUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Start Date Mismatch].[All]" allUniqueName="[HD Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Code].[All]" allUniqueName="[HD Schedule].[Task Code].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name].[All]" allUniqueName="[HD Schedule].[Task Name].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name Short].[All]" allUniqueName="[HD Schedule].[Task Name Short].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Start Date].[All]" allUniqueName="[HD Schedule].[Task Start Date].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Coating]" caption="Coating" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating].[All]" allUniqueName="[Job Shipments].[Coating].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Coating Desc]" caption="Coating Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating Desc].[All]" allUniqueName="[Job Shipments].[Coating Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Display Ship Date]" caption="Display Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[Display Ship Date].[All]" allUniqueName="[Job Shipments].[Display Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[First Start Date]" caption="First Start Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[First Start Date].[All]" allUniqueName="[Job Shipments].[First Start Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[HD Ship Date]" caption="HD Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[HD Ship Date].[All]" allUniqueName="[Job Shipments].[HD Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[In HD?]" caption="In HD?" attribute="1" defaultMemberUniqueName="[Job Shipments].[In HD?].[All]" allUniqueName="[Job Shipments].[In HD?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Name]" caption="Job Name" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Name].[All]" allUniqueName="[Job Shipments].[Job Name].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Number]" caption="Job Number" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Number].[All]" allUniqueName="[Job Shipments].[Job Number].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job State]" caption="Job State" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job State].[All]" allUniqueName="[Job Shipments].[Job State].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Status]" caption="Job Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status].[All]" allUniqueName="[Job Shipments].[Job Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Status Full Text]" caption="Job Status Full Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status Full Text].[All]" allUniqueName="[Job Shipments].[Job Status Full Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Job Structure Shipment]" caption="Job Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Structure Shipment].[All]" allUniqueName="[Job Shipments].[Job Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Job Shipments].[Milestone Status Text]" caption="Milestone Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Milestone Status Text].[All]" allUniqueName="[Job Shipments].[Milestone Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Date]" caption="P6 Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Date].[All]" allUniqueName="[Job Shipments].[P6 Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Month Year]" caption="P6 Ship Month Year" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" allUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Year Month]" caption="P6 Ship Year Month" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" allUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[PM Initials]" caption="PM Initials" attribute="1" defaultMemberUniqueName="[Job Shipments].[PM Initials].[All]" allUniqueName="[Job Shipments].[PM Initials].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Job Shipments].[Production Status]" caption="Production Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Production Status].[All]" allUniqueName="[Job Shipments].[Production Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Manager]" caption="Project Manager" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Manager].[All]" allUniqueName="[Job Shipments].[Project Manager].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Milestone Status]" caption="Project Milestone Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Milestone Status].[All]" allUniqueName="[Job Shipments].[Project Milestone Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Notes]" caption="Project Notes" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Notes].[All]" allUniqueName="[Job Shipments].[Project Notes].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Project Ship Date Status]" caption="Project Ship Date Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Ship Date Status].[All]" allUniqueName="[Job Shipments].[Project Ship Date Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Job Label]" caption="Ship Date Job Label" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Job Label].[All]" allUniqueName="[Job Shipments].[Ship Date Job Label].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Status Text]" caption="Ship Date Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Status Text].[All]" allUniqueName="[Job Shipments].[Ship Date Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Ship Dates Match?]" caption="Ship Dates Match?" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Dates Match?].[All]" allUniqueName="[Job Shipments].[Ship Dates Match?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[State Abbr]" caption="State Abbr" attribute="1" defaultMemberUniqueName="[Job Shipments].[State Abbr].[All]" allUniqueName="[Job Shipments].[State Abbr].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Structure Shipment]" caption="Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Structure Shipment].[All]" allUniqueName="[Job Shipments].[Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup]" caption="Yard Setup" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup].[All]" allUniqueName="[Job Shipments].[Yard Setup].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup Desc]" caption="Yard Setup Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup Desc].[All]" allUniqueName="[Job Shipments].[Yard Setup Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD?].[All]" allUniqueName="[Late End Schedule].[HD?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP?].[All]" allUniqueName="[Late End Schedule].[SAP?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Code].[All]" allUniqueName="[Late End Schedule].[Task Code].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name].[All]" allUniqueName="[Late End Schedule].[Task Name].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name Short].[All]" allUniqueName="[Late End Schedule].[Task Name Short].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY].[All]" allUniqueName="[Late End Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Fab Start Date?]" caption="Fab Start Date?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" allUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone]" caption="Milestone" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone].[All]" allUniqueName="[Milestone Schedule].[Milestone].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Complete?]" caption="Milestone Complete?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" allUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Group]" caption="Milestone Group" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Group].[All]" allUniqueName="[Milestone Schedule].[Milestone Group].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Overdue?]" caption="Milestone Overdue?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" allUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Status]" caption="Milestone Status" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Status].[All]" allUniqueName="[Milestone Schedule].[Milestone Status].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[Original Date]" caption="Original Date" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Original Date].[All]" allUniqueName="[Milestone Schedule].[Original Date].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group]" caption="Product Group" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group].[All]" allUniqueName="[Product Groups].[Product Group].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Description]" caption="Product Description" attribute="1" defaultMemberUniqueName="[Products].[Product Description].[All]" allUniqueName="[Products].[Product Description].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Display]" caption="Product Display" attribute="1" defaultMemberUniqueName="[Products].[Product Display].[All]" allUniqueName="[Products].[Product Display].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Finish Date Mismatch].[All]" allUniqueName="[Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Schedule].[HD?].[All]" allUniqueName="[Schedule].[HD?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Schedule].[SAP?].[All]" allUniqueName="[Schedule].[SAP?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Start Date Mismatch].[All]" allUniqueName="[Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Schedule].[Task Code].[All]" allUniqueName="[Schedule].[Task Code].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name].[All]" allUniqueName="[Schedule].[Task Name].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name Short].[All]" allUniqueName="[Schedule].[Task Name Short].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[Schedule].[Task Start Date].[All]" allUniqueName="[Schedule].[Task Start Date].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cost Center Distinct].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" allUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center Distinct]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[CO_VERSION_ID]" caption="CO_VERSION_ID" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" allUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[COST_CENTER].[All]" allUniqueName="[Cost Center MPS].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[DIRECT_MPS]" caption="DIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[EARNED_MPS]" caption="EARNED_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" allUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[INDIRECT_MPS]" caption="INDIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[OT_MPS]" caption="OT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[OT_MPS].[All]" allUniqueName="[Cost Center MPS].[OT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Center MPS].[WORKDAY_DATE]" caption="WORKDAY_DATE" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" allUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cost Centers].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" allUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Functions].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[HD Schedule].[Function Group].[All]" allUniqueName="[HD Schedule].[Function Group].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_CD].[All]" allUniqueName="[HD Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_FLAG]" caption="HD_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FLAG].[All]" allUniqueName="[HD Schedule].[HD_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROD_GRP].[All]" allUniqueName="[HD Schedule].[PROD_GRP].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" allUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" allUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FLAG]" caption="SAP_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FLAG].[All]" allUniqueName="[HD Schedule].[SAP_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY].[All]" allUniqueName="[HD Schedule].[SAP_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_START_DATE].[All]" allUniqueName="[HD Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY].[All]" allUniqueName="[HD Schedule].[WORK_DAY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[LAST_UPDATED]" caption="LAST_UPDATED" attribute="1" defaultMemberUniqueName="[Job Shipments].[LAST_UPDATED].[All]" allUniqueName="[Job Shipments].[LAST_UPDATED].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Job Shipments].[PROJ_ID].[All]" allUniqueName="[Job Shipments].[PROJ_ID].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Job Shipments].[SHIP_DATES_DIFF]" caption="SHIP_DATES_DIFF" attribute="1" defaultMemberUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" allUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[BAY].[All]" allUniqueName="[Late End Schedule].[BAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER].[All]" allUniqueName="[Late End Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH]" caption="FINISH_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" allUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP]" caption="FUNCTION_GROUP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" allUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_START_DATE].[All]" allUniqueName="[Late End Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HEIGHT].[All]" allUniqueName="[Late End Schedule].[HEIGHT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[LENGTH].[All]" allUniqueName="[Late End Schedule].[LENGTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT].[All]" allUniqueName="[Late End Schedule].[PLANT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT_ID].[All]" allUniqueName="[Late End Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP].[All]" allUniqueName="[Late End Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_ID].[All]" allUniqueName="[Late End Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY].[All]" allUniqueName="[Late End Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[START_DATE_MISMATCH]" caption="START_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN1].[All]" allUniqueName="[Milestone Measures].[COLUMN1].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN2].[All]" allUniqueName="[Milestone Measures].[COLUMN2].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN3].[All]" allUniqueName="[Milestone Measures].[COLUMN3].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[ACTUAL_DATE]" caption="ACTUAL_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" allUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[DAYS_OUT]" caption="DAYS_OUT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" allUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[DUE_DATE]" caption="DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MATL_MISSING]" caption="MATL_MISSING" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" allUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT]" caption="MILESTONE_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_SORT]" caption="MILESTONE_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE]" caption="MILESTONE_STATUS_VALUE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[ORDER_QTY]" caption="ORDER_QTY" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" allUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME]" caption="P6_PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" allUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[PLOT_DUE_DATE]" caption="PLOT_DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[QTY_RECVD]" caption="QTY_RECVD" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" allUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Milestone Schedule].[REFERENCE_DATE]" caption="REFERENCE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" allUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN1].[All]" allUniqueName="[Public Schedule Measures].[COLUMN1].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN2].[All]" allUniqueName="[Public Schedule Measures].[COLUMN2].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN3].[All]" allUniqueName="[Public Schedule Measures].[COLUMN3].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Schedule].[BAY].[All]" allUniqueName="[Schedule].[BAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER].[All]" allUniqueName="[Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Schedule].[Function Group].[All]" allUniqueName="[Schedule].[Function Group].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_CD].[All]" allUniqueName="[Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_RESOURCE].[All]" allUniqueName="[Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_START_DATE].[All]" allUniqueName="[Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Schedule].[HEIGHT].[All]" allUniqueName="[Schedule].[HEIGHT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Schedule].[LENGTH].[All]" allUniqueName="[Schedule].[LENGTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_END_DATE].[All]" allUniqueName="[Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_START_DATE].[All]" allUniqueName="[Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT].[All]" allUniqueName="[Schedule].[PLANT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT_ID].[All]" allUniqueName="[Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP].[All]" allUniqueName="[Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD].[All]" allUniqueName="[Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_ID].[All]" allUniqueName="[Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY].[All]" allUniqueName="[Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_START_DATE].[All]" allUniqueName="[Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER].[All]" allUniqueName="[Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY].[All]" allUniqueName="[Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN1].[All]" allUniqueName="[Scheduling Measures].[COLUMN1].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN2].[All]" allUniqueName="[Scheduling Measures].[COLUMN2].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN3].[All]" allUniqueName="[Scheduling Measures].[COLUMN3].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Days Out]" caption="Milestone Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Matl Order Qty]" caption="Matl Order Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Matl Recvd Qty]" caption="Matl Recvd Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Matl Missing Qty]" caption="Matl Missing Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Due Date]" caption="Milestone Due Date" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Status Value]" caption="Milestone Status Value" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Days Overdue]" caption="Milestone Days Overdue" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Count]" caption="Milestone Count" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Completed Milestones]" caption="Completed Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Incomplete Milestones]" caption="Incomplete Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Group Status]" caption="Milestone Group Status" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 2 3]" caption="Milestone Column Value 2 3" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 1 4]" caption="Milestone Column Value 1 4" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Remaining Hours]" caption="P6 Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Scheduled Remaining Hours]" caption="P6 Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Remaining Hours]" caption="HD Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Scheduled Remaining Hours]" caption="HD Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty]" caption="HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Start Date]" caption="HD Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD End Date]" caption="HD End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Start Date]" caption="SAP Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP End Date]" caption="SAP End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty]" caption="SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty Complete]" caption="SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty Remaining]" caption="SAP Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Qty % Complete]" caption="SAP Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Plan Hours]" caption="SAP Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Actual Hours]" caption="SAP Actual Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Earned Hours]" caption="SAP Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Remaining Hours]" caption="SAP Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SAP Scheduled Remaining Hours]" caption="SAP Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Target Hours]" caption="P6 Target Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Remaining Hours Adjusted]" caption="Remaining Hours Adjusted" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Earned Hours]" caption="HD Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Plan Hours]" caption="HD Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty Complete]" caption="HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty Remaining]" caption="HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[HD Qty % Complete]" caption="HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Data Last Updated]" caption="Data Last Updated" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Ship Date Status Indicator]" caption="Ship Date Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Ship Date]" caption="Ship Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Earned MPS (004)]" caption="Earned MPS (004)" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Remaining Hours]" caption="Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Remaining Hours]" caption="Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Start Date]" caption="Active Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Start Date]" caption="Planned Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Job Status Indicator]" caption="Job Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[What-If Job Remaining Hours]" caption="What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Inactive Job Remaining Hours]" caption="Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Girder Start Date]" caption="P6 Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Early Start Date]" caption="P6 Early Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Early End Date]" caption="P6 Early End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fab Start Date]" caption="Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fab End Date]" caption="Fab End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Yard Start Date]" caption="Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Yard End Date]" caption="Yard End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Coatings Start Date]" caption="Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Coatings End Date]" caption="Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 Late Remaining Hours]" caption="P6 Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active Job Late Remaining Hours]" caption="Active Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Planned Job Late Remaining Hours]" caption="Planned Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[What-If Job Late Remaining Hours]" caption="What-If Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Inactive Job Late Remaining Hours]" caption="Inactive Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Remaining Hours]" caption="Public Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Active Job Remaining Hours]" caption="Public Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Start Date]" caption="Public Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public End Date]" caption="Public End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty]" caption="Public HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Complete]" caption="Public HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Remaining]" caption="Public HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public HD Qty % Complete]" caption="Public HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public What-If Job Remaining Hours]" caption="Public What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Inactive Job Remaining Hours]" caption="Public Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Fab Start Date]" caption="Public Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Fab End Date]" caption="Public Fab End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Yard Start Date]" caption="Public Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Yard End Date]" caption="Public Yard End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Coatings Start Date]" caption="Public Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Coatings End Date]" caption="Public Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Average Days Out]" caption="Average Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[P6 End Date]" caption="P6 End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty]" caption="Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty]" caption="Avg SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty Complete]" caption="Avg SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty Complete]" caption="Avg HD Qty Complete" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link]" caption="Bay Schedule 2 and 3 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link]" caption="Bay Schedule 1 and 4 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link MS]" caption="Bay Schedule 2 and 3 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link MS]" caption="Bay Schedule 1 and 4 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link]" caption="Early Start Date Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link MS]" caption="Early Start Date Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty]" caption="Public Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty Complete]" caption="Public Avg HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="11">
+    <dimension name="Calendar" uniqueName="[Calendar]" caption="Calendar"/>
+    <dimension name="Cost Centers" uniqueName="[Cost Centers]" caption="Cost Centers"/>
+    <dimension name="Functions" uniqueName="[Functions]" caption="Functions"/>
+    <dimension name="HD Schedule" uniqueName="[HD Schedule]" caption="HD Schedule"/>
+    <dimension name="Job Shipments" uniqueName="[Job Shipments]" caption="Job Shipments"/>
+    <dimension name="Late End Schedule" uniqueName="[Late End Schedule]" caption="Late End Schedule"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Milestone Schedule" uniqueName="[Milestone Schedule]" caption="Milestone Schedule"/>
+    <dimension name="Product Groups" uniqueName="[Product Groups]" caption="Product Groups"/>
+    <dimension name="Products" uniqueName="[Products]" caption="Products"/>
+    <dimension name="Schedule" uniqueName="[Schedule]" caption="Schedule"/>
+  </dimensions>
+  <measureGroups count="15">
+    <measureGroup name="Calendar" caption="Calendar"/>
+    <measureGroup name="Cost Center Distinct" caption="Cost Center Distinct"/>
+    <measureGroup name="Cost Center MPS" caption="Cost Center MPS"/>
+    <measureGroup name="Cost Centers" caption="Cost Centers"/>
+    <measureGroup name="Functions" caption="Functions"/>
+    <measureGroup name="HD Schedule" caption="HD Schedule"/>
+    <measureGroup name="Job Shipments" caption="Job Shipments"/>
+    <measureGroup name="Late End Schedule" caption="Late End Schedule"/>
+    <measureGroup name="Milestone Measures" caption="Milestone Measures"/>
+    <measureGroup name="Milestone Schedule" caption="Milestone Schedule"/>
+    <measureGroup name="Product Groups" caption="Product Groups"/>
+    <measureGroup name="Products" caption="Products"/>
+    <measureGroup name="Public Schedule Measures" caption="Public Schedule Measures"/>
+    <measureGroup name="Schedule" caption="Schedule"/>
+    <measureGroup name="Scheduling Measures" caption="Scheduling Measures"/>
+  </measureGroups>
+  <maps count="10">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="6" dimension="4"/>
+    <map measureGroup="7" dimension="5"/>
+    <map measureGroup="9" dimension="7"/>
+    <map measureGroup="10" dimension="8"/>
+    <map measureGroup="11" dimension="9"/>
+    <map measureGroup="13" dimension="10"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43984.290081250001" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
+      <sharedItems count="199">
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" c="D-1160230F-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-02]" c="D-1160245A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-13]" c="D-1160245A-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-01]" c="D-1160253A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" c="D-1160253A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-04]" c="D-1160253C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-05]" c="D-1160253C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" c="D-1160253C-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" c="D-1160253C-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-01]" c="D-1170032A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-02]" c="D-1170032A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032B-03]" c="D-1170032B-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082A-03]" c="D-1170082A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082D-08]" c="D-1170082D-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-02]" c="D-1170143C-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" c="D-1170143C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" c="D-1170143C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" c="D-1170155A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155D-04]" c="D-1170155D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" c="D-1170155G-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217A-01]" c="D-1170217A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217C-03]" c="D-1170217C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217F-07]" c="D-1170217F-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" c="D-1170217G-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272A-01]" c="D-1170272A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272B-02]" c="D-1170272B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272C-03]" c="D-1170272C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272E-05]" c="D-1170272E-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272F-06]" c="D-1170272F-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272G-07]" c="D-1170272G-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170281B-01]" c="D-1170281B-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180020A-01]" c="D-1180020A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180023A-02]" c="D-1180023A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-01]" c="D-1180045A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-02]" c="D-1180045A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-03]" c="D-1180045A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-04]" c="D-1180045B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-05]" c="D-1180045B-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-06]" c="D-1180045B-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-01]" c="D-1180059A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-02]" c="D-1180059A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180081A-02]" c="D-1180081A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-03]" c="D-1180091C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-04]" c="D-1180091C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" c="D-1180095C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-04]" c="D-1180095D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-05]" c="D-1180095D-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095E-06]" c="D-1180095E-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095G-08]" c="D-1180095G-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095H-09]" c="D-1180095H-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" c="D-1180095J-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095L-12]" c="D-1180095L-12"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180116B-01]" c="D-1180116B-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180136A-01]" c="D-1180136A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-02]" c="D-1180155A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-03]" c="D-1180155A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-01]" c="D-1180164A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-02]" c="D-1180164A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180174A-02]" c="D-1180174A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-01]" c="D-1180201A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-02]" c="D-1180201A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-03]" c="D-1180201B-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-12]" c="D-1180201B-12"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-04]" c="D-1180201C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-05]" c="D-1180201C-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-13]" c="D-1180201C-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-06]" c="D-1180201D-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-07]" c="D-1180201D-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201E-08]" c="D-1180201E-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201F-09]" c="D-1180201F-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201G-10]" c="D-1180201G-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201H-11]" c="D-1180201H-11"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" c="D-1180238A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" c="D-1180238B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" c="D-1180238C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-04]" c="D-1180238D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-05]" c="D-1180238D-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-06]" c="D-1180238E-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-07]" c="D-1180238E-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238F-08]" c="D-1180238F-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" c="D-1180238G-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180246A-01]" c="D-1180246A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" c="D-1180261A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" c="D-1180261A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" c="D-1180262A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180274A-02]" c="D-1180274A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285A-01]" c="D-1180285A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285C-03]" c="D-1180285C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285D-04]" c="D-1180285D-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180302A-01]" c="D-1180302A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-01]" c="D-1180308A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-02]" c="D-1180308A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-03]" c="D-1180308A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180310A-01]" c="D-1180310A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190010A-01]" c="D-1190010A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190016A-01]" c="D-1190016A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028A-01]" c="D-1190028A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028B-02]" c="D-1190028B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190036A-01]" c="D-1190036A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" c="D-1190037A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190038A-01]" c="D-1190038A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190060A-01]" c="D-1190060A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190066A-01]" c="D-1190066A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190078A-01]" c="D-1190078A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190090A-01]" c="D-1190090A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092A-02]" c="D-1190092A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092B-04]" c="D-1190092B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190096A-01]" c="D-1190096A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190102A-01]" c="D-1190102A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-03]" c="D-1190103A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-04]" c="D-1190103A-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-01]" c="D-1190105A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-02]" c="D-1190105A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-01]" c="D-1190118A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-02]" c="D-1190118A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-03]" c="D-1190118B-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-04]" c="D-1190118B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190124A-01]" c="D-1190124A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128A-01]" c="D-1190128A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128B-02]" c="D-1190128B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130A-01]" c="D-1190130A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130B-02]" c="D-1190130B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190135A-01]" c="D-1190135A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-01]" c="D-1190136A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-02]" c="D-1190136A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190138A-01]" c="D-1190138A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144A-01]" c="D-1190144A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144B-02]" c="D-1190144B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" c="D-1190145A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190148A-01]" c="D-1190148A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190165A-01]" c="D-1190165A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190179A-01]" c="D-1190179A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" c="D-1190187A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190193A-01]" c="D-1190193A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190196A-01]" c="D-1190196A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190203A-01]" c="D-1190203A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190210A-01]" c="D-1190210A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190214A-01]" c="D-1190214A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190217A-01]" c="D-1190217A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190227A-01]" c="D-1190227A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190230A-01]" c="D-1190230A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232A-01]" c="D-1190232A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232B-02]" c="D-1190232B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232C-03]" c="D-1190232C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190239A-01]" c="D-1190239A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243A-01]" c="D-1190243A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243B-02]" c="D-1190243B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249A-01]" c="D-1190249A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249B-02]" c="D-1190249B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-01]" c="D-1190250A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-02]" c="D-1190250A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-03]" c="D-1190250A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-04]" c="D-1190250B-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-05]" c="D-1190250B-05"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-06]" c="D-1190250B-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250C-07]" c="D-1190250C-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250D-08]" c="D-1190250D-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250E-09]" c="D-1190250E-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190251B-02]" c="D-1190251B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190254A-01]" c="D-1190254A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190258A-01]" c="D-1190258A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-01]" c="D-1190259A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-02]" c="D-1190259A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-03]" c="D-1190259A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190266A-01]" c="D-1190266A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272A-01]" c="D-1190272A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272B-02]" c="D-1190272B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274A-01]" c="D-1190274A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" c="D-1190274B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278A-01]" c="D-1190278A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278B-02]" c="D-1190278B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-03]" c="D-1190278C-03"/>
@@ -955,42 +1656,29 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200021A-01]" c="D-1200021A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200023A-01]" c="D-1200023A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200031A-01]" c="D-1200031A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" c="D-1200034A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200089A-03]" c="D-1200089A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" u="1" c="D-1160230F-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" u="1" c="D-1160253A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" u="1" c="D-1160253C-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" u="1" c="D-1160253C-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" u="1" c="D-1170143C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" u="1" c="D-1170143C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" u="1" c="D-1170155A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" u="1" c="D-1170155G-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" u="1" c="D-1170217G-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" u="1" c="D-1180095C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" u="1" c="D-1180095J-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" u="1" c="D-1180238A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" u="1" c="D-1180238B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" u="1" c="D-1180238C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" u="1" c="D-1180238G-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" u="1" c="D-1180261A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" u="1" c="D-1180261A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" u="1" c="D-1180262A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" u="1" c="D-1190037A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" u="1" c="D-1190145A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" u="1" c="D-1190187A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" u="1" c="D-1190274B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" u="1" c="D-1200034A-01"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Products].[Product Code].[Product Code]" caption="Product Code" numFmtId="0" hierarchy="79" level="1">
-      <sharedItems count="5">
-        <s v="[Products].[Product Code].&amp;[G]" c="G"/>
-        <s v="[Products].[Product Code].&amp;[BG]" c="BG"/>
-        <s v="[Products].[Product Code].&amp;[S]" c="S"/>
-        <s v="[Products].[Product Code].&amp;[TG]" c="TG"/>
-        <s v="[Products].[Product Code].&amp;[PD]" c="PD"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Measures].[Public Start Date]" caption="Public Start Date" numFmtId="0" hierarchy="360" level="32767"/>
+    <cacheField name="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" numFmtId="0" hierarchy="366" level="32767"/>
+    <cacheField name="[Product Groups].[Product Group Desc].[Product Group Desc]" caption="Product Group Desc" numFmtId="0" hierarchy="77" level="1">
+      <sharedItems count="13">
+        <s v="[Product Groups].[Product Group Desc].&amp;[Misc]" c="Misc"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Parts]" c="Parts"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Shapes]" c="Shapes"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Bearings]" c="Bearings"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Box Girders]" c="Box Girders"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Cross Frames]" c="Cross Frames"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Diaphragms]" c="Diaphragms"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Girders]" c="Girders"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Lateral Bracing]" c="Lateral Bracing"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Other]" c="Other"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Plate Diaphragms]" c="Plate Diaphragms"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Stringers]" c="Stringers"/>
+        <s v="[Product Groups].[Product Group Desc].&amp;[Tub Girders]" c="Tub Girders"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="390">
     <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
@@ -1075,14 +1763,14 @@
     <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Status]" caption="Milestone Status" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Status].[All]" allUniqueName="[Milestone Schedule].[Milestone Status].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Milestone Schedule].[Original Date]" caption="Original Date" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Original Date].[All]" allUniqueName="[Milestone Schedule].[Original Date].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Product Groups].[Product Group]" caption="Product Group" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group].[All]" allUniqueName="[Product Groups].[Product Group].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" unbalanced="0">
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product Description]" caption="Product Description" attribute="1" defaultMemberUniqueName="[Products].[Product Description].[All]" allUniqueName="[Products].[Product Description].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product Display]" caption="Product Display" attribute="1" defaultMemberUniqueName="[Products].[Product Display].[All]" allUniqueName="[Products].[Product Display].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Finish Date Mismatch].[All]" allUniqueName="[Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
@@ -1365,7 +2053,7 @@
     <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Start Date]" caption="Public Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="2"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Public End Date]" caption="Public End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
@@ -1373,7 +2061,11 @@
     <cacheHierarchy uniqueName="[Measures].[Public HD Qty Complete]" caption="Public HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public HD Qty Remaining]" caption="Public HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public HD Qty % Complete]" caption="Public HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Public What-If Job Remaining Hours]" caption="Public What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Inactive Job Remaining Hours]" caption="Public Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Fab Start Date]" caption="Public Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
@@ -1449,8 +2141,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.633052083336" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43984.290084722219" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2138,36 +2830,27 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.633056944447" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43984.290088078706" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
+  <cacheFields count="3">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
       <sharedItems count="199">
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" c="D-1160230F-06"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-02]" c="D-1160245A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-13]" c="D-1160245A-13"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-01]" c="D-1160253A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" c="D-1160253A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-04]" c="D-1160253C-04"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-05]" c="D-1160253C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" c="D-1160253C-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" c="D-1160253C-07"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-01]" c="D-1170032A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-02]" c="D-1170032A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032B-03]" c="D-1170032B-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082A-03]" c="D-1170082A-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082D-08]" c="D-1170082D-08"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-02]" c="D-1170143C-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" c="D-1170143C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" c="D-1170143C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" c="D-1170155A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155D-04]" c="D-1170155D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" c="D-1170155G-13"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217A-01]" c="D-1170217A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217C-03]" c="D-1170217C-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217F-07]" c="D-1170217F-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" c="D-1170217G-08"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272A-01]" c="D-1170272A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272B-02]" c="D-1170272B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272C-03]" c="D-1170272C-03"/>
@@ -2188,13 +2871,11 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180081A-02]" c="D-1180081A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-03]" c="D-1180091C-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-04]" c="D-1180091C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" c="D-1180095C-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-04]" c="D-1180095D-04"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-05]" c="D-1180095D-05"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095E-06]" c="D-1180095E-06"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095G-08]" c="D-1180095G-08"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095H-09]" c="D-1180095H-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" c="D-1180095J-10"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095L-12]" c="D-1180095L-12"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180116B-01]" c="D-1180116B-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180136A-01]" c="D-1180136A-01"/>
@@ -2216,19 +2897,12 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201F-09]" c="D-1180201F-09"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201G-10]" c="D-1180201G-10"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201H-11]" c="D-1180201H-11"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" c="D-1180238A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" c="D-1180238B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" c="D-1180238C-03"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-04]" c="D-1180238D-04"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-05]" c="D-1180238D-05"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-06]" c="D-1180238E-06"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-07]" c="D-1180238E-07"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238F-08]" c="D-1180238F-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" c="D-1180238G-09"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180246A-01]" c="D-1180246A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" c="D-1180261A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" c="D-1180261A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" c="D-1180262A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180274A-02]" c="D-1180274A-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285A-01]" c="D-1180285A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285C-03]" c="D-1180285C-03"/>
@@ -2243,7 +2917,6 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028A-01]" c="D-1190028A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028B-02]" c="D-1190028B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190036A-01]" c="D-1190036A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" c="D-1190037A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190038A-01]" c="D-1190038A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190060A-01]" c="D-1190060A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190066A-01]" c="D-1190066A-01"/>
@@ -2272,11 +2945,9 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190138A-01]" c="D-1190138A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144A-01]" c="D-1190144A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144B-02]" c="D-1190144B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" c="D-1190145A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190148A-01]" c="D-1190148A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190165A-01]" c="D-1190165A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190179A-01]" c="D-1190179A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" c="D-1190187A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190193A-01]" c="D-1190193A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190196A-01]" c="D-1190196A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190203A-01]" c="D-1190203A-01"/>
@@ -2312,7 +2983,6 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272A-01]" c="D-1190272A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272B-02]" c="D-1190272B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274A-01]" c="D-1190274A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" c="D-1190274B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278A-01]" c="D-1190278A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278B-02]" c="D-1190278B-02"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-03]" c="D-1190278C-03"/>
@@ -2341,29 +3011,42 @@
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200021A-01]" c="D-1200021A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200023A-01]" c="D-1200023A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200031A-01]" c="D-1200031A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" c="D-1200034A-01"/>
         <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200089A-03]" c="D-1200089A-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" u="1" c="D-1160230F-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" u="1" c="D-1160253A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" u="1" c="D-1160253C-06"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" u="1" c="D-1160253C-07"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" u="1" c="D-1170143C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" u="1" c="D-1170143C-04"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" u="1" c="D-1170155A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" u="1" c="D-1170155G-13"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" u="1" c="D-1170217G-08"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" u="1" c="D-1180095C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" u="1" c="D-1180095J-10"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" u="1" c="D-1180238A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" u="1" c="D-1180238B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" u="1" c="D-1180238C-03"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" u="1" c="D-1180238G-09"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" u="1" c="D-1180261A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" u="1" c="D-1180261A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" u="1" c="D-1180262A-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" u="1" c="D-1190037A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" u="1" c="D-1190145A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" u="1" c="D-1190187A-01"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" u="1" c="D-1190274B-02"/>
+        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" u="1" c="D-1200034A-01"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Product Code].[Product Code]" caption="Product Code" numFmtId="0" hierarchy="79" level="1">
+      <sharedItems count="5">
+        <s v="[Products].[Product Code].&amp;[G]" c="G"/>
+        <s v="[Products].[Product Code].&amp;[BG]" c="BG"/>
+        <s v="[Products].[Product Code].&amp;[S]" c="S"/>
+        <s v="[Products].[Product Code].&amp;[TG]" c="TG"/>
+        <s v="[Products].[Product Code].&amp;[PD]" c="PD"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Measures].[Public Start Date]" caption="Public Start Date" numFmtId="0" hierarchy="360" level="32767"/>
-    <cacheField name="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" numFmtId="0" hierarchy="366" level="32767"/>
-    <cacheField name="[Product Groups].[Product Group Desc].[Product Group Desc]" caption="Product Group Desc" numFmtId="0" hierarchy="77" level="1">
-      <sharedItems count="13">
-        <s v="[Product Groups].[Product Group Desc].&amp;[Misc]" c="Misc"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Parts]" c="Parts"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Shapes]" c="Shapes"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Bearings]" c="Bearings"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Box Girders]" c="Box Girders"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Cross Frames]" c="Cross Frames"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Diaphragms]" c="Diaphragms"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Girders]" c="Girders"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Lateral Bracing]" c="Lateral Bracing"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Other]" c="Other"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Plate Diaphragms]" c="Plate Diaphragms"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Stringers]" c="Stringers"/>
-        <s v="[Product Groups].[Product Group Desc].&amp;[Tub Girders]" c="Tub Girders"/>
-      </sharedItems>
-    </cacheField>
   </cacheFields>
   <cacheHierarchies count="390">
     <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
@@ -2448,14 +3131,14 @@
     <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Status]" caption="Milestone Status" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Status].[All]" allUniqueName="[Milestone Schedule].[Milestone Status].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Milestone Schedule].[Original Date]" caption="Original Date" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Original Date].[All]" allUniqueName="[Milestone Schedule].[Original Date].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Product Groups].[Product Group]" caption="Product Group" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group].[All]" allUniqueName="[Product Groups].[Product Group].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="2" unbalanced="0">
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product Description]" caption="Product Description" attribute="1" defaultMemberUniqueName="[Products].[Product Description].[All]" allUniqueName="[Products].[Product Description].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product Display]" caption="Product Display" attribute="1" defaultMemberUniqueName="[Products].[Product Display].[All]" allUniqueName="[Products].[Product Display].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Finish Date Mismatch].[All]" allUniqueName="[Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
@@ -2738,686 +3421,9 @@
     <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public Start Date]" caption="Public Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Public End Date]" caption="Public End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty]" caption="Public HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Complete]" caption="Public HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty Remaining]" caption="Public HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public HD Qty % Complete]" caption="Public HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Girder Start Date]" caption="Public Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0" oneField="1">
-      <fieldsUsage count="1">
         <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Public What-If Job Remaining Hours]" caption="Public What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Inactive Job Remaining Hours]" caption="Public Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Fab Start Date]" caption="Public Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Fab End Date]" caption="Public Fab End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Yard Start Date]" caption="Public Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Yard End Date]" caption="Public Yard End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Coatings Start Date]" caption="Public Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Coatings End Date]" caption="Public Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Average Days Out]" caption="Average Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 End Date]" caption="P6 End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty]" caption="Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty]" caption="Avg SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg SAP Qty Complete]" caption="Avg SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Avg HD Qty Complete]" caption="Avg HD Qty Complete" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link]" caption="Bay Schedule 2 and 3 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link]" caption="Bay Schedule 1 and 4 Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 2 and 3 Export Link MS]" caption="Bay Schedule 2 and 3 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Bay Schedule 1 and 4 Export Link MS]" caption="Bay Schedule 1 and 4 Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link]" caption="Early Start Date Export Link" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Early Start Date Export Link MS]" caption="Early Start Date Export Link MS" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty]" caption="Public Avg HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Avg HD Qty Complete]" caption="Public Avg HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="11">
-    <dimension name="Calendar" uniqueName="[Calendar]" caption="Calendar"/>
-    <dimension name="Cost Centers" uniqueName="[Cost Centers]" caption="Cost Centers"/>
-    <dimension name="Functions" uniqueName="[Functions]" caption="Functions"/>
-    <dimension name="HD Schedule" uniqueName="[HD Schedule]" caption="HD Schedule"/>
-    <dimension name="Job Shipments" uniqueName="[Job Shipments]" caption="Job Shipments"/>
-    <dimension name="Late End Schedule" uniqueName="[Late End Schedule]" caption="Late End Schedule"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Milestone Schedule" uniqueName="[Milestone Schedule]" caption="Milestone Schedule"/>
-    <dimension name="Product Groups" uniqueName="[Product Groups]" caption="Product Groups"/>
-    <dimension name="Products" uniqueName="[Products]" caption="Products"/>
-    <dimension name="Schedule" uniqueName="[Schedule]" caption="Schedule"/>
-  </dimensions>
-  <measureGroups count="15">
-    <measureGroup name="Calendar" caption="Calendar"/>
-    <measureGroup name="Cost Center Distinct" caption="Cost Center Distinct"/>
-    <measureGroup name="Cost Center MPS" caption="Cost Center MPS"/>
-    <measureGroup name="Cost Centers" caption="Cost Centers"/>
-    <measureGroup name="Functions" caption="Functions"/>
-    <measureGroup name="HD Schedule" caption="HD Schedule"/>
-    <measureGroup name="Job Shipments" caption="Job Shipments"/>
-    <measureGroup name="Late End Schedule" caption="Late End Schedule"/>
-    <measureGroup name="Milestone Measures" caption="Milestone Measures"/>
-    <measureGroup name="Milestone Schedule" caption="Milestone Schedule"/>
-    <measureGroup name="Product Groups" caption="Product Groups"/>
-    <measureGroup name="Products" caption="Products"/>
-    <measureGroup name="Public Schedule Measures" caption="Public Schedule Measures"/>
-    <measureGroup name="Schedule" caption="Schedule"/>
-    <measureGroup name="Scheduling Measures" caption="Scheduling Measures"/>
-  </measureGroups>
-  <maps count="10">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="6" dimension="4"/>
-    <map measureGroup="7" dimension="5"/>
-    <map measureGroup="9" dimension="7"/>
-    <map measureGroup="10" dimension="8"/>
-    <map measureGroup="11" dimension="9"/>
-    <map measureGroup="13" dimension="10"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43983.633061574074" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
-      <sharedItems count="200">
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160230F-06]" c="D-1160230F-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-02]" c="D-1160245A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160245A-13]" c="D-1160245A-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-01]" c="D-1160253A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253A-02]" c="D-1160253A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-04]" c="D-1160253C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-05]" c="D-1160253C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-06]" c="D-1160253C-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1160253C-07]" c="D-1160253C-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-01]" c="D-1170032A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032A-02]" c="D-1170032A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170032B-03]" c="D-1170032B-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082A-03]" c="D-1170082A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170082D-08]" c="D-1170082D-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-02]" c="D-1170143C-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-03]" c="D-1170143C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170143C-04]" c="D-1170143C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155A-01]" c="D-1170155A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155D-04]" c="D-1170155D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170155G-13]" c="D-1170155G-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217A-01]" c="D-1170217A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217C-03]" c="D-1170217C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217F-07]" c="D-1170217F-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170217G-08]" c="D-1170217G-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272A-01]" c="D-1170272A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272B-02]" c="D-1170272B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272C-03]" c="D-1170272C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272E-05]" c="D-1170272E-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272F-06]" c="D-1170272F-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170272G-07]" c="D-1170272G-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1170281B-01]" c="D-1170281B-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180020A-01]" c="D-1180020A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180023A-02]" c="D-1180023A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-01]" c="D-1180045A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-02]" c="D-1180045A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045A-03]" c="D-1180045A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-04]" c="D-1180045B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-05]" c="D-1180045B-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180045B-06]" c="D-1180045B-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-01]" c="D-1180059A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180059A-02]" c="D-1180059A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180081A-02]" c="D-1180081A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-03]" c="D-1180091C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180091C-04]" c="D-1180091C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095C-03]" c="D-1180095C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-04]" c="D-1180095D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095D-05]" c="D-1180095D-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095E-06]" c="D-1180095E-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095G-08]" c="D-1180095G-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095H-09]" c="D-1180095H-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095J-10]" c="D-1180095J-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180095L-12]" c="D-1180095L-12"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180116B-01]" c="D-1180116B-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180136A-01]" c="D-1180136A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-02]" c="D-1180155A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180155A-03]" c="D-1180155A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-01]" c="D-1180164A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180164A-02]" c="D-1180164A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180174A-02]" c="D-1180174A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-01]" c="D-1180201A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201A-02]" c="D-1180201A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-03]" c="D-1180201B-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201B-12]" c="D-1180201B-12"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-04]" c="D-1180201C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-05]" c="D-1180201C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201C-13]" c="D-1180201C-13"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-06]" c="D-1180201D-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201D-07]" c="D-1180201D-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201E-08]" c="D-1180201E-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201F-09]" c="D-1180201F-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201G-10]" c="D-1180201G-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180201H-11]" c="D-1180201H-11"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238A-01]" c="D-1180238A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238B-02]" c="D-1180238B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238C-03]" c="D-1180238C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-04]" c="D-1180238D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238D-05]" c="D-1180238D-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-06]" c="D-1180238E-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238E-07]" c="D-1180238E-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238F-08]" c="D-1180238F-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180238G-09]" c="D-1180238G-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180246A-01]" c="D-1180246A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-01]" c="D-1180261A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180261A-02]" c="D-1180261A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180262A-02]" c="D-1180262A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180274A-02]" c="D-1180274A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285A-01]" c="D-1180285A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285C-03]" c="D-1180285C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180285D-04]" c="D-1180285D-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180302A-01]" c="D-1180302A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-01]" c="D-1180308A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-02]" c="D-1180308A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180308A-03]" c="D-1180308A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1180310A-01]" c="D-1180310A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190010A-01]" c="D-1190010A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190016A-01]" c="D-1190016A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028A-01]" c="D-1190028A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190028B-02]" c="D-1190028B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190036A-01]" c="D-1190036A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190037A-01]" c="D-1190037A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190038A-01]" c="D-1190038A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190060A-01]" c="D-1190060A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190066A-01]" c="D-1190066A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190078A-01]" c="D-1190078A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190090A-01]" c="D-1190090A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092A-02]" c="D-1190092A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190092B-04]" c="D-1190092B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190096A-01]" c="D-1190096A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190102A-01]" c="D-1190102A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-03]" c="D-1190103A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190103A-04]" c="D-1190103A-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-01]" c="D-1190105A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190105A-02]" c="D-1190105A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-01]" c="D-1190118A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118A-02]" c="D-1190118A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-03]" c="D-1190118B-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190118B-04]" c="D-1190118B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190124A-01]" c="D-1190124A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128A-01]" c="D-1190128A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190128B-02]" c="D-1190128B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130A-01]" c="D-1190130A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190130B-02]" c="D-1190130B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190135A-01]" c="D-1190135A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-01]" c="D-1190136A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190136A-02]" c="D-1190136A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190138A-01]" c="D-1190138A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144A-01]" c="D-1190144A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190144B-02]" c="D-1190144B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190145A-01]" c="D-1190145A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190148A-01]" c="D-1190148A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190165A-01]" c="D-1190165A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190179A-01]" c="D-1190179A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190187A-01]" c="D-1190187A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190193A-01]" c="D-1190193A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190196A-01]" c="D-1190196A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190203A-01]" c="D-1190203A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190210A-01]" c="D-1190210A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190214A-01]" c="D-1190214A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190217A-01]" c="D-1190217A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190227A-01]" c="D-1190227A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190230A-01]" c="D-1190230A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232A-01]" c="D-1190232A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232B-02]" c="D-1190232B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190232C-03]" c="D-1190232C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190239A-01]" c="D-1190239A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243A-01]" c="D-1190243A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190243B-02]" c="D-1190243B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249A-01]" c="D-1190249A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190249B-02]" c="D-1190249B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-01]" c="D-1190250A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-02]" c="D-1190250A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250A-03]" c="D-1190250A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-04]" c="D-1190250B-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-05]" c="D-1190250B-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250B-06]" c="D-1190250B-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250C-07]" c="D-1190250C-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250D-08]" c="D-1190250D-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190250E-09]" c="D-1190250E-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190251B-02]" c="D-1190251B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190254A-01]" c="D-1190254A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190258A-01]" c="D-1190258A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-01]" c="D-1190259A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-02]" c="D-1190259A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190259A-03]" c="D-1190259A-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190266A-01]" c="D-1190266A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272A-01]" c="D-1190272A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190272B-02]" c="D-1190272B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274A-01]" c="D-1190274A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190274B-02]" c="D-1190274B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278A-01]" c="D-1190278A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278B-02]" c="D-1190278B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-03]" c="D-1190278C-03"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-04]" c="D-1190278C-04"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278C-05]" c="D-1190278C-05"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-06]" c="D-1190278D-06"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278D-07]" c="D-1190278D-07"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-08]" c="D-1190278E-08"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278E-09]" c="D-1190278E-09"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278F-10]" c="D-1190278F-10"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190278G-11]" c="D-1190278G-11"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190279A-01]" c="D-1190279A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190283A-01]" c="D-1190283A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190289A-01]" c="D-1190289A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190295A-01]" c="D-1190295A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190300A-01]" c="D-1190300A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190305A-01]" c="D-1190305A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190306A-01]" c="D-1190306A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310A-01]" c="D-1190310A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190310B-02]" c="D-1190310B-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190320A-01]" c="D-1190320A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1190321A-01]" c="D-1190321A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200014A-01]" c="D-1200014A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-01]" c="D-1200017A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200017A-02]" c="D-1200017A-02"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200021A-01]" c="D-1200021A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200022A-01]" c="D-1200022A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200023A-01]" c="D-1200023A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200031A-01]" c="D-1200031A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200034A-01]" c="D-1200034A-01"/>
-        <s v="[Job Shipments].[Job Structure Shipment].&amp;[D-1200089A-03]" c="D-1200089A-03"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Job Shipments].[PM Initials].[PM Initials]" caption="PM Initials" numFmtId="0" hierarchy="50" level="1">
-      <sharedItems count="7">
-        <s v="[Job Shipments].[PM Initials].&amp;[MK]" c="MK"/>
-        <s v="[Job Shipments].[PM Initials].&amp;[DP]" c="DP"/>
-        <s v="[Job Shipments].[PM Initials].&amp;[JF]" c="JF"/>
-        <s v="[Job Shipments].[PM Initials].&amp;[JW]" c="JW"/>
-        <s v="[Job Shipments].[PM Initials].&amp;[KG]" c="KG"/>
-        <s v="[Job Shipments].[PM Initials].&amp;[MD]" c="MD"/>
-        <s v="[Job Shipments].[PM Initials].&amp;" c=""/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="390">
-    <cacheHierarchy uniqueName="[Calendar].[Calendar Date]" caption="Calendar Date" attribute="1" defaultMemberUniqueName="[Calendar].[Calendar Date].[All]" allUniqueName="[Calendar].[Calendar Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Ending]" caption="Month Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Month Ending].[All]" allUniqueName="[Calendar].[Month Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Name]" caption="Month Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Name].[All]" allUniqueName="[Calendar].[Month Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Calendar].[Month Number].[All]" allUniqueName="[Calendar].[Month Number].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Short Name]" caption="Month Short Name" attribute="1" defaultMemberUniqueName="[Calendar].[Month Short Name].[All]" allUniqueName="[Calendar].[Month Short Name].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Starting]" caption="Month Starting" attribute="1" defaultMemberUniqueName="[Calendar].[Month Starting].[All]" allUniqueName="[Calendar].[Month Starting].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Month Year]" caption="Month Year" attribute="1" defaultMemberUniqueName="[Calendar].[Month Year].[All]" allUniqueName="[Calendar].[Month Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Months Out]" caption="Months Out" attribute="1" defaultMemberUniqueName="[Calendar].[Months Out].[All]" allUniqueName="[Calendar].[Months Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Week Beginning]" caption="Week Beginning" attribute="1" defaultMemberUniqueName="[Calendar].[Week Beginning].[All]" allUniqueName="[Calendar].[Week Beginning].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Week Ending]" caption="Week Ending" attribute="1" defaultMemberUniqueName="[Calendar].[Week Ending].[All]" allUniqueName="[Calendar].[Week Ending].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Weeks Out]" caption="Weeks Out" attribute="1" defaultMemberUniqueName="[Calendar].[Weeks Out].[All]" allUniqueName="[Calendar].[Weeks Out].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Calendar].[Year].[All]" allUniqueName="[Calendar].[Year].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Year Month]" caption="Year Month" attribute="1" defaultMemberUniqueName="[Calendar].[Year Month].[All]" allUniqueName="[Calendar].[Year Month].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[Year Qtr]" caption="Year Qtr" attribute="1" defaultMemberUniqueName="[Calendar].[Year Qtr].[All]" allUniqueName="[Calendar].[Year Qtr].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Bay]" caption="Bay" attribute="1" defaultMemberUniqueName="[Cost Centers].[Bay].[All]" allUniqueName="[Cost Centers].[Bay].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center]" caption="Cost Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center].[All]" allUniqueName="[Cost Centers].[Cost Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Display]" caption="Cost Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Display].[All]" allUniqueName="[Cost Centers].[Cost Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Cost Center Name]" caption="Cost Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Cost Center Name].[All]" allUniqueName="[Cost Centers].[Cost Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Cost Centers].[Facility].[All]" allUniqueName="[Cost Centers].[Facility].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Plant]" caption="Plant" attribute="1" defaultMemberUniqueName="[Cost Centers].[Plant].[All]" allUniqueName="[Cost Centers].[Plant].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Work Center]" caption="Work Center" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center].[All]" allUniqueName="[Cost Centers].[Work Center].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Display]" caption="Work Center Display" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Display].[All]" allUniqueName="[Cost Centers].[Work Center Display].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[Work Center Name]" caption="Work Center Name" attribute="1" defaultMemberUniqueName="[Cost Centers].[Work Center Name].[All]" allUniqueName="[Cost Centers].[Work Center Name].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Code]" caption="Function Code" attribute="1" defaultMemberUniqueName="[Functions].[Function Code].[All]" allUniqueName="[Functions].[Function Code].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Description]" caption="Function Description" attribute="1" defaultMemberUniqueName="[Functions].[Function Description].[All]" allUniqueName="[Functions].[Function Description].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Display]" caption="Function Display" attribute="1" defaultMemberUniqueName="[Functions].[Function Display].[All]" allUniqueName="[Functions].[Function Display].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Functions].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Functions].[Function Group].[All]" allUniqueName="[Functions].[Function Group].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" allUniqueName="[HD Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[HD Schedule].[Start Date Mismatch].[All]" allUniqueName="[HD Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Code].[All]" allUniqueName="[HD Schedule].[Task Code].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name].[All]" allUniqueName="[HD Schedule].[Task Name].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Name Short].[All]" allUniqueName="[HD Schedule].[Task Name Short].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[HD Schedule].[Task Start Date].[All]" allUniqueName="[HD Schedule].[Task Start Date].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Coating]" caption="Coating" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating].[All]" allUniqueName="[Job Shipments].[Coating].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Coating Desc]" caption="Coating Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Coating Desc].[All]" allUniqueName="[Job Shipments].[Coating Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Display Ship Date]" caption="Display Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[Display Ship Date].[All]" allUniqueName="[Job Shipments].[Display Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[First Start Date]" caption="First Start Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[First Start Date].[All]" allUniqueName="[Job Shipments].[First Start Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[HD Ship Date]" caption="HD Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[HD Ship Date].[All]" allUniqueName="[Job Shipments].[HD Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[In HD?]" caption="In HD?" attribute="1" defaultMemberUniqueName="[Job Shipments].[In HD?].[All]" allUniqueName="[Job Shipments].[In HD?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Name]" caption="Job Name" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Name].[All]" allUniqueName="[Job Shipments].[Job Name].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Number]" caption="Job Number" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Number].[All]" allUniqueName="[Job Shipments].[Job Number].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job State]" caption="Job State" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job State].[All]" allUniqueName="[Job Shipments].[Job State].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Status]" caption="Job Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status].[All]" allUniqueName="[Job Shipments].[Job Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Status Full Text]" caption="Job Status Full Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Status Full Text].[All]" allUniqueName="[Job Shipments].[Job Status Full Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Job Structure Shipment]" caption="Job Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Job Structure Shipment].[All]" allUniqueName="[Job Shipments].[Job Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Job Shipments].[Milestone Status Text]" caption="Milestone Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Milestone Status Text].[All]" allUniqueName="[Job Shipments].[Milestone Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Date]" caption="P6 Ship Date" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Date].[All]" allUniqueName="[Job Shipments].[P6 Ship Date].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Month Year]" caption="P6 Ship Month Year" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" allUniqueName="[Job Shipments].[P6 Ship Month Year].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[P6 Ship Year Month]" caption="P6 Ship Year Month" attribute="1" defaultMemberUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" allUniqueName="[Job Shipments].[P6 Ship Year Month].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[PM Initials]" caption="PM Initials" attribute="1" defaultMemberUniqueName="[Job Shipments].[PM Initials].[All]" allUniqueName="[Job Shipments].[PM Initials].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Job Shipments].[Production Status]" caption="Production Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Production Status].[All]" allUniqueName="[Job Shipments].[Production Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Manager]" caption="Project Manager" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Manager].[All]" allUniqueName="[Job Shipments].[Project Manager].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Milestone Status]" caption="Project Milestone Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Milestone Status].[All]" allUniqueName="[Job Shipments].[Project Milestone Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Notes]" caption="Project Notes" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Notes].[All]" allUniqueName="[Job Shipments].[Project Notes].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Project Ship Date Status]" caption="Project Ship Date Status" attribute="1" defaultMemberUniqueName="[Job Shipments].[Project Ship Date Status].[All]" allUniqueName="[Job Shipments].[Project Ship Date Status].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Job Label]" caption="Ship Date Job Label" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Job Label].[All]" allUniqueName="[Job Shipments].[Ship Date Job Label].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Ship Date Status Text]" caption="Ship Date Status Text" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Date Status Text].[All]" allUniqueName="[Job Shipments].[Ship Date Status Text].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Ship Dates Match?]" caption="Ship Dates Match?" attribute="1" defaultMemberUniqueName="[Job Shipments].[Ship Dates Match?].[All]" allUniqueName="[Job Shipments].[Ship Dates Match?].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[State Abbr]" caption="State Abbr" attribute="1" defaultMemberUniqueName="[Job Shipments].[State Abbr].[All]" allUniqueName="[Job Shipments].[State Abbr].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Structure Shipment]" caption="Structure Shipment" attribute="1" defaultMemberUniqueName="[Job Shipments].[Structure Shipment].[All]" allUniqueName="[Job Shipments].[Structure Shipment].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup]" caption="Yard Setup" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup].[All]" allUniqueName="[Job Shipments].[Yard Setup].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[Yard Setup Desc]" caption="Yard Setup Desc" attribute="1" defaultMemberUniqueName="[Job Shipments].[Yard Setup Desc].[All]" allUniqueName="[Job Shipments].[Yard Setup Desc].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD?].[All]" allUniqueName="[Late End Schedule].[HD?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP?].[All]" allUniqueName="[Late End Schedule].[SAP?].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Code].[All]" allUniqueName="[Late End Schedule].[Task Code].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name].[All]" allUniqueName="[Late End Schedule].[Task Name].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Late End Schedule].[Task Name Short].[All]" allUniqueName="[Late End Schedule].[Task Name Short].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY].[All]" allUniqueName="[Late End Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Fab Start Date?]" caption="Fab Start Date?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" allUniqueName="[Milestone Schedule].[Fab Start Date?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone]" caption="Milestone" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone].[All]" allUniqueName="[Milestone Schedule].[Milestone].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Complete?]" caption="Milestone Complete?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" allUniqueName="[Milestone Schedule].[Milestone Complete?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Group]" caption="Milestone Group" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Group].[All]" allUniqueName="[Milestone Schedule].[Milestone Group].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Overdue?]" caption="Milestone Overdue?" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" allUniqueName="[Milestone Schedule].[Milestone Overdue?].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Milestone Status]" caption="Milestone Status" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Milestone Status].[All]" allUniqueName="[Milestone Schedule].[Milestone Status].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[Original Date]" caption="Original Date" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[Original Date].[All]" allUniqueName="[Milestone Schedule].[Original Date].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group]" caption="Product Group" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group].[All]" allUniqueName="[Product Groups].[Product Group].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Desc]" caption="Product Group Desc" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Desc].[All]" allUniqueName="[Product Groups].[Product Group Desc].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Product Groups].[Product Group Display]" caption="Product Group Display" attribute="1" defaultMemberUniqueName="[Product Groups].[Product Group Display].[All]" allUniqueName="[Product Groups].[Product Group Display].[All]" dimensionUniqueName="[Product Groups]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Code]" caption="Product Code" attribute="1" defaultMemberUniqueName="[Products].[Product Code].[All]" allUniqueName="[Products].[Product Code].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Description]" caption="Product Description" attribute="1" defaultMemberUniqueName="[Products].[Product Description].[All]" allUniqueName="[Products].[Product Description].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Product Display]" caption="Product Display" attribute="1" defaultMemberUniqueName="[Products].[Product Display].[All]" allUniqueName="[Products].[Product Display].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Finish Date Mismatch]" caption="Finish Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Finish Date Mismatch].[All]" allUniqueName="[Schedule].[Finish Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD?]" caption="HD?" attribute="1" defaultMemberUniqueName="[Schedule].[HD?].[All]" allUniqueName="[Schedule].[HD?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP?]" caption="SAP?" attribute="1" defaultMemberUniqueName="[Schedule].[SAP?].[All]" allUniqueName="[Schedule].[SAP?].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Start Date Mismatch]" caption="Start Date Mismatch" attribute="1" defaultMemberUniqueName="[Schedule].[Start Date Mismatch].[All]" allUniqueName="[Schedule].[Start Date Mismatch].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Code]" caption="Task Code" attribute="1" defaultMemberUniqueName="[Schedule].[Task Code].[All]" allUniqueName="[Schedule].[Task Code].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Name]" caption="Task Name" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name].[All]" allUniqueName="[Schedule].[Task Name].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Name Short]" caption="Task Name Short" attribute="1" defaultMemberUniqueName="[Schedule].[Task Name Short].[All]" allUniqueName="[Schedule].[Task Name Short].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Schedule].[Task Start Date]" caption="Task Start Date" attribute="1" defaultMemberUniqueName="[Schedule].[Task Start Date].[All]" allUniqueName="[Schedule].[Task Start Date].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cost Center Distinct].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" allUniqueName="[Cost Center Distinct].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center Distinct]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[CO_VERSION_ID]" caption="CO_VERSION_ID" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" allUniqueName="[Cost Center MPS].[CO_VERSION_ID].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[COST_CENTER].[All]" allUniqueName="[Cost Center MPS].[COST_CENTER].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[DIRECT_MPS]" caption="DIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[DIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[EARNED_MPS]" caption="EARNED_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" allUniqueName="[Cost Center MPS].[EARNED_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[INDIRECT_MPS]" caption="INDIRECT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" allUniqueName="[Cost Center MPS].[INDIRECT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[OT_MPS]" caption="OT_MPS" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[OT_MPS].[All]" allUniqueName="[Cost Center MPS].[OT_MPS].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Center MPS].[WORKDAY_DATE]" caption="WORKDAY_DATE" attribute="1" defaultMemberUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" allUniqueName="[Cost Center MPS].[WORKDAY_DATE].[All]" dimensionUniqueName="[Cost Center MPS]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cost Centers].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" allUniqueName="[Cost Centers].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Cost Centers]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Functions].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Functions].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Functions]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[HD Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[HD Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[HD Schedule].[Function Group].[All]" allUniqueName="[HD Schedule].[Function Group].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_CD].[All]" allUniqueName="[HD Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[HD Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_FLAG]" caption="HD_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_FLAG].[All]" allUniqueName="[HD Schedule].[HD_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" allUniqueName="[HD Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[P6_START_DATE].[All]" allUniqueName="[HD Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROD_GRP].[All]" allUniqueName="[HD Schedule].[PROD_GRP].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[HD Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[HD Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" allUniqueName="[HD Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" allUniqueName="[HD Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" allUniqueName="[HD Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[HD Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_FLAG]" caption="SAP_FLAG" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_FLAG].[All]" allUniqueName="[HD Schedule].[SAP_FLAG].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[HD Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[HD Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[HD Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[HD Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY].[All]" allUniqueName="[HD Schedule].[SAP_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[HD Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[HD Schedule].[SAP_START_DATE].[All]" allUniqueName="[HD Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[HD Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY].[All]" allUniqueName="[HD Schedule].[WORK_DAY].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[HD Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[HD Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[HD Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[LAST_UPDATED]" caption="LAST_UPDATED" attribute="1" defaultMemberUniqueName="[Job Shipments].[LAST_UPDATED].[All]" allUniqueName="[Job Shipments].[LAST_UPDATED].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Job Shipments].[PROJ_ID].[All]" allUniqueName="[Job Shipments].[PROJ_ID].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Job Shipments].[SHIP_DATES_DIFF]" caption="SHIP_DATES_DIFF" attribute="1" defaultMemberUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" allUniqueName="[Job Shipments].[SHIP_DATES_DIFF].[All]" dimensionUniqueName="[Job Shipments]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[BAY].[All]" allUniqueName="[Late End Schedule].[BAY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER].[All]" allUniqueName="[Late End Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Late End Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Late End Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH]" caption="FINISH_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[FINISH_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" allUniqueName="[Late End Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Late End Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP]" caption="FUNCTION_GROUP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Late End Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" allUniqueName="[Late End Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HD_START_DATE].[All]" allUniqueName="[Late End Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HEIGHT].[All]" allUniqueName="[Late End Schedule].[HEIGHT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Late End Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[LENGTH].[All]" allUniqueName="[Late End Schedule].[LENGTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[P6_EARLY_START_DATE]" caption="P6_EARLY_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_EARLY_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Late End Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[P6_START_DATE].[All]" allUniqueName="[Late End Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT].[All]" allUniqueName="[Late End Schedule].[PLANT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PLANT_ID].[All]" allUniqueName="[Late End Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP].[All]" allUniqueName="[Late End Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Late End Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Late End Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_ID].[All]" allUniqueName="[Late End Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Late End Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Late End Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Late End Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Late End Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Late End Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY].[All]" allUniqueName="[Late End Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Late End Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" allUniqueName="[Late End Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[START_DATE_MISMATCH]" caption="START_DATE_MISMATCH" attribute="1" defaultMemberUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" allUniqueName="[Late End Schedule].[START_DATE_MISMATCH].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Late End Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Late End Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Late End Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Late End Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Late End Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN1].[All]" allUniqueName="[Milestone Measures].[COLUMN1].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN2].[All]" allUniqueName="[Milestone Measures].[COLUMN2].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Milestone Measures].[COLUMN3].[All]" allUniqueName="[Milestone Measures].[COLUMN3].[All]" dimensionUniqueName="[Milestone Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[ACTUAL_DATE]" caption="ACTUAL_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" allUniqueName="[Milestone Schedule].[ACTUAL_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[DAYS_OUT]" caption="DAYS_OUT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" allUniqueName="[Milestone Schedule].[DAYS_OUT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[DUE_DATE]" caption="DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MATL_MISSING]" caption="MATL_MISSING" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" allUniqueName="[Milestone Schedule].[MATL_MISSING].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT]" caption="MILESTONE_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_GROUP_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_SORT]" caption="MILESTONE_SORT" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_SORT].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE]" caption="MILESTONE_STATUS_VALUE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" allUniqueName="[Milestone Schedule].[MILESTONE_STATUS_VALUE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[ORDER_QTY]" caption="ORDER_QTY" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" allUniqueName="[Milestone Schedule].[ORDER_QTY].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME]" caption="P6_PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" allUniqueName="[Milestone Schedule].[P6_PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[PLOT_DUE_DATE]" caption="PLOT_DUE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" allUniqueName="[Milestone Schedule].[PLOT_DUE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[QTY_RECVD]" caption="QTY_RECVD" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" allUniqueName="[Milestone Schedule].[QTY_RECVD].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Milestone Schedule].[REFERENCE_DATE]" caption="REFERENCE_DATE" attribute="1" defaultMemberUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" allUniqueName="[Milestone Schedule].[REFERENCE_DATE].[All]" dimensionUniqueName="[Milestone Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN1].[All]" allUniqueName="[Public Schedule Measures].[COLUMN1].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN2].[All]" allUniqueName="[Public Schedule Measures].[COLUMN2].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Public Schedule Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Public Schedule Measures].[COLUMN3].[All]" allUniqueName="[Public Schedule Measures].[COLUMN3].[All]" dimensionUniqueName="[Public Schedule Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[BAY]" caption="BAY" attribute="1" defaultMemberUniqueName="[Schedule].[BAY].[All]" allUniqueName="[Schedule].[BAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER]" caption="COST_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER].[All]" allUniqueName="[Schedule].[COST_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_DESC]" caption="COST_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_DESC].[All]" allUniqueName="[Schedule].[COST_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[COST_CENTER_KEY]" caption="COST_CENTER_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[COST_CENTER_KEY].[All]" allUniqueName="[Schedule].[COST_CENTER_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL]" caption="DAILY_HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_EARNED]" caption="DAILY_HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HD_HRS_REMAINING]" caption="DAILY_HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_ACTUAL]" caption="DAILY_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_CURR_EST]" caption="DAILY_HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" allUniqueName="[Schedule].[DAILY_HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_REMAINING]" caption="DAILY_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_HRS_TARGET]" caption="DAILY_HRS_TARGET" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" allUniqueName="[Schedule].[DAILY_HRS_TARGET].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL]" caption="DAILY_SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_EARNED]" caption="DAILY_SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_PLAN]" caption="DAILY_SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING]" caption="DAILY_SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[DAILY_SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[Function Group]" caption="Function Group" attribute="1" defaultMemberUniqueName="[Schedule].[Function Group].[All]" allUniqueName="[Schedule].[Function Group].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_CD]" caption="FUNCTION_CD" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_CD].[All]" allUniqueName="[Schedule].[FUNCTION_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_DESC]" caption="FUNCTION_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_DESC].[All]" allUniqueName="[Schedule].[FUNCTION_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[FUNCTION_GROUP_SORT]" caption="FUNCTION_GROUP_SORT" attribute="1" defaultMemberUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" allUniqueName="[Schedule].[FUNCTION_GROUP_SORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_FINISH_DATE]" caption="HD_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_FINISH_DATE].[All]" allUniqueName="[Schedule].[HD_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_ACTUAL]" caption="HD_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[HD_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_EARNED]" caption="HD_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_EARNED].[All]" allUniqueName="[Schedule].[HD_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_HRS_REMAINING]" caption="HD_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" allUniqueName="[Schedule].[HD_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_RESOURCE]" caption="HD_RESOURCE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_RESOURCE].[All]" allUniqueName="[Schedule].[HD_RESOURCE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HD_START_DATE]" caption="HD_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[HD_START_DATE].[All]" allUniqueName="[Schedule].[HD_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HEIGHT]" caption="HEIGHT" attribute="1" defaultMemberUniqueName="[Schedule].[HEIGHT].[All]" allUniqueName="[Schedule].[HEIGHT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[HRS_CURR_EST]" caption="HRS_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[HRS_CURR_EST].[All]" allUniqueName="[Schedule].[HRS_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[LENGTH]" caption="LENGTH" attribute="1" defaultMemberUniqueName="[Schedule].[LENGTH].[All]" allUniqueName="[Schedule].[LENGTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_EARLY_END_DATE]" caption="P6_EARLY_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" allUniqueName="[Schedule].[P6_EARLY_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_END_DATE]" caption="P6_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_END_DATE].[All]" allUniqueName="[Schedule].[P6_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_END_DATE]" caption="P6_LATE_END_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_END_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_LATE_START_DATE]" caption="P6_LATE_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" allUniqueName="[Schedule].[P6_LATE_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_DATE]" caption="P6_SHIP_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_DATE].[All]" allUniqueName="[Schedule].[P6_SHIP_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_MONTH_YEAR]" caption="P6_SHIP_MONTH_YEAR" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" allUniqueName="[Schedule].[P6_SHIP_MONTH_YEAR].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_SHIP_YEAR_MONTH]" caption="P6_SHIP_YEAR_MONTH" attribute="1" defaultMemberUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" allUniqueName="[Schedule].[P6_SHIP_YEAR_MONTH].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[P6_START_DATE]" caption="P6_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[P6_START_DATE].[All]" allUniqueName="[Schedule].[P6_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PLANT]" caption="PLANT" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT].[All]" allUniqueName="[Schedule].[PLANT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PLANT_ID]" caption="PLANT_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PLANT_ID].[All]" allUniqueName="[Schedule].[PLANT_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP]" caption="PROD_GRP" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP].[All]" allUniqueName="[Schedule].[PROD_GRP].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROD_GRP_DESC]" caption="PROD_GRP_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[PROD_GRP_DESC].[All]" allUniqueName="[Schedule].[PROD_GRP_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD]" caption="PRODUCT_CD" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD].[All]" allUniqueName="[Schedule].[PRODUCT_CD].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PRODUCT_CD_SHORT]" caption="PRODUCT_CD_SHORT" attribute="1" defaultMemberUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" allUniqueName="[Schedule].[PRODUCT_CD_SHORT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROJ_ID]" caption="PROJ_ID" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_ID].[All]" allUniqueName="[Schedule].[PROJ_ID].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[PROJ_SHORT_NAME]" caption="PROJ_SHORT_NAME" attribute="1" defaultMemberUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" allUniqueName="[Schedule].[PROJ_SHORT_NAME].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[QTY_ACTUAL]" caption="QTY_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ACTUAL].[All]" allUniqueName="[Schedule].[QTY_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[QTY_CURR_EST]" caption="QTY_CURR_EST" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_CURR_EST].[All]" allUniqueName="[Schedule].[QTY_CURR_EST].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[QTY_ROLLUP_KEY]" caption="QTY_ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" allUniqueName="[Schedule].[QTY_ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[ROLLUP_KEY]" caption="ROLLUP_KEY" attribute="1" defaultMemberUniqueName="[Schedule].[ROLLUP_KEY].[All]" allUniqueName="[Schedule].[ROLLUP_KEY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_FINISH_DATE]" caption="SAP_FINISH_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" allUniqueName="[Schedule].[SAP_FINISH_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_ACTUAL]" caption="SAP_HRS_ACTUAL" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" allUniqueName="[Schedule].[SAP_HRS_ACTUAL].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_EARNED]" caption="SAP_HRS_EARNED" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" allUniqueName="[Schedule].[SAP_HRS_EARNED].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_PLAN]" caption="SAP_HRS_PLAN" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" allUniqueName="[Schedule].[SAP_HRS_PLAN].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_HRS_REMAINING]" caption="SAP_HRS_REMAINING" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" allUniqueName="[Schedule].[SAP_HRS_REMAINING].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY]" caption="SAP_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY].[All]" allUniqueName="[Schedule].[SAP_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_QTY_COMPLETE]" caption="SAP_QTY_COMPLETE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" allUniqueName="[Schedule].[SAP_QTY_COMPLETE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[SAP_START_DATE]" caption="SAP_START_DATE" attribute="1" defaultMemberUniqueName="[Schedule].[SAP_START_DATE].[All]" allUniqueName="[Schedule].[SAP_START_DATE].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[TARGET_WORK_QTY]" caption="TARGET_WORK_QTY" attribute="1" defaultMemberUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" allUniqueName="[Schedule].[TARGET_WORK_QTY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER]" caption="WORK_CENTER" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER].[All]" allUniqueName="[Schedule].[WORK_CENTER].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_CENTER_DESC]" caption="WORK_CENTER_DESC" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" allUniqueName="[Schedule].[WORK_CENTER_DESC].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY]" caption="WORK_DAY" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY].[All]" allUniqueName="[Schedule].[WORK_DAY].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Schedule].[WORK_DAY_COUNT]" caption="WORK_DAY_COUNT" attribute="1" defaultMemberUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" allUniqueName="[Schedule].[WORK_DAY_COUNT].[All]" dimensionUniqueName="[Schedule]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN1]" caption="COLUMN1" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN1].[All]" allUniqueName="[Scheduling Measures].[COLUMN1].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN2]" caption="COLUMN2" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN2].[All]" allUniqueName="[Scheduling Measures].[COLUMN2].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Scheduling Measures].[COLUMN3]" caption="COLUMN3" attribute="1" defaultMemberUniqueName="[Scheduling Measures].[COLUMN3].[All]" allUniqueName="[Scheduling Measures].[COLUMN3].[All]" dimensionUniqueName="[Scheduling Measures]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Days Out]" caption="Milestone Days Out" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Matl Order Qty]" caption="Matl Order Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Matl Recvd Qty]" caption="Matl Recvd Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Matl Missing Qty]" caption="Matl Missing Qty" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Due Date]" caption="Milestone Due Date" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Status Value]" caption="Milestone Status Value" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Days Overdue]" caption="Milestone Days Overdue" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Count]" caption="Milestone Count" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Completed Milestones]" caption="Completed Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Incomplete Milestones]" caption="Incomplete Milestones" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Group Status]" caption="Milestone Group Status" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 2 3]" caption="Milestone Column Value 2 3" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Milestone Column Value 1 4]" caption="Milestone Column Value 1 4" measure="1" displayFolder="" measureGroup="Milestone Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Remaining Hours]" caption="P6 Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Scheduled Remaining Hours]" caption="P6 Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Remaining Hours]" caption="HD Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Scheduled Remaining Hours]" caption="HD Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty]" caption="HD Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Start Date]" caption="HD Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD End Date]" caption="HD End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Start Date]" caption="SAP Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP End Date]" caption="SAP End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty]" caption="SAP Qty" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty Complete]" caption="SAP Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty Remaining]" caption="SAP Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Qty % Complete]" caption="SAP Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Plan Hours]" caption="SAP Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Actual Hours]" caption="SAP Actual Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Earned Hours]" caption="SAP Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Remaining Hours]" caption="SAP Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SAP Scheduled Remaining Hours]" caption="SAP Scheduled Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Target Hours]" caption="P6 Target Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Remaining Hours Adjusted]" caption="Remaining Hours Adjusted" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Earned Hours]" caption="HD Earned Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Plan Hours]" caption="HD Plan Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty Complete]" caption="HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty Remaining]" caption="HD Qty Remaining" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[HD Qty % Complete]" caption="HD Qty % Complete" measure="1" displayFolder="Quantities" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Data Last Updated]" caption="Data Last Updated" measure="1" displayFolder="" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Ship Date Status Indicator]" caption="Ship Date Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Ship Date]" caption="Ship Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Earned MPS (004)]" caption="Earned MPS (004)" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Active Job Remaining Hours]" caption="Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Planned Job Remaining Hours]" caption="Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Active Job Start Date]" caption="Active Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Planned Job Start Date]" caption="Planned Job Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Job Status Indicator]" caption="Job Status Indicator" measure="1" displayFolder="Indicators" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[What-If Job Remaining Hours]" caption="What-If Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Inactive Job Remaining Hours]" caption="Inactive Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Girder Start Date]" caption="P6 Girder Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Early Start Date]" caption="P6 Early Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Early End Date]" caption="P6 Early End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fab Start Date]" caption="Fab Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fab End Date]" caption="Fab End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Yard Start Date]" caption="Yard Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Yard End Date]" caption="Yard End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Coatings Start Date]" caption="Coatings Start Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Coatings End Date]" caption="Coatings End Date" measure="1" displayFolder="Dates" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[P6 Late Remaining Hours]" caption="P6 Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Active Job Late Remaining Hours]" caption="Active Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Planned Job Late Remaining Hours]" caption="Planned Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[What-If Job Late Remaining Hours]" caption="What-If Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Inactive Job Late Remaining Hours]" caption="Inactive Job Late Remaining Hours" measure="1" displayFolder="Late End Schedule" measureGroup="Scheduling Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Remaining Hours]" caption="Public Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Active Job Remaining Hours]" caption="Public Active Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Planned Job Remaining Hours]" caption="Public Planned Job Remaining Hours" measure="1" displayFolder="Hours" measureGroup="Public Schedule Measures" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Public Start Date]" caption="Public Start Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public End Date]" caption="Public End Date" measure="1" displayFolder="Dates" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public HD Qty]" caption="Public HD Qty" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Public HD Qty Complete]" caption="Public HD Qty Complete" measure="1" displayFolder="Quantities" measureGroup="Public Schedule Measures" count="0"/>
@@ -3500,7 +3506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C200" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4763,7 +4769,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B201" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -6197,7 +6203,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Products" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Products" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C205" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -7640,7 +7646,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Bays" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Bays" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C361" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -9880,7 +9886,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12035,7 +12043,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13740,7 +13750,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -16677,7 +16687,7 @@
         <v>215</v>
       </c>
       <c r="C57" s="3">
-        <v>43980</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -16721,7 +16731,7 @@
         <v>215</v>
       </c>
       <c r="C61" s="3">
-        <v>43980</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -16743,7 +16753,7 @@
         <v>215</v>
       </c>
       <c r="C63" s="3">
-        <v>43980</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -20030,12 +20040,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationWizIdPermissions xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+    <MigrationWizIdPermissionLevels xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+    <MigrationWizIdDocumentLibraryPermissions xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+    <MigrationWizIdSecurityGroups xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+    <MigrationWizId xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20292,21 +20305,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationWizIdPermissions xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-    <MigrationWizIdPermissionLevels xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-    <MigrationWizIdDocumentLibraryPermissions xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-    <MigrationWizIdSecurityGroups xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-    <MigrationWizId xmlns="e3c1d424-5c4e-4dde-982c-2e7112ac5201" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A51473-3926-474A-B0A4-2C7C84CC84DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7537FF06-7D0F-4794-9610-42075F4E6CD2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="80e2c8ce-ca24-4d64-a7ff-1f3dbec7935c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e3c1d424-5c4e-4dde-982c-2e7112ac5201"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20331,18 +20350,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7537FF06-7D0F-4794-9610-42075F4E6CD2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A51473-3926-474A-B0A4-2C7C84CC84DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="80e2c8ce-ca24-4d64-a7ff-1f3dbec7935c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e3c1d424-5c4e-4dde-982c-2e7112ac5201"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/scripts/data/Job Ship Dates.xlsx
+++ b/scripts/data/Job Ship Dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMiller1\git\prodctrlcore\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE24B4F2-0F63-4142-BE3C-6D509F772235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07708C-0590-4FE0-B3DC-D3ADBD99EFB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="2130" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Bays" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="BAYS_HEADER">Bays!$A$1:$C$1</definedName>
+    <definedName name="BAYS_HEADER">Bays!$A$1:$B$1</definedName>
     <definedName name="DATES_HEADER">Dates!$A$1:$C$1</definedName>
     <definedName name="PM_HEADER">PM!$A$1:$B$1</definedName>
-    <definedName name="PRODUCTS_HEADER">Products!$A$1:$C$1</definedName>
+    <definedName name="PRODUCTS_HEADER">Products!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43984.290078356484" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43990.341805671298" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43984.290081250001" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43990.341809490739" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2142,7 +2142,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43984.290084722219" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43990.341814467596" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43984.290088078706" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43990.341819328707" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -9927,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -9936,10 +9936,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>44000</v>
+        <v>44007</v>
       </c>
       <c r="C3" s="3">
-        <v>44014</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9947,10 +9947,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C4" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9958,7 +9958,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C5" s="3">
         <v>44228</v>
@@ -9978,7 +9978,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C7" s="3">
         <v>44237</v>
@@ -9989,10 +9989,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>44124</v>
+        <v>44130</v>
       </c>
       <c r="C8" s="3">
-        <v>44124</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10000,7 +10000,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>45105</v>
+        <v>43987</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -10018,10 +10018,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>44054</v>
+        <v>44068</v>
       </c>
       <c r="C11" s="3">
-        <v>44054</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10029,10 +10029,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>44090</v>
+        <v>44110</v>
       </c>
       <c r="C12" s="3">
-        <v>44090</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10082,7 +10082,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -10100,7 +10100,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>44029</v>
+        <v>43987</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -10109,10 +10109,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C20" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -10129,7 +10129,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -10138,7 +10138,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -10147,10 +10147,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C24" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -10158,7 +10158,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>43994</v>
+        <v>44032</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -10167,7 +10167,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>44018</v>
+        <v>43987</v>
       </c>
       <c r="C26" s="3">
         <v>44020</v>
@@ -10181,7 +10181,7 @@
         <v>44029</v>
       </c>
       <c r="C27" s="3">
-        <v>44067</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -10189,7 +10189,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>44099</v>
+        <v>44096</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -10198,10 +10198,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C29" s="3">
-        <v>43984</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -10209,10 +10209,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C30" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -10231,10 +10231,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C32" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -10242,10 +10242,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C33" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -10253,10 +10253,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C34" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -10264,10 +10264,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C35" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -10275,10 +10275,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C36" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -10286,10 +10286,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>44165</v>
+        <v>43987</v>
       </c>
       <c r="C37" s="3">
-        <v>44165</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -10297,10 +10297,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C38" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -10308,10 +10308,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C39" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -10319,10 +10319,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>44168</v>
+        <v>43987</v>
       </c>
       <c r="C40" s="3">
-        <v>44168</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -10330,10 +10330,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C41" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -10341,10 +10341,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C42" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -10363,10 +10363,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C44" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -10374,10 +10374,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>44029</v>
+        <v>44046</v>
       </c>
       <c r="C45" s="3">
-        <v>44029</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -10396,10 +10396,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C47" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -10407,10 +10407,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C48" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -10418,10 +10418,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C49" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10429,10 +10429,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C50" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -10440,10 +10440,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C51" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -10460,10 +10460,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C53" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -10471,10 +10471,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C54" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -10485,7 +10485,7 @@
         <v>44028</v>
       </c>
       <c r="C55" s="3">
-        <v>44069</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -10493,10 +10493,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C56" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -10504,10 +10504,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C57" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -10515,10 +10515,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>44071</v>
+        <v>44092</v>
       </c>
       <c r="C58" s="3">
-        <v>44071</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -10526,10 +10526,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>44078</v>
+        <v>44099</v>
       </c>
       <c r="C59" s="3">
-        <v>44078</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -10537,10 +10537,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C60" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -10548,10 +10548,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C61" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -10559,10 +10559,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>44046</v>
+        <v>44050</v>
       </c>
       <c r="C62" s="3">
-        <v>44046</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -10570,10 +10570,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C63" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -10581,10 +10581,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C64" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -10592,10 +10592,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C65" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -10603,10 +10603,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C66" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -10614,7 +10614,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -10623,10 +10623,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C68" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -10634,10 +10634,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C69" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -10656,10 +10656,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C71" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -10667,10 +10667,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C72" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -10689,7 +10689,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -10707,10 +10707,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C76" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -10718,7 +10718,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C77" s="3"/>
     </row>
@@ -10727,10 +10727,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C78" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -10738,10 +10738,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C79" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -10749,10 +10749,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="C80" s="3">
-        <v>44042</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -10763,7 +10763,7 @@
         <v>43992</v>
       </c>
       <c r="C81" s="3">
-        <v>44027</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -10771,7 +10771,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C82" s="3"/>
     </row>
@@ -10780,10 +10780,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C83" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -10800,7 +10800,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C85" s="3"/>
     </row>
@@ -10829,10 +10829,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C88" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -10840,10 +10840,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C89" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -10851,10 +10851,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C90" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -10873,10 +10873,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C92" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -10884,10 +10884,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C93" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -10895,10 +10895,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C94" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -10906,7 +10906,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C95" s="3"/>
     </row>
@@ -10915,10 +10915,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C96" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -10937,10 +10937,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3">
-        <v>44111</v>
+        <v>44131</v>
       </c>
       <c r="C98" s="3">
-        <v>44111</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -10948,10 +10948,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>44133</v>
+        <v>44153</v>
       </c>
       <c r="C99" s="3">
-        <v>44133</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -10959,7 +10959,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="C100" s="3"/>
     </row>
@@ -10977,10 +10977,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>43997</v>
+        <v>44004</v>
       </c>
       <c r="C102" s="3">
-        <v>43997</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -10988,10 +10988,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C103" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -10999,10 +10999,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C104" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -11032,7 +11032,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C107" s="3"/>
     </row>
@@ -11041,7 +11041,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C108" s="3"/>
     </row>
@@ -11061,10 +11061,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C110" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -11072,10 +11072,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C111" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -11105,10 +11105,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C114" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -11116,10 +11116,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C115" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -11127,10 +11127,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C116" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -11138,10 +11138,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C117" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -11149,10 +11149,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C118" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -11160,10 +11160,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3">
-        <v>44060</v>
+        <v>44064</v>
       </c>
       <c r="C119" s="3">
-        <v>44060</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -11171,10 +11171,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C120" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -11182,10 +11182,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C121" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -11193,10 +11193,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C122" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -11204,10 +11204,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C123" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -11215,10 +11215,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="3">
-        <v>44040</v>
+        <v>44054</v>
       </c>
       <c r="C124" s="3">
-        <v>44047</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -11237,10 +11237,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C126" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -11259,7 +11259,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C128" s="3"/>
     </row>
@@ -11268,7 +11268,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3">
-        <v>43998</v>
+        <v>44034</v>
       </c>
       <c r="C129" s="3">
         <v>44053</v>
@@ -11279,7 +11279,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3">
-        <v>44021</v>
+        <v>43987</v>
       </c>
       <c r="C130" s="3"/>
     </row>
@@ -11299,10 +11299,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C132" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -11310,7 +11310,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C133" s="3"/>
     </row>
@@ -11328,10 +11328,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C135" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -11348,10 +11348,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C137" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -11359,10 +11359,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C138" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -11370,10 +11370,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="3">
-        <v>43994</v>
+        <v>44014</v>
       </c>
       <c r="C139" s="3">
-        <v>43994</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -11381,10 +11381,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="3">
-        <v>44000</v>
+        <v>43990</v>
       </c>
       <c r="C140" s="3">
-        <v>44000</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -11392,10 +11392,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C141" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -11403,10 +11403,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="3">
-        <v>44074</v>
+        <v>44078</v>
       </c>
       <c r="C142" s="3">
-        <v>44074</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -11414,10 +11414,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C143" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -11425,10 +11425,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C144" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -11436,10 +11436,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C145" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -11447,10 +11447,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C146" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -11458,10 +11458,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C147" s="3">
-        <v>43985</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -11469,10 +11469,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C148" s="3">
-        <v>43987</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -11480,10 +11480,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C149" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -11491,10 +11491,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="3">
-        <v>43990</v>
+        <v>43987</v>
       </c>
       <c r="C150" s="3">
-        <v>43990</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -11511,7 +11511,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3">
-        <v>44029</v>
+        <v>44053</v>
       </c>
       <c r="C152" s="3"/>
     </row>
@@ -11520,7 +11520,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3">
-        <v>44028</v>
+        <v>44060</v>
       </c>
       <c r="C153" s="3"/>
     </row>
@@ -11532,7 +11532,7 @@
         <v>44004</v>
       </c>
       <c r="C154" s="3">
-        <v>44049</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -11540,10 +11540,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="3">
-        <v>43993</v>
+        <v>44020</v>
       </c>
       <c r="C155" s="3">
-        <v>44020</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -11551,10 +11551,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="3">
-        <v>44007</v>
+        <v>44022</v>
       </c>
       <c r="C156" s="3">
-        <v>44026</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -11562,10 +11562,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="3">
-        <v>44069</v>
+        <v>44090</v>
       </c>
       <c r="C157" s="3">
-        <v>44069</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
         <v>44043</v>
       </c>
       <c r="C158" s="3">
-        <v>44057</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -11587,7 +11587,7 @@
         <v>43991</v>
       </c>
       <c r="C159" s="3">
-        <v>44004</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -11595,10 +11595,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C160" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -11606,10 +11606,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C161" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -11620,7 +11620,7 @@
         <v>44019</v>
       </c>
       <c r="C162" s="3">
-        <v>44040</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -11628,10 +11628,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="3">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="C163" s="3">
-        <v>44007</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -11639,10 +11639,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="3">
-        <v>44008</v>
+        <v>43999</v>
       </c>
       <c r="C164" s="3">
-        <v>44008</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -11650,10 +11650,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="3">
-        <v>44014</v>
+        <v>43999</v>
       </c>
       <c r="C165" s="3">
-        <v>44014</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -11661,10 +11661,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C166" s="3">
-        <v>43984</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -11675,7 +11675,7 @@
         <v>44047</v>
       </c>
       <c r="C167" s="3">
-        <v>44056</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -11686,7 +11686,7 @@
         <v>44053</v>
       </c>
       <c r="C168" s="3">
-        <v>44060</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -11694,10 +11694,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C169" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -11705,7 +11705,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C170" s="3"/>
     </row>
@@ -11714,10 +11714,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="3">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C171" s="3">
-        <v>44186</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -11725,10 +11725,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="3">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C172" s="3">
-        <v>44194</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -11736,10 +11736,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="3">
-        <v>44070</v>
+        <v>44091</v>
       </c>
       <c r="C173" s="3">
-        <v>44070</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -11747,10 +11747,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="3">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C174" s="3">
-        <v>44187</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -11758,10 +11758,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="3">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C175" s="3">
-        <v>44218</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -11769,10 +11769,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="3">
-        <v>44105</v>
+        <v>44125</v>
       </c>
       <c r="C176" s="3">
-        <v>44105</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -11780,10 +11780,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="3">
-        <v>44180</v>
+        <v>44203</v>
       </c>
       <c r="C177" s="3">
-        <v>44180</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -11791,10 +11791,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="3">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="C178" s="3">
-        <v>44230</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -11802,10 +11802,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="3">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="C179" s="3">
-        <v>44232</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -11813,10 +11813,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="3">
-        <v>44186</v>
+        <v>44209</v>
       </c>
       <c r="C180" s="3">
-        <v>44186</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11824,10 +11824,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3">
-        <v>44193</v>
+        <v>44214</v>
       </c>
       <c r="C181" s="3">
-        <v>44193</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -11835,7 +11835,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C182" s="3"/>
     </row>
@@ -11844,10 +11844,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C183" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -11855,10 +11855,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C184" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -11866,10 +11866,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C185" s="3">
-        <v>43994</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -11877,10 +11877,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C186" s="3">
-        <v>44004</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -11888,10 +11888,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C187" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -11902,7 +11902,7 @@
         <v>44026</v>
       </c>
       <c r="C188" s="3">
-        <v>44036</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -11910,10 +11910,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="3">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="C189" s="3">
-        <v>44154</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -11921,7 +11921,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C190" s="3">
         <v>43987</v>
@@ -11932,10 +11932,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C191" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -11943,10 +11943,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C192" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -11954,10 +11954,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C193" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -11998,10 +11998,10 @@
         <v>197</v>
       </c>
       <c r="B197" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C197" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -12027,10 +12027,10 @@
         <v>200</v>
       </c>
       <c r="B200" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="C200" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
   </sheetData>
@@ -13750,8 +13750,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13793,7 +13793,7 @@
         <v>203</v>
       </c>
       <c r="C2" s="3">
-        <v>44014</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13804,7 +13804,7 @@
         <v>203</v>
       </c>
       <c r="C3" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13859,7 +13859,7 @@
         <v>207</v>
       </c>
       <c r="C8" s="3">
-        <v>44167</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -13870,7 +13870,7 @@
         <v>203</v>
       </c>
       <c r="C9" s="3">
-        <v>44124</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -13881,7 +13881,7 @@
         <v>203</v>
       </c>
       <c r="C10" s="3">
-        <v>44054</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -13892,7 +13892,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="3">
-        <v>44090</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13947,7 +13947,7 @@
         <v>203</v>
       </c>
       <c r="C16" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13958,7 +13958,7 @@
         <v>206</v>
       </c>
       <c r="C17" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13969,7 +13969,7 @@
         <v>204</v>
       </c>
       <c r="C18" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13980,7 +13980,7 @@
         <v>206</v>
       </c>
       <c r="C19" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13991,7 +13991,7 @@
         <v>203</v>
       </c>
       <c r="C20" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -14013,7 +14013,7 @@
         <v>204</v>
       </c>
       <c r="C22" s="3">
-        <v>44151</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -14024,7 +14024,7 @@
         <v>203</v>
       </c>
       <c r="C23" s="3">
-        <v>44067</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -14035,7 +14035,7 @@
         <v>205</v>
       </c>
       <c r="C24" s="3">
-        <v>44106</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -14046,7 +14046,7 @@
         <v>203</v>
       </c>
       <c r="C25" s="3">
-        <v>43984</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -14057,7 +14057,7 @@
         <v>203</v>
       </c>
       <c r="C26" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -14090,7 +14090,7 @@
         <v>203</v>
       </c>
       <c r="C29" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -14101,7 +14101,7 @@
         <v>203</v>
       </c>
       <c r="C30" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -14112,7 +14112,7 @@
         <v>205</v>
       </c>
       <c r="C31" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -14123,7 +14123,7 @@
         <v>203</v>
       </c>
       <c r="C32" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -14134,7 +14134,7 @@
         <v>203</v>
       </c>
       <c r="C33" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -14145,7 +14145,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -14156,7 +14156,7 @@
         <v>203</v>
       </c>
       <c r="C35" s="3">
-        <v>44165</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -14167,7 +14167,7 @@
         <v>203</v>
       </c>
       <c r="C36" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -14178,7 +14178,7 @@
         <v>203</v>
       </c>
       <c r="C37" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -14189,7 +14189,7 @@
         <v>203</v>
       </c>
       <c r="C38" s="3">
-        <v>44168</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -14200,7 +14200,7 @@
         <v>203</v>
       </c>
       <c r="C39" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -14211,7 +14211,7 @@
         <v>203</v>
       </c>
       <c r="C40" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -14233,7 +14233,7 @@
         <v>203</v>
       </c>
       <c r="C42" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -14244,7 +14244,7 @@
         <v>203</v>
       </c>
       <c r="C43" s="3">
-        <v>44029</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -14255,7 +14255,7 @@
         <v>203</v>
       </c>
       <c r="C44" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -14266,7 +14266,7 @@
         <v>204</v>
       </c>
       <c r="C45" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -14277,7 +14277,7 @@
         <v>203</v>
       </c>
       <c r="C46" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -14288,7 +14288,7 @@
         <v>204</v>
       </c>
       <c r="C47" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -14299,7 +14299,7 @@
         <v>203</v>
       </c>
       <c r="C48" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -14310,7 +14310,7 @@
         <v>204</v>
       </c>
       <c r="C49" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -14321,7 +14321,7 @@
         <v>203</v>
       </c>
       <c r="C50" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -14332,7 +14332,7 @@
         <v>204</v>
       </c>
       <c r="C51" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -14343,7 +14343,7 @@
         <v>203</v>
       </c>
       <c r="C52" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -14354,7 +14354,7 @@
         <v>204</v>
       </c>
       <c r="C53" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -14365,7 +14365,7 @@
         <v>203</v>
       </c>
       <c r="C54" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -14376,7 +14376,7 @@
         <v>203</v>
       </c>
       <c r="C55" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -14387,7 +14387,7 @@
         <v>203</v>
       </c>
       <c r="C56" s="3">
-        <v>44069</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -14398,7 +14398,7 @@
         <v>203</v>
       </c>
       <c r="C57" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -14409,7 +14409,7 @@
         <v>203</v>
       </c>
       <c r="C58" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -14420,7 +14420,7 @@
         <v>203</v>
       </c>
       <c r="C59" s="3">
-        <v>44071</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -14431,7 +14431,7 @@
         <v>203</v>
       </c>
       <c r="C60" s="3">
-        <v>44078</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -14442,7 +14442,7 @@
         <v>203</v>
       </c>
       <c r="C61" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -14453,7 +14453,7 @@
         <v>203</v>
       </c>
       <c r="C62" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -14464,7 +14464,7 @@
         <v>203</v>
       </c>
       <c r="C63" s="3">
-        <v>44046</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -14475,7 +14475,7 @@
         <v>203</v>
       </c>
       <c r="C64" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -14486,7 +14486,7 @@
         <v>203</v>
       </c>
       <c r="C65" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -14497,7 +14497,7 @@
         <v>203</v>
       </c>
       <c r="C66" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -14508,7 +14508,7 @@
         <v>204</v>
       </c>
       <c r="C67" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -14519,7 +14519,7 @@
         <v>203</v>
       </c>
       <c r="C68" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -14530,7 +14530,7 @@
         <v>205</v>
       </c>
       <c r="C69" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -14541,7 +14541,7 @@
         <v>203</v>
       </c>
       <c r="C70" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -14552,7 +14552,7 @@
         <v>203</v>
       </c>
       <c r="C71" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -14574,7 +14574,7 @@
         <v>203</v>
       </c>
       <c r="C73" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -14585,7 +14585,7 @@
         <v>203</v>
       </c>
       <c r="C74" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -14607,7 +14607,7 @@
         <v>206</v>
       </c>
       <c r="C76" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -14618,7 +14618,7 @@
         <v>203</v>
       </c>
       <c r="C77" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -14629,7 +14629,7 @@
         <v>203</v>
       </c>
       <c r="C78" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -14640,7 +14640,7 @@
         <v>204</v>
       </c>
       <c r="C79" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -14651,7 +14651,7 @@
         <v>203</v>
       </c>
       <c r="C80" s="3">
-        <v>44042</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -14662,7 +14662,7 @@
         <v>203</v>
       </c>
       <c r="C81" s="3">
-        <v>44027</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -14673,7 +14673,7 @@
         <v>203</v>
       </c>
       <c r="C82" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -14695,7 +14695,7 @@
         <v>203</v>
       </c>
       <c r="C84" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -14706,7 +14706,7 @@
         <v>203</v>
       </c>
       <c r="C85" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -14717,7 +14717,7 @@
         <v>203</v>
       </c>
       <c r="C86" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -14739,7 +14739,7 @@
         <v>203</v>
       </c>
       <c r="C88" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -14750,7 +14750,7 @@
         <v>203</v>
       </c>
       <c r="C89" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -14761,7 +14761,7 @@
         <v>203</v>
       </c>
       <c r="C90" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -14772,7 +14772,7 @@
         <v>205</v>
       </c>
       <c r="C91" s="3">
-        <v>43994</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -14783,7 +14783,7 @@
         <v>203</v>
       </c>
       <c r="C92" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -14794,7 +14794,7 @@
         <v>205</v>
       </c>
       <c r="C93" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -14816,7 +14816,7 @@
         <v>203</v>
       </c>
       <c r="C95" s="3">
-        <v>44111</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -14827,7 +14827,7 @@
         <v>203</v>
       </c>
       <c r="C96" s="3">
-        <v>44133</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -14838,7 +14838,7 @@
         <v>205</v>
       </c>
       <c r="C97" s="3">
-        <v>44018</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -14849,7 +14849,7 @@
         <v>203</v>
       </c>
       <c r="C98" s="3">
-        <v>43997</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -14860,7 +14860,7 @@
         <v>203</v>
       </c>
       <c r="C99" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -14871,7 +14871,7 @@
         <v>203</v>
       </c>
       <c r="C100" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -14904,7 +14904,7 @@
         <v>205</v>
       </c>
       <c r="C103" s="3">
-        <v>43993</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -14915,7 +14915,7 @@
         <v>205</v>
       </c>
       <c r="C104" s="3">
-        <v>43993</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -14937,7 +14937,7 @@
         <v>203</v>
       </c>
       <c r="C106" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -14948,7 +14948,7 @@
         <v>203</v>
       </c>
       <c r="C107" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -14992,7 +14992,7 @@
         <v>203</v>
       </c>
       <c r="C111" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -15003,7 +15003,7 @@
         <v>204</v>
       </c>
       <c r="C112" s="3">
-        <v>44182</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -15014,7 +15014,7 @@
         <v>203</v>
       </c>
       <c r="C113" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -15025,7 +15025,7 @@
         <v>203</v>
       </c>
       <c r="C114" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -15036,7 +15036,7 @@
         <v>203</v>
       </c>
       <c r="C115" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -15047,7 +15047,7 @@
         <v>203</v>
       </c>
       <c r="C116" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -15058,7 +15058,7 @@
         <v>203</v>
       </c>
       <c r="C117" s="3">
-        <v>44060</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -15069,7 +15069,7 @@
         <v>203</v>
       </c>
       <c r="C118" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -15080,7 +15080,7 @@
         <v>203</v>
       </c>
       <c r="C119" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -15091,7 +15091,7 @@
         <v>203</v>
       </c>
       <c r="C120" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -15102,7 +15102,7 @@
         <v>203</v>
       </c>
       <c r="C121" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -15113,7 +15113,7 @@
         <v>203</v>
       </c>
       <c r="C122" s="3">
-        <v>44047</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -15135,7 +15135,7 @@
         <v>203</v>
       </c>
       <c r="C124" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -15157,7 +15157,7 @@
         <v>205</v>
       </c>
       <c r="C126" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -15190,7 +15190,7 @@
         <v>203</v>
       </c>
       <c r="C129" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -15201,7 +15201,7 @@
         <v>205</v>
       </c>
       <c r="C130" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -15212,7 +15212,7 @@
         <v>203</v>
       </c>
       <c r="C131" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -15223,7 +15223,7 @@
         <v>205</v>
       </c>
       <c r="C132" s="3">
-        <v>44036</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -15234,7 +15234,7 @@
         <v>203</v>
       </c>
       <c r="C133" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -15245,7 +15245,7 @@
         <v>203</v>
       </c>
       <c r="C134" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -15256,7 +15256,7 @@
         <v>203</v>
       </c>
       <c r="C135" s="3">
-        <v>43994</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -15267,7 +15267,7 @@
         <v>203</v>
       </c>
       <c r="C136" s="3">
-        <v>44000</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -15278,7 +15278,7 @@
         <v>205</v>
       </c>
       <c r="C137" s="3">
-        <v>44092</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -15289,7 +15289,7 @@
         <v>203</v>
       </c>
       <c r="C138" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -15300,7 +15300,7 @@
         <v>203</v>
       </c>
       <c r="C139" s="3">
-        <v>44074</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -15311,7 +15311,7 @@
         <v>203</v>
       </c>
       <c r="C140" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -15322,7 +15322,7 @@
         <v>203</v>
       </c>
       <c r="C141" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -15333,7 +15333,7 @@
         <v>203</v>
       </c>
       <c r="C142" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -15344,7 +15344,7 @@
         <v>203</v>
       </c>
       <c r="C143" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -15355,7 +15355,7 @@
         <v>203</v>
       </c>
       <c r="C144" s="3">
-        <v>43985</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -15366,7 +15366,7 @@
         <v>203</v>
       </c>
       <c r="C145" s="3">
-        <v>43987</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -15377,7 +15377,7 @@
         <v>203</v>
       </c>
       <c r="C146" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -15388,7 +15388,7 @@
         <v>203</v>
       </c>
       <c r="C147" s="3">
-        <v>43990</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -15399,7 +15399,7 @@
         <v>205</v>
       </c>
       <c r="C148" s="3">
-        <v>44070</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -15410,7 +15410,7 @@
         <v>205</v>
       </c>
       <c r="C149" s="3">
-        <v>44077</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -15421,7 +15421,7 @@
         <v>205</v>
       </c>
       <c r="C150" s="3">
-        <v>44085</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -15432,7 +15432,7 @@
         <v>203</v>
       </c>
       <c r="C151" s="3">
-        <v>44049</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -15443,7 +15443,7 @@
         <v>203</v>
       </c>
       <c r="C152" s="3">
-        <v>44020</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -15454,7 +15454,7 @@
         <v>203</v>
       </c>
       <c r="C153" s="3">
-        <v>44026</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -15465,7 +15465,7 @@
         <v>203</v>
       </c>
       <c r="C154" s="3">
-        <v>44069</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -15476,7 +15476,7 @@
         <v>203</v>
       </c>
       <c r="C155" s="3">
-        <v>44057</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -15487,7 +15487,7 @@
         <v>203</v>
       </c>
       <c r="C156" s="3">
-        <v>44004</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -15498,7 +15498,7 @@
         <v>203</v>
       </c>
       <c r="C157" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -15509,7 +15509,7 @@
         <v>203</v>
       </c>
       <c r="C158" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -15520,7 +15520,7 @@
         <v>203</v>
       </c>
       <c r="C159" s="3">
-        <v>44040</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -15531,7 +15531,7 @@
         <v>203</v>
       </c>
       <c r="C160" s="3">
-        <v>44007</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -15542,7 +15542,7 @@
         <v>203</v>
       </c>
       <c r="C161" s="3">
-        <v>44008</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -15553,7 +15553,7 @@
         <v>203</v>
       </c>
       <c r="C162" s="3">
-        <v>44014</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -15564,7 +15564,7 @@
         <v>203</v>
       </c>
       <c r="C163" s="3">
-        <v>43984</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -15575,7 +15575,7 @@
         <v>203</v>
       </c>
       <c r="C164" s="3">
-        <v>44056</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -15586,7 +15586,7 @@
         <v>203</v>
       </c>
       <c r="C165" s="3">
-        <v>44060</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -15597,7 +15597,7 @@
         <v>203</v>
       </c>
       <c r="C166" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -15608,7 +15608,7 @@
         <v>203</v>
       </c>
       <c r="C167" s="3">
-        <v>44186</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -15619,7 +15619,7 @@
         <v>203</v>
       </c>
       <c r="C168" s="3">
-        <v>44194</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -15630,7 +15630,7 @@
         <v>204</v>
       </c>
       <c r="C169" s="3">
-        <v>44216</v>
+        <v>44215</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -15641,7 +15641,7 @@
         <v>203</v>
       </c>
       <c r="C170" s="3">
-        <v>44070</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -15652,7 +15652,7 @@
         <v>204</v>
       </c>
       <c r="C171" s="3">
-        <v>44169</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -15663,7 +15663,7 @@
         <v>203</v>
       </c>
       <c r="C172" s="3">
-        <v>44187</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -15674,7 +15674,7 @@
         <v>204</v>
       </c>
       <c r="C173" s="3">
-        <v>44237</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -15685,7 +15685,7 @@
         <v>203</v>
       </c>
       <c r="C174" s="3">
-        <v>44218</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -15696,7 +15696,7 @@
         <v>204</v>
       </c>
       <c r="C175" s="3">
-        <v>44249</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -15707,7 +15707,7 @@
         <v>203</v>
       </c>
       <c r="C176" s="3">
-        <v>44105</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -15718,7 +15718,7 @@
         <v>203</v>
       </c>
       <c r="C177" s="3">
-        <v>44180</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -15729,7 +15729,7 @@
         <v>203</v>
       </c>
       <c r="C178" s="3">
-        <v>44230</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -15740,7 +15740,7 @@
         <v>204</v>
       </c>
       <c r="C179" s="3">
-        <v>44251</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -15751,7 +15751,7 @@
         <v>203</v>
       </c>
       <c r="C180" s="3">
-        <v>44232</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -15762,7 +15762,7 @@
         <v>204</v>
       </c>
       <c r="C181" s="3">
-        <v>44253</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -15773,7 +15773,7 @@
         <v>203</v>
       </c>
       <c r="C182" s="3">
-        <v>44186</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -15784,7 +15784,7 @@
         <v>203</v>
       </c>
       <c r="C183" s="3">
-        <v>44193</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -15795,7 +15795,7 @@
         <v>205</v>
       </c>
       <c r="C184" s="3">
-        <v>44008</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -15806,7 +15806,7 @@
         <v>203</v>
       </c>
       <c r="C185" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -15817,7 +15817,7 @@
         <v>203</v>
       </c>
       <c r="C186" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -15828,7 +15828,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="3">
-        <v>43994</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -15839,7 +15839,7 @@
         <v>203</v>
       </c>
       <c r="C188" s="3">
-        <v>44004</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -15850,7 +15850,7 @@
         <v>204</v>
       </c>
       <c r="C189" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -15861,7 +15861,7 @@
         <v>205</v>
       </c>
       <c r="C190" s="3">
-        <v>44039</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -15872,7 +15872,7 @@
         <v>203</v>
       </c>
       <c r="C191" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -15883,7 +15883,7 @@
         <v>203</v>
       </c>
       <c r="C192" s="3">
-        <v>44036</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -15894,7 +15894,7 @@
         <v>203</v>
       </c>
       <c r="C193" s="3">
-        <v>44154</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -15916,7 +15916,7 @@
         <v>203</v>
       </c>
       <c r="C195" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -15927,7 +15927,7 @@
         <v>203</v>
       </c>
       <c r="C196" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -15938,7 +15938,7 @@
         <v>203</v>
       </c>
       <c r="C197" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -15993,7 +15993,7 @@
         <v>205</v>
       </c>
       <c r="C202" s="3">
-        <v>44092</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -16004,7 +16004,7 @@
         <v>203</v>
       </c>
       <c r="C203" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -16026,7 +16026,7 @@
         <v>203</v>
       </c>
       <c r="C205" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
   </sheetData>
@@ -16039,7 +16039,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -16082,7 +16082,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -16093,7 +16093,7 @@
         <v>215</v>
       </c>
       <c r="C3" s="3">
-        <v>44000</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -16104,7 +16104,7 @@
         <v>216</v>
       </c>
       <c r="C4" s="3">
-        <v>44014</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -16115,7 +16115,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -16126,7 +16126,7 @@
         <v>216</v>
       </c>
       <c r="C6" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -16137,7 +16137,7 @@
         <v>215</v>
       </c>
       <c r="C7" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -16159,7 +16159,7 @@
         <v>215</v>
       </c>
       <c r="C9" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -16170,7 +16170,7 @@
         <v>215</v>
       </c>
       <c r="C10" s="3">
-        <v>44141</v>
+        <v>44147</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -16181,7 +16181,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="3">
-        <v>44124</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -16192,7 +16192,7 @@
         <v>215</v>
       </c>
       <c r="C12" s="3">
-        <v>45105</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -16214,7 +16214,7 @@
         <v>215</v>
       </c>
       <c r="C14" s="3">
-        <v>44057</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -16225,7 +16225,7 @@
         <v>217</v>
       </c>
       <c r="C15" s="3">
-        <v>44054</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -16236,7 +16236,7 @@
         <v>215</v>
       </c>
       <c r="C16" s="3">
-        <v>44095</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -16247,7 +16247,7 @@
         <v>217</v>
       </c>
       <c r="C17" s="3">
-        <v>44090</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -16346,7 +16346,7 @@
         <v>215</v>
       </c>
       <c r="C26" s="3">
-        <v>44029</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -16357,7 +16357,7 @@
         <v>215</v>
       </c>
       <c r="C27" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -16379,7 +16379,7 @@
         <v>215</v>
       </c>
       <c r="C29" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -16390,7 +16390,7 @@
         <v>215</v>
       </c>
       <c r="C30" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -16401,7 +16401,7 @@
         <v>215</v>
       </c>
       <c r="C31" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -16412,7 +16412,7 @@
         <v>216</v>
       </c>
       <c r="C32" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -16423,7 +16423,7 @@
         <v>215</v>
       </c>
       <c r="C33" s="3">
-        <v>43994</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -16467,7 +16467,7 @@
         <v>216</v>
       </c>
       <c r="C37" s="3">
-        <v>44067</v>
+        <v>44071</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -16478,7 +16478,7 @@
         <v>215</v>
       </c>
       <c r="C38" s="3">
-        <v>44099</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -16500,7 +16500,7 @@
         <v>219</v>
       </c>
       <c r="C40" s="3">
-        <v>44005</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -16511,7 +16511,7 @@
         <v>216</v>
       </c>
       <c r="C41" s="3">
-        <v>43984</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -16522,7 +16522,7 @@
         <v>215</v>
       </c>
       <c r="C42" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -16533,7 +16533,7 @@
         <v>216</v>
       </c>
       <c r="C43" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -16577,7 +16577,7 @@
         <v>215</v>
       </c>
       <c r="C47" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -16588,7 +16588,7 @@
         <v>217</v>
       </c>
       <c r="C48" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -16599,7 +16599,7 @@
         <v>218</v>
       </c>
       <c r="C49" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -16610,7 +16610,7 @@
         <v>215</v>
       </c>
       <c r="C50" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -16621,7 +16621,7 @@
         <v>217</v>
       </c>
       <c r="C51" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -16632,7 +16632,7 @@
         <v>218</v>
       </c>
       <c r="C52" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -16643,7 +16643,7 @@
         <v>215</v>
       </c>
       <c r="C53" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -16654,7 +16654,7 @@
         <v>216</v>
       </c>
       <c r="C54" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -16665,7 +16665,7 @@
         <v>215</v>
       </c>
       <c r="C55" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -16676,7 +16676,7 @@
         <v>218</v>
       </c>
       <c r="C56" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -16687,7 +16687,7 @@
         <v>215</v>
       </c>
       <c r="C57" s="3">
-        <v>44193</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -16698,7 +16698,7 @@
         <v>218</v>
       </c>
       <c r="C58" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -16709,7 +16709,7 @@
         <v>215</v>
       </c>
       <c r="C59" s="3">
-        <v>44168</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -16720,7 +16720,7 @@
         <v>218</v>
       </c>
       <c r="C60" s="3">
-        <v>44165</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -16742,7 +16742,7 @@
         <v>218</v>
       </c>
       <c r="C62" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -16764,7 +16764,7 @@
         <v>218</v>
       </c>
       <c r="C64" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -16775,7 +16775,7 @@
         <v>215</v>
       </c>
       <c r="C65" s="3">
-        <v>44173</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -16786,7 +16786,7 @@
         <v>218</v>
       </c>
       <c r="C66" s="3">
-        <v>44168</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -16797,7 +16797,7 @@
         <v>215</v>
       </c>
       <c r="C67" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -16808,7 +16808,7 @@
         <v>217</v>
       </c>
       <c r="C68" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -16819,7 +16819,7 @@
         <v>215</v>
       </c>
       <c r="C69" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -16830,7 +16830,7 @@
         <v>217</v>
       </c>
       <c r="C70" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -16841,7 +16841,7 @@
         <v>215</v>
       </c>
       <c r="C71" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -16852,7 +16852,7 @@
         <v>216</v>
       </c>
       <c r="C72" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -16863,7 +16863,7 @@
         <v>215</v>
       </c>
       <c r="C73" s="3">
-        <v>44043</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -16874,7 +16874,7 @@
         <v>216</v>
       </c>
       <c r="C74" s="3">
-        <v>44040</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -16907,7 +16907,7 @@
         <v>215</v>
       </c>
       <c r="C77" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -16918,7 +16918,7 @@
         <v>218</v>
       </c>
       <c r="C78" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -16929,7 +16929,7 @@
         <v>215</v>
       </c>
       <c r="C79" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -16940,7 +16940,7 @@
         <v>216</v>
       </c>
       <c r="C80" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -16951,7 +16951,7 @@
         <v>215</v>
       </c>
       <c r="C81" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -16962,7 +16962,7 @@
         <v>218</v>
       </c>
       <c r="C82" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -16973,7 +16973,7 @@
         <v>215</v>
       </c>
       <c r="C83" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -16984,7 +16984,7 @@
         <v>216</v>
       </c>
       <c r="C84" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -16995,7 +16995,7 @@
         <v>215</v>
       </c>
       <c r="C85" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -17006,7 +17006,7 @@
         <v>216</v>
       </c>
       <c r="C86" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -17028,7 +17028,7 @@
         <v>215</v>
       </c>
       <c r="C88" s="3">
-        <v>44043</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -17039,7 +17039,7 @@
         <v>217</v>
       </c>
       <c r="C89" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -17050,7 +17050,7 @@
         <v>218</v>
       </c>
       <c r="C90" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -17061,7 +17061,7 @@
         <v>215</v>
       </c>
       <c r="C91" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -17072,7 +17072,7 @@
         <v>217</v>
       </c>
       <c r="C92" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -17083,7 +17083,7 @@
         <v>218</v>
       </c>
       <c r="C93" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -17105,7 +17105,7 @@
         <v>218</v>
       </c>
       <c r="C95" s="3">
-        <v>44078</v>
+        <v>44056</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -17116,7 +17116,7 @@
         <v>215</v>
       </c>
       <c r="C96" s="3">
-        <v>43993</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -17127,7 +17127,7 @@
         <v>217</v>
       </c>
       <c r="C97" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -17138,7 +17138,7 @@
         <v>215</v>
       </c>
       <c r="C98" s="3">
-        <v>43994</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -17149,7 +17149,7 @@
         <v>217</v>
       </c>
       <c r="C99" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -17160,7 +17160,7 @@
         <v>215</v>
       </c>
       <c r="C100" s="3">
-        <v>44076</v>
+        <v>44097</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -17171,7 +17171,7 @@
         <v>217</v>
       </c>
       <c r="C101" s="3">
-        <v>44071</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -17182,7 +17182,7 @@
         <v>215</v>
       </c>
       <c r="C102" s="3">
-        <v>44084</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -17193,7 +17193,7 @@
         <v>217</v>
       </c>
       <c r="C103" s="3">
-        <v>44078</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -17204,7 +17204,7 @@
         <v>215</v>
       </c>
       <c r="C104" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -17215,7 +17215,7 @@
         <v>217</v>
       </c>
       <c r="C105" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -17226,7 +17226,7 @@
         <v>218</v>
       </c>
       <c r="C106" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -17237,7 +17237,7 @@
         <v>215</v>
       </c>
       <c r="C107" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -17248,7 +17248,7 @@
         <v>217</v>
       </c>
       <c r="C108" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -17259,7 +17259,7 @@
         <v>215</v>
       </c>
       <c r="C109" s="3">
-        <v>44049</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -17270,7 +17270,7 @@
         <v>216</v>
       </c>
       <c r="C110" s="3">
-        <v>44046</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -17281,7 +17281,7 @@
         <v>215</v>
       </c>
       <c r="C111" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -17292,7 +17292,7 @@
         <v>217</v>
       </c>
       <c r="C112" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -17303,7 +17303,7 @@
         <v>215</v>
       </c>
       <c r="C113" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -17314,7 +17314,7 @@
         <v>217</v>
       </c>
       <c r="C114" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -17325,7 +17325,7 @@
         <v>215</v>
       </c>
       <c r="C115" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -17336,7 +17336,7 @@
         <v>217</v>
       </c>
       <c r="C116" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -17347,7 +17347,7 @@
         <v>215</v>
       </c>
       <c r="C117" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -17358,7 +17358,7 @@
         <v>217</v>
       </c>
       <c r="C118" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -17369,7 +17369,7 @@
         <v>215</v>
       </c>
       <c r="C119" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -17380,7 +17380,7 @@
         <v>215</v>
       </c>
       <c r="C120" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -17391,7 +17391,7 @@
         <v>216</v>
       </c>
       <c r="C121" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -17413,7 +17413,7 @@
         <v>217</v>
       </c>
       <c r="C123" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -17446,7 +17446,7 @@
         <v>215</v>
       </c>
       <c r="C126" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -17457,7 +17457,7 @@
         <v>216</v>
       </c>
       <c r="C127" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -17468,7 +17468,7 @@
         <v>215</v>
       </c>
       <c r="C128" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -17479,7 +17479,7 @@
         <v>218</v>
       </c>
       <c r="C129" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -17512,7 +17512,7 @@
         <v>215</v>
       </c>
       <c r="C132" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -17523,7 +17523,7 @@
         <v>218</v>
       </c>
       <c r="C133" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -17534,7 +17534,7 @@
         <v>215</v>
       </c>
       <c r="C134" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -17545,7 +17545,7 @@
         <v>219</v>
       </c>
       <c r="C135" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -17556,7 +17556,7 @@
         <v>215</v>
       </c>
       <c r="C136" s="3">
-        <v>43986</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -17567,7 +17567,7 @@
         <v>217</v>
       </c>
       <c r="C137" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -17578,7 +17578,7 @@
         <v>215</v>
       </c>
       <c r="C138" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -17589,7 +17589,7 @@
         <v>217</v>
       </c>
       <c r="C139" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -17600,7 +17600,7 @@
         <v>218</v>
       </c>
       <c r="C140" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -17611,7 +17611,7 @@
         <v>215</v>
       </c>
       <c r="C141" s="3">
-        <v>44047</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -17622,7 +17622,7 @@
         <v>216</v>
       </c>
       <c r="C142" s="3">
-        <v>44042</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -17644,7 +17644,7 @@
         <v>218</v>
       </c>
       <c r="C144" s="3">
-        <v>44027</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -17655,7 +17655,7 @@
         <v>215</v>
       </c>
       <c r="C145" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -17677,7 +17677,7 @@
         <v>215</v>
       </c>
       <c r="C147" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -17721,7 +17721,7 @@
         <v>215</v>
       </c>
       <c r="C151" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -17732,7 +17732,7 @@
         <v>218</v>
       </c>
       <c r="C152" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -17743,7 +17743,7 @@
         <v>215</v>
       </c>
       <c r="C153" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -17754,7 +17754,7 @@
         <v>217</v>
       </c>
       <c r="C154" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -17765,7 +17765,7 @@
         <v>215</v>
       </c>
       <c r="C155" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -17776,7 +17776,7 @@
         <v>217</v>
       </c>
       <c r="C156" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -17798,7 +17798,7 @@
         <v>215</v>
       </c>
       <c r="C158" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -17809,7 +17809,7 @@
         <v>215</v>
       </c>
       <c r="C159" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -17820,7 +17820,7 @@
         <v>215</v>
       </c>
       <c r="C160" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -17831,7 +17831,7 @@
         <v>215</v>
       </c>
       <c r="C161" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -17842,7 +17842,7 @@
         <v>215</v>
       </c>
       <c r="C162" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -17853,7 +17853,7 @@
         <v>219</v>
       </c>
       <c r="C163" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -17886,7 +17886,7 @@
         <v>218</v>
       </c>
       <c r="C166" s="3">
-        <v>44172</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -17897,7 +17897,7 @@
         <v>215</v>
       </c>
       <c r="C167" s="3">
-        <v>44116</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -17908,7 +17908,7 @@
         <v>217</v>
       </c>
       <c r="C168" s="3">
-        <v>44111</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -17919,7 +17919,7 @@
         <v>215</v>
       </c>
       <c r="C169" s="3">
-        <v>44138</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -17930,7 +17930,7 @@
         <v>217</v>
       </c>
       <c r="C170" s="3">
-        <v>44133</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -17963,7 +17963,7 @@
         <v>215</v>
       </c>
       <c r="C173" s="3">
-        <v>44000</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -17974,7 +17974,7 @@
         <v>216</v>
       </c>
       <c r="C174" s="3">
-        <v>43997</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -17985,7 +17985,7 @@
         <v>215</v>
       </c>
       <c r="C175" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -17996,7 +17996,7 @@
         <v>216</v>
       </c>
       <c r="C176" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -18007,7 +18007,7 @@
         <v>215</v>
       </c>
       <c r="C177" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -18018,7 +18018,7 @@
         <v>216</v>
       </c>
       <c r="C178" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -18073,7 +18073,7 @@
         <v>215</v>
       </c>
       <c r="C183" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -18084,7 +18084,7 @@
         <v>215</v>
       </c>
       <c r="C184" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -18117,7 +18117,7 @@
         <v>215</v>
       </c>
       <c r="C187" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -18128,7 +18128,7 @@
         <v>215</v>
       </c>
       <c r="C188" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -18139,7 +18139,7 @@
         <v>218</v>
       </c>
       <c r="C189" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -18194,7 +18194,7 @@
         <v>215</v>
       </c>
       <c r="C194" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -18205,7 +18205,7 @@
         <v>217</v>
       </c>
       <c r="C195" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -18216,7 +18216,7 @@
         <v>215</v>
       </c>
       <c r="C196" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -18227,7 +18227,7 @@
         <v>217</v>
       </c>
       <c r="C197" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -18238,7 +18238,7 @@
         <v>215</v>
       </c>
       <c r="C198" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -18249,7 +18249,7 @@
         <v>217</v>
       </c>
       <c r="C199" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -18260,7 +18260,7 @@
         <v>215</v>
       </c>
       <c r="C200" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -18271,7 +18271,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -18282,7 +18282,7 @@
         <v>215</v>
       </c>
       <c r="C202" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -18293,7 +18293,7 @@
         <v>217</v>
       </c>
       <c r="C203" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -18304,7 +18304,7 @@
         <v>215</v>
       </c>
       <c r="C204" s="3">
-        <v>44074</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -18315,7 +18315,7 @@
         <v>216</v>
       </c>
       <c r="C205" s="3">
-        <v>44069</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -18326,7 +18326,7 @@
         <v>215</v>
       </c>
       <c r="C206" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -18337,7 +18337,7 @@
         <v>216</v>
       </c>
       <c r="C207" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -18348,7 +18348,7 @@
         <v>215</v>
       </c>
       <c r="C208" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -18359,7 +18359,7 @@
         <v>216</v>
       </c>
       <c r="C209" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -18370,7 +18370,7 @@
         <v>215</v>
       </c>
       <c r="C210" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -18381,7 +18381,7 @@
         <v>216</v>
       </c>
       <c r="C211" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -18392,7 +18392,7 @@
         <v>215</v>
       </c>
       <c r="C212" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -18403,7 +18403,7 @@
         <v>216</v>
       </c>
       <c r="C213" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -18414,7 +18414,7 @@
         <v>215</v>
       </c>
       <c r="C214" s="3">
-        <v>44047</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -18425,7 +18425,7 @@
         <v>217</v>
       </c>
       <c r="C215" s="3">
-        <v>44047</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -18469,7 +18469,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -18502,7 +18502,7 @@
         <v>215</v>
       </c>
       <c r="C222" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -18513,7 +18513,7 @@
         <v>215</v>
       </c>
       <c r="C223" s="3">
-        <v>43998</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -18557,7 +18557,7 @@
         <v>215</v>
       </c>
       <c r="C227" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -18568,7 +18568,7 @@
         <v>216</v>
       </c>
       <c r="C228" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -18579,7 +18579,7 @@
         <v>215</v>
       </c>
       <c r="C229" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -18601,7 +18601,7 @@
         <v>215</v>
       </c>
       <c r="C231" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -18612,7 +18612,7 @@
         <v>216</v>
       </c>
       <c r="C232" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -18634,7 +18634,7 @@
         <v>215</v>
       </c>
       <c r="C234" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -18645,7 +18645,7 @@
         <v>217</v>
       </c>
       <c r="C235" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -18667,7 +18667,7 @@
         <v>217</v>
       </c>
       <c r="C237" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -18678,7 +18678,7 @@
         <v>218</v>
       </c>
       <c r="C238" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -18689,7 +18689,7 @@
         <v>215</v>
       </c>
       <c r="C239" s="3">
-        <v>43999</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -18700,7 +18700,7 @@
         <v>217</v>
       </c>
       <c r="C240" s="3">
-        <v>43994</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -18711,7 +18711,7 @@
         <v>215</v>
       </c>
       <c r="C241" s="3">
-        <v>44005</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -18722,7 +18722,7 @@
         <v>217</v>
       </c>
       <c r="C242" s="3">
-        <v>44000</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -18733,7 +18733,7 @@
         <v>215</v>
       </c>
       <c r="C243" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -18744,7 +18744,7 @@
         <v>218</v>
       </c>
       <c r="C244" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -18755,7 +18755,7 @@
         <v>215</v>
       </c>
       <c r="C245" s="3">
-        <v>44089</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -18766,7 +18766,7 @@
         <v>216</v>
       </c>
       <c r="C246" s="3">
-        <v>44084</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -18777,7 +18777,7 @@
         <v>215</v>
       </c>
       <c r="C247" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -18788,7 +18788,7 @@
         <v>216</v>
       </c>
       <c r="C248" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -18799,7 +18799,7 @@
         <v>215</v>
       </c>
       <c r="C249" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -18810,7 +18810,7 @@
         <v>217</v>
       </c>
       <c r="C250" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -18821,7 +18821,7 @@
         <v>218</v>
       </c>
       <c r="C251" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -18832,7 +18832,7 @@
         <v>215</v>
       </c>
       <c r="C252" s="3">
-        <v>43984</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -18843,7 +18843,7 @@
         <v>216</v>
       </c>
       <c r="C253" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -18854,7 +18854,7 @@
         <v>215</v>
       </c>
       <c r="C254" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -18865,7 +18865,7 @@
         <v>217</v>
       </c>
       <c r="C255" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -18876,7 +18876,7 @@
         <v>215</v>
       </c>
       <c r="C256" s="3">
-        <v>43990</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -18887,7 +18887,7 @@
         <v>216</v>
       </c>
       <c r="C257" s="3">
-        <v>43985</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -18909,7 +18909,7 @@
         <v>216</v>
       </c>
       <c r="C259" s="3">
-        <v>43987</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -18920,7 +18920,7 @@
         <v>215</v>
       </c>
       <c r="C260" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -18931,7 +18931,7 @@
         <v>217</v>
       </c>
       <c r="C261" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -18942,7 +18942,7 @@
         <v>215</v>
       </c>
       <c r="C262" s="3">
-        <v>43993</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -18953,7 +18953,7 @@
         <v>217</v>
       </c>
       <c r="C263" s="3">
-        <v>43990</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -18975,7 +18975,7 @@
         <v>215</v>
       </c>
       <c r="C265" s="3">
-        <v>44029</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -18986,7 +18986,7 @@
         <v>215</v>
       </c>
       <c r="C266" s="3">
-        <v>44028</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -19008,7 +19008,7 @@
         <v>217</v>
       </c>
       <c r="C268" s="3">
-        <v>44049</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -19019,7 +19019,7 @@
         <v>215</v>
       </c>
       <c r="C269" s="3">
-        <v>43999</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -19030,7 +19030,7 @@
         <v>217</v>
       </c>
       <c r="C270" s="3">
-        <v>44020</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -19041,7 +19041,7 @@
         <v>215</v>
       </c>
       <c r="C271" s="3">
-        <v>44014</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -19052,7 +19052,7 @@
         <v>217</v>
       </c>
       <c r="C272" s="3">
-        <v>44026</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -19063,7 +19063,7 @@
         <v>215</v>
       </c>
       <c r="C273" s="3">
-        <v>44074</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -19074,7 +19074,7 @@
         <v>217</v>
       </c>
       <c r="C274" s="3">
-        <v>44069</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -19096,7 +19096,7 @@
         <v>218</v>
       </c>
       <c r="C276" s="3">
-        <v>44057</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -19118,7 +19118,7 @@
         <v>217</v>
       </c>
       <c r="C278" s="3">
-        <v>44034</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -19129,7 +19129,7 @@
         <v>218</v>
       </c>
       <c r="C279" s="3">
-        <v>44004</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -19140,7 +19140,7 @@
         <v>215</v>
       </c>
       <c r="C280" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -19151,7 +19151,7 @@
         <v>217</v>
       </c>
       <c r="C281" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -19162,7 +19162,7 @@
         <v>215</v>
       </c>
       <c r="C282" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -19173,7 +19173,7 @@
         <v>216</v>
       </c>
       <c r="C283" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -19195,7 +19195,7 @@
         <v>218</v>
       </c>
       <c r="C285" s="3">
-        <v>44040</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -19217,7 +19217,7 @@
         <v>217</v>
       </c>
       <c r="C287" s="3">
-        <v>44007</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -19228,7 +19228,7 @@
         <v>215</v>
       </c>
       <c r="C288" s="3">
-        <v>44013</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -19239,7 +19239,7 @@
         <v>217</v>
       </c>
       <c r="C289" s="3">
-        <v>44008</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -19250,7 +19250,7 @@
         <v>215</v>
       </c>
       <c r="C290" s="3">
-        <v>44014</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -19261,7 +19261,7 @@
         <v>217</v>
       </c>
       <c r="C291" s="3">
-        <v>44014</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -19272,7 +19272,7 @@
         <v>215</v>
       </c>
       <c r="C292" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -19283,7 +19283,7 @@
         <v>216</v>
       </c>
       <c r="C293" s="3">
-        <v>43984</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -19305,7 +19305,7 @@
         <v>217</v>
       </c>
       <c r="C295" s="3">
-        <v>44056</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -19316,7 +19316,7 @@
         <v>218</v>
       </c>
       <c r="C296" s="3">
-        <v>44096</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -19338,7 +19338,7 @@
         <v>217</v>
       </c>
       <c r="C298" s="3">
-        <v>44060</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -19349,7 +19349,7 @@
         <v>218</v>
       </c>
       <c r="C299" s="3">
-        <v>44110</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -19360,7 +19360,7 @@
         <v>215</v>
       </c>
       <c r="C300" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -19371,7 +19371,7 @@
         <v>217</v>
       </c>
       <c r="C301" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -19382,7 +19382,7 @@
         <v>215</v>
       </c>
       <c r="C302" s="3">
-        <v>44188</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -19393,7 +19393,7 @@
         <v>218</v>
       </c>
       <c r="C303" s="3">
-        <v>44186</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -19404,7 +19404,7 @@
         <v>215</v>
       </c>
       <c r="C304" s="3">
-        <v>44194</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -19415,7 +19415,7 @@
         <v>218</v>
       </c>
       <c r="C305" s="3">
-        <v>44194</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -19426,7 +19426,7 @@
         <v>215</v>
       </c>
       <c r="C306" s="3">
-        <v>44075</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -19437,7 +19437,7 @@
         <v>217</v>
       </c>
       <c r="C307" s="3">
-        <v>44070</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -19459,7 +19459,7 @@
         <v>215</v>
       </c>
       <c r="C309" s="3">
-        <v>44202</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -19470,7 +19470,7 @@
         <v>218</v>
       </c>
       <c r="C310" s="3">
-        <v>44187</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -19481,7 +19481,7 @@
         <v>215</v>
       </c>
       <c r="C311" s="3">
-        <v>44223</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -19492,7 +19492,7 @@
         <v>218</v>
       </c>
       <c r="C312" s="3">
-        <v>44218</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -19503,7 +19503,7 @@
         <v>215</v>
       </c>
       <c r="C313" s="3">
-        <v>44110</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -19514,7 +19514,7 @@
         <v>217</v>
       </c>
       <c r="C314" s="3">
-        <v>44105</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -19525,7 +19525,7 @@
         <v>215</v>
       </c>
       <c r="C315" s="3">
-        <v>44183</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -19536,7 +19536,7 @@
         <v>217</v>
       </c>
       <c r="C316" s="3">
-        <v>44180</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -19547,7 +19547,7 @@
         <v>215</v>
       </c>
       <c r="C317" s="3">
-        <v>44235</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -19558,7 +19558,7 @@
         <v>218</v>
       </c>
       <c r="C318" s="3">
-        <v>44230</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -19569,7 +19569,7 @@
         <v>215</v>
       </c>
       <c r="C319" s="3">
-        <v>44237</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -19580,7 +19580,7 @@
         <v>218</v>
       </c>
       <c r="C320" s="3">
-        <v>44232</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -19591,7 +19591,7 @@
         <v>215</v>
       </c>
       <c r="C321" s="3">
-        <v>44193</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -19602,7 +19602,7 @@
         <v>217</v>
       </c>
       <c r="C322" s="3">
-        <v>44186</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -19613,7 +19613,7 @@
         <v>215</v>
       </c>
       <c r="C323" s="3">
-        <v>44197</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -19624,7 +19624,7 @@
         <v>217</v>
       </c>
       <c r="C324" s="3">
-        <v>44193</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -19635,7 +19635,7 @@
         <v>215</v>
       </c>
       <c r="C325" s="3">
-        <v>44001</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -19646,7 +19646,7 @@
         <v>215</v>
       </c>
       <c r="C326" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -19657,7 +19657,7 @@
         <v>216</v>
       </c>
       <c r="C327" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -19668,7 +19668,7 @@
         <v>215</v>
       </c>
       <c r="C328" s="3">
-        <v>43983</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -19679,7 +19679,7 @@
         <v>217</v>
       </c>
       <c r="C329" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -19690,7 +19690,7 @@
         <v>215</v>
       </c>
       <c r="C330" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -19701,7 +19701,7 @@
         <v>217</v>
       </c>
       <c r="C331" s="3">
-        <v>43994</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -19712,7 +19712,7 @@
         <v>215</v>
       </c>
       <c r="C332" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -19723,7 +19723,7 @@
         <v>217</v>
       </c>
       <c r="C333" s="3">
-        <v>44004</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -19734,7 +19734,7 @@
         <v>215</v>
       </c>
       <c r="C334" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -19745,7 +19745,7 @@
         <v>218</v>
       </c>
       <c r="C335" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -19767,7 +19767,7 @@
         <v>217</v>
       </c>
       <c r="C337" s="3">
-        <v>44036</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -19778,7 +19778,7 @@
         <v>215</v>
       </c>
       <c r="C338" s="3">
-        <v>44159</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -19789,7 +19789,7 @@
         <v>218</v>
       </c>
       <c r="C339" s="3">
-        <v>44154</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -19800,7 +19800,7 @@
         <v>215</v>
       </c>
       <c r="C340" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -19822,7 +19822,7 @@
         <v>215</v>
       </c>
       <c r="C342" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -19833,7 +19833,7 @@
         <v>217</v>
       </c>
       <c r="C343" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -19844,7 +19844,7 @@
         <v>215</v>
       </c>
       <c r="C344" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -19855,7 +19855,7 @@
         <v>217</v>
       </c>
       <c r="C345" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -19866,7 +19866,7 @@
         <v>215</v>
       </c>
       <c r="C346" s="3">
-        <v>43984</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -19877,7 +19877,7 @@
         <v>217</v>
       </c>
       <c r="C347" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -19954,7 +19954,7 @@
         <v>215</v>
       </c>
       <c r="C354" s="3">
-        <v>44092</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -19976,7 +19976,7 @@
         <v>215</v>
       </c>
       <c r="C356" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -19987,7 +19987,7 @@
         <v>218</v>
       </c>
       <c r="C357" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -20020,7 +20020,7 @@
         <v>215</v>
       </c>
       <c r="C360" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -20031,7 +20031,7 @@
         <v>217</v>
       </c>
       <c r="C361" s="3">
-        <v>43980</v>
+        <v>43987</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/Job Ship Dates.xlsx
+++ b/scripts/data/Job Ship Dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMiller1\git\prodctrlcore\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07708C-0590-4FE0-B3DC-D3ADBD99EFB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8B29F5-5489-4DDE-9BBC-167698C1B5A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2130" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43990.341805671298" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.394117708332" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43990.341809490739" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.394121064812" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2142,7 +2142,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43990.341814467596" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.394125115738" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43990.341819328707" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.394129398148" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -5659,7 +5659,7 @@
     </i>
     <i>
       <x v="166"/>
-      <x v="3"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="167"/>
@@ -9886,8 +9886,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13476,7 +13476,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -13750,8 +13750,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184:XFD184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16039,8 +16039,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A325" sqref="A325:XFD325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/data/Job Ship Dates.xlsx
+++ b/scripts/data/Job Ship Dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMiller1\git\prodctrlcore\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8B29F5-5489-4DDE-9BBC-167698C1B5A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE806DE6-BCF5-4C9E-BDB3-91C2C3EB833C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="BAYS_HEADER">Bays!$A$1:$B$1</definedName>
     <definedName name="DATES_HEADER">Dates!$A$1:$C$1</definedName>
     <definedName name="PM_HEADER">PM!$A$1:$B$1</definedName>
-    <definedName name="PRODUCTS_HEADER">Products!$A$1:$B$1</definedName>
+    <definedName name="PRODUCTS_HEADER">Products!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.394117708332" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.459327777775" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.394121064812" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.45933287037" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2142,7 +2142,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.394125115738" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.459338541667" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.394129398148" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.459344212963" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -9886,7 +9886,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
       <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
@@ -13750,7 +13750,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A184" sqref="A184:XFD184"/>
     </sheetView>
   </sheetViews>

--- a/scripts/data/Job Ship Dates.xlsx
+++ b/scripts/data/Job Ship Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMiller1\git\prodctrlcore\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE806DE6-BCF5-4C9E-BDB3-91C2C3EB833C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA0A7A3-9674-495E-9F21-235EAB8A857C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.459327777775" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.649900925928" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.45933287037" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.649905787039" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2142,7 +2142,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.459338541667" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.64991122685" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.459344212963" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Miller, Pat" refreshedDate="43994.649916435184" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Job Shipments].[Job Structure Shipment].[Job Structure Shipment]" caption="Job Structure Shipment" numFmtId="0" hierarchy="45" level="1">
